--- a/database/meta/info_tags.xlsx
+++ b/database/meta/info_tags.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bukun\AppData\Local\Temp\Mxt91\RemoteFiles\264404_3_3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bukun\AppData\Local\Temp\Mxt91\RemoteFiles\67310_3_0\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -495,9 +495,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ta1</t>
-  </si>
-  <si>
     <t>t01</t>
   </si>
   <si>
@@ -513,31 +510,7 @@
     <t>t05</t>
   </si>
   <si>
-    <t>ta2</t>
-  </si>
-  <si>
     <t>t06</t>
-  </si>
-  <si>
-    <t>ta3</t>
-  </si>
-  <si>
-    <t>ta4</t>
-  </si>
-  <si>
-    <t>ta5</t>
-  </si>
-  <si>
-    <t>ta6</t>
-  </si>
-  <si>
-    <t>ta7</t>
-  </si>
-  <si>
-    <t>ta8</t>
-  </si>
-  <si>
-    <t>ta9</t>
   </si>
   <si>
     <t>Physical Geography</t>
@@ -545,6 +518,42 @@
   </si>
   <si>
     <t>agri</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t81</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t82</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t83</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t84</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t85</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t86</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t87</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t88</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t89</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1100,8 +1109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AML49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -2243,7 +2252,7 @@
     </row>
     <row r="3" spans="1:1026" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5" t="s">
@@ -3302,7 +3311,7 @@
     <row r="4" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A4" s="9"/>
       <c r="B4" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>32</v>
@@ -3353,7 +3362,7 @@
     <row r="5" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A5" s="9"/>
       <c r="B5" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>33</v>
@@ -3404,7 +3413,7 @@
     <row r="6" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A6" s="9"/>
       <c r="B6" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>34</v>
@@ -3455,7 +3464,7 @@
     <row r="7" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
       <c r="B7" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>35</v>
@@ -3506,7 +3515,7 @@
     <row r="8" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A8" s="9"/>
       <c r="B8" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>36</v>
@@ -3556,11 +3565,11 @@
     </row>
     <row r="9" spans="1:1026" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>123</v>
@@ -4613,7 +4622,7 @@
     <row r="10" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A10" s="9"/>
       <c r="B10" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>37</v>
@@ -4664,7 +4673,7 @@
     <row r="11" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A11" s="9"/>
       <c r="B11" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>38</v>
@@ -4715,7 +4724,7 @@
     <row r="12" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A12" s="9"/>
       <c r="B12" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>39</v>
@@ -4766,7 +4775,7 @@
     <row r="13" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
       <c r="B13" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>40</v>
@@ -4817,7 +4826,7 @@
     <row r="14" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A14" s="9"/>
       <c r="B14" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>41</v>
@@ -4868,7 +4877,7 @@
     <row r="15" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A15" s="9"/>
       <c r="B15" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>42</v>
@@ -4918,7 +4927,7 @@
     </row>
     <row r="16" spans="1:1026" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5" t="s">
@@ -5975,7 +5984,7 @@
     <row r="17" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A17" s="9"/>
       <c r="B17" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>56</v>
@@ -6026,7 +6035,7 @@
     <row r="18" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A18" s="9"/>
       <c r="B18" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>57</v>
@@ -6077,7 +6086,7 @@
     <row r="19" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A19" s="9"/>
       <c r="B19" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>58</v>
@@ -6128,7 +6137,7 @@
     <row r="20" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A20" s="9"/>
       <c r="B20" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>59</v>
@@ -6179,7 +6188,7 @@
     <row r="21" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A21" s="9"/>
       <c r="B21" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>60</v>
@@ -6229,7 +6238,7 @@
     </row>
     <row r="22" spans="1:1026" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>119</v>
@@ -7281,7 +7290,7 @@
     <row r="23" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A23" s="9"/>
       <c r="B23" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>66</v>
@@ -7330,7 +7339,7 @@
     <row r="24" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A24" s="9"/>
       <c r="B24" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>67</v>
@@ -7377,7 +7386,7 @@
     <row r="25" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A25" s="9"/>
       <c r="B25" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>68</v>
@@ -7423,7 +7432,7 @@
     </row>
     <row r="26" spans="1:1026" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="5" t="s">
@@ -8484,7 +8493,7 @@
     <row r="27" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A27" s="9"/>
       <c r="B27" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>72</v>
@@ -8541,7 +8550,7 @@
     <row r="28" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A28" s="9"/>
       <c r="B28" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>73</v>
@@ -8596,7 +8605,7 @@
     <row r="29" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A29" s="9"/>
       <c r="B29" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>74</v>
@@ -8651,7 +8660,7 @@
     <row r="30" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A30" s="9"/>
       <c r="B30" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>75</v>
@@ -8705,7 +8714,7 @@
     </row>
     <row r="31" spans="1:1026" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="5" t="s">
@@ -9768,7 +9777,7 @@
     <row r="32" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A32" s="9"/>
       <c r="B32" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>80</v>
@@ -9827,7 +9836,7 @@
     <row r="33" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A33" s="9"/>
       <c r="B33" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>81</v>
@@ -9885,7 +9894,7 @@
     </row>
     <row r="34" spans="1:1026" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>114</v>
@@ -10947,7 +10956,7 @@
     <row r="35" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A35" s="9"/>
       <c r="B35" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C35" s="9" t="s">
         <v>82</v>
@@ -11006,7 +11015,7 @@
     <row r="36" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A36" s="9"/>
       <c r="B36" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C36" s="9" t="s">
         <v>83</v>
@@ -11063,7 +11072,7 @@
     <row r="37" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A37" s="9"/>
       <c r="B37" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C37" s="9" t="s">
         <v>84</v>
@@ -11122,7 +11131,7 @@
     <row r="38" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A38" s="9"/>
       <c r="B38" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>85</v>
@@ -11181,7 +11190,7 @@
     <row r="39" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A39" s="9"/>
       <c r="B39" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C39" s="9" t="s">
         <v>86</v>
@@ -11239,7 +11248,7 @@
     </row>
     <row r="40" spans="1:1026" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>111</v>
@@ -12293,7 +12302,7 @@
     <row r="41" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A41" s="9"/>
       <c r="B41" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C41" s="9" t="s">
         <v>87</v>
@@ -12344,7 +12353,7 @@
     <row r="42" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A42" s="9"/>
       <c r="B42" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C42" s="9" t="s">
         <v>88</v>
@@ -12395,7 +12404,7 @@
     <row r="43" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A43" s="9"/>
       <c r="B43" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C43" s="9" t="s">
         <v>89</v>
@@ -12446,7 +12455,7 @@
     <row r="44" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A44" s="9"/>
       <c r="B44" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C44" s="9" t="s">
         <v>90</v>
@@ -12496,11 +12505,11 @@
     </row>
     <row r="45" spans="1:1026" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B45" s="5"/>
       <c r="C45" s="5" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>110</v>
@@ -13551,7 +13560,7 @@
     <row r="46" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A46" s="9"/>
       <c r="B46" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>91</v>
@@ -13600,7 +13609,7 @@
     <row r="47" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A47" s="9"/>
       <c r="B47" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C47" s="9" t="s">
         <v>92</v>
@@ -13649,7 +13658,7 @@
     <row r="48" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A48" s="9"/>
       <c r="B48" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C48" s="9" t="s">
         <v>93</v>
@@ -13698,7 +13707,7 @@
     <row r="49" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A49" s="9"/>
       <c r="B49" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C49" s="9" t="s">
         <v>94</v>

--- a/database/meta/info_tags.xlsx
+++ b/database/meta/info_tags.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bukun\AppData\Local\Temp\Mxt91\RemoteFiles\67310_3_0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\opt\github\TorCMS\database\meta\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,58 +14,13 @@
   <sheets>
     <sheet name="geodata" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="171027" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="145">
   <si>
-    <t>Record,record</t>
-  </si>
-  <si>
-    <t>Derive,derive</t>
-  </si>
-  <si>
-    <t>Temperal,temperal</t>
-  </si>
-  <si>
-    <t>Spatial,spatial</t>
-  </si>
-  <si>
-    <t>Resolution,resolution</t>
-  </si>
-  <si>
-    <t>Share_type,share_type</t>
-  </si>
-  <si>
-    <t>Storage,storage</t>
-  </si>
-  <si>
-    <t>View_class,view_class</t>
-  </si>
-  <si>
-    <t>Degree,degree</t>
-  </si>
-  <si>
-    <t>Paper_type,paper_type</t>
-  </si>
-  <si>
-    <t>Vectype,vectype</t>
-  </si>
-  <si>
-    <t>Rastype,rastype</t>
-  </si>
-  <si>
-    <t>Media_type,media_type</t>
-  </si>
-  <si>
-    <t>Filetype,filetype</t>
-  </si>
-  <si>
-    <t>Size,size</t>
-  </si>
-  <si>
     <t>RS Image,GIS Data,Document,Multimedia,Formatted Data</t>
   </si>
   <si>
@@ -185,12 +140,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Grade,grade</t>
-  </si>
-  <si>
-    <t>Serial,serial</t>
-  </si>
-  <si>
     <t>重力</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -555,6 +504,57 @@
   <si>
     <t>t89</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>record,Record</t>
+  </si>
+  <si>
+    <t>derive,Derive</t>
+  </si>
+  <si>
+    <t>grade,Grade</t>
+  </si>
+  <si>
+    <t>serial,Serial</t>
+  </si>
+  <si>
+    <t>temperal,Temperal</t>
+  </si>
+  <si>
+    <t>spatial,Spatial</t>
+  </si>
+  <si>
+    <t>resolution,Resolution</t>
+  </si>
+  <si>
+    <t>share_type,Share_type</t>
+  </si>
+  <si>
+    <t>storage,Storage</t>
+  </si>
+  <si>
+    <t>view_class,View_class</t>
+  </si>
+  <si>
+    <t>degree,Degree</t>
+  </si>
+  <si>
+    <t>paper_type,Paper_type</t>
+  </si>
+  <si>
+    <t>vectype,Vectype</t>
+  </si>
+  <si>
+    <t>rastype,Rastype</t>
+  </si>
+  <si>
+    <t>media_type,Media_type</t>
+  </si>
+  <si>
+    <t>filetype,Filetype</t>
+  </si>
+  <si>
+    <t>size,Size</t>
   </si>
 </sst>
 </file>
@@ -1110,7 +1110,7 @@
   <dimension ref="A1:AML49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -1119,7 +1119,8 @@
     <col min="2" max="2" width="13.44140625" style="4"/>
     <col min="3" max="3" width="25" style="4"/>
     <col min="4" max="4" width="20.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="9.21875" style="4"/>
+    <col min="5" max="5" width="30.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="9.21875" style="4"/>
     <col min="9" max="9" width="12.5546875" style="4"/>
     <col min="10" max="1026" width="9.21875" style="4"/>
     <col min="1027" max="16384" width="8.88671875" style="2"/>
@@ -1131,61 +1132,61 @@
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1</v>
+        <v>129</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>49</v>
+        <v>130</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>50</v>
+        <v>131</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>2</v>
+        <v>132</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>3</v>
+        <v>133</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>4</v>
+        <v>134</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>5</v>
+        <v>135</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>6</v>
+        <v>136</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>7</v>
+        <v>137</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>8</v>
+        <v>138</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>9</v>
+        <v>139</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>10</v>
+        <v>140</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>11</v>
+        <v>141</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>12</v>
+        <v>142</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>13</v>
+        <v>143</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>14</v>
+        <v>144</v>
       </c>
       <c r="V1" s="2"/>
       <c r="W1" s="2"/>
@@ -2199,67 +2200,67 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="T2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="U2" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:1026" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="E3" s="6">
         <v>1</v>
@@ -3311,13 +3312,13 @@
     <row r="4" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A4" s="9"/>
       <c r="B4" s="9" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="E4" s="10">
         <v>1</v>
@@ -3362,13 +3363,13 @@
     <row r="5" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A5" s="9"/>
       <c r="B5" s="9" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="E5" s="10">
         <v>1</v>
@@ -3413,13 +3414,13 @@
     <row r="6" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A6" s="9"/>
       <c r="B6" s="9" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E6" s="10">
         <v>1</v>
@@ -3464,13 +3465,13 @@
     <row r="7" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
       <c r="B7" s="9" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="E7" s="10">
         <v>1</v>
@@ -3515,13 +3516,13 @@
     <row r="8" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A8" s="9"/>
       <c r="B8" s="9" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="E8" s="10">
         <v>1</v>
@@ -3565,14 +3566,14 @@
     </row>
     <row r="9" spans="1:1026" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="E9" s="6">
         <v>1</v>
@@ -4622,13 +4623,13 @@
     <row r="10" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A10" s="9"/>
       <c r="B10" s="9" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="E10" s="10">
         <v>1</v>
@@ -4673,13 +4674,13 @@
     <row r="11" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A11" s="9"/>
       <c r="B11" s="9" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="E11" s="10">
         <v>1</v>
@@ -4724,13 +4725,13 @@
     <row r="12" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A12" s="9"/>
       <c r="B12" s="9" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="E12" s="10">
         <v>1</v>
@@ -4775,13 +4776,13 @@
     <row r="13" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
       <c r="B13" s="9" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="E13" s="10">
         <v>1</v>
@@ -4826,13 +4827,13 @@
     <row r="14" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A14" s="9"/>
       <c r="B14" s="9" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="E14" s="10">
         <v>1</v>
@@ -4877,13 +4878,13 @@
     <row r="15" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A15" s="9"/>
       <c r="B15" s="9" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="E15" s="10">
         <v>1</v>
@@ -4927,14 +4928,14 @@
     </row>
     <row r="16" spans="1:1026" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="E16" s="6">
         <v>1</v>
@@ -5984,13 +5985,13 @@
     <row r="17" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A17" s="9"/>
       <c r="B17" s="9" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="E17" s="10">
         <v>1</v>
@@ -6035,13 +6036,13 @@
     <row r="18" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A18" s="9"/>
       <c r="B18" s="9" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="E18" s="10">
         <v>1</v>
@@ -6086,13 +6087,13 @@
     <row r="19" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A19" s="9"/>
       <c r="B19" s="9" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="E19" s="10">
         <v>1</v>
@@ -6137,13 +6138,13 @@
     <row r="20" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A20" s="9"/>
       <c r="B20" s="9" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="E20" s="10">
         <v>1</v>
@@ -6188,13 +6189,13 @@
     <row r="21" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A21" s="9"/>
       <c r="B21" s="9" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="E21" s="10">
         <v>1</v>
@@ -6238,13 +6239,13 @@
     </row>
     <row r="22" spans="1:1026" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="E22" s="6">
         <v>1</v>
@@ -7290,13 +7291,13 @@
     <row r="23" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A23" s="9"/>
       <c r="B23" s="9" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="E23" s="10">
         <v>1</v>
@@ -7339,13 +7340,13 @@
     <row r="24" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A24" s="9"/>
       <c r="B24" s="9" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="E24" s="10">
         <v>1</v>
@@ -7386,13 +7387,13 @@
     <row r="25" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A25" s="9"/>
       <c r="B25" s="9" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="E25" s="10">
         <v>1</v>
@@ -7432,14 +7433,14 @@
     </row>
     <row r="26" spans="1:1026" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="5" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="E26" s="6">
         <v>1</v>
@@ -8493,13 +8494,13 @@
     <row r="27" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A27" s="9"/>
       <c r="B27" s="9" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="E27" s="10">
         <v>1</v>
@@ -8550,13 +8551,13 @@
     <row r="28" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A28" s="9"/>
       <c r="B28" s="9" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="E28" s="10">
         <v>1</v>
@@ -8605,13 +8606,13 @@
     <row r="29" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A29" s="9"/>
       <c r="B29" s="9" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="E29" s="10">
         <v>1</v>
@@ -8660,13 +8661,13 @@
     <row r="30" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A30" s="9"/>
       <c r="B30" s="9" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="E30" s="10">
         <v>1</v>
@@ -8714,14 +8715,14 @@
     </row>
     <row r="31" spans="1:1026" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="5" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="E31" s="6">
         <v>1</v>
@@ -9777,13 +9778,13 @@
     <row r="32" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A32" s="9"/>
       <c r="B32" s="9" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="E32" s="10">
         <v>1</v>
@@ -9836,13 +9837,13 @@
     <row r="33" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A33" s="9"/>
       <c r="B33" s="9" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="E33" s="10">
         <v>1</v>
@@ -9894,13 +9895,13 @@
     </row>
     <row r="34" spans="1:1026" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="E34" s="6">
         <v>1</v>
@@ -10956,13 +10957,13 @@
     <row r="35" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A35" s="9"/>
       <c r="B35" s="9" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="E35" s="10">
         <v>1</v>
@@ -11015,13 +11016,13 @@
     <row r="36" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A36" s="9"/>
       <c r="B36" s="9" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="E36" s="10">
         <v>1</v>
@@ -11072,13 +11073,13 @@
     <row r="37" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A37" s="9"/>
       <c r="B37" s="9" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="E37" s="10">
         <v>1</v>
@@ -11131,13 +11132,13 @@
     <row r="38" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A38" s="9"/>
       <c r="B38" s="9" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="E38" s="10">
         <v>1</v>
@@ -11190,13 +11191,13 @@
     <row r="39" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A39" s="9"/>
       <c r="B39" s="9" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="E39" s="10">
         <v>1</v>
@@ -11248,13 +11249,13 @@
     </row>
     <row r="40" spans="1:1026" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="E40" s="6">
         <v>1</v>
@@ -12302,13 +12303,13 @@
     <row r="41" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A41" s="9"/>
       <c r="B41" s="9" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="E41" s="10">
         <v>1</v>
@@ -12353,13 +12354,13 @@
     <row r="42" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A42" s="9"/>
       <c r="B42" s="9" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="E42" s="10">
         <v>1</v>
@@ -12404,13 +12405,13 @@
     <row r="43" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A43" s="9"/>
       <c r="B43" s="9" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="E43" s="10">
         <v>1</v>
@@ -12455,13 +12456,13 @@
     <row r="44" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A44" s="9"/>
       <c r="B44" s="9" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="E44" s="10">
         <v>1</v>
@@ -12505,14 +12506,14 @@
     </row>
     <row r="45" spans="1:1026" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="B45" s="5"/>
       <c r="C45" s="5" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="E45" s="6">
         <v>1</v>
@@ -13560,13 +13561,13 @@
     <row r="46" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A46" s="9"/>
       <c r="B46" s="9" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="E46" s="10">
         <v>1</v>
@@ -13609,13 +13610,13 @@
     <row r="47" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A47" s="9"/>
       <c r="B47" s="9" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="E47" s="10">
         <v>1</v>
@@ -13658,13 +13659,13 @@
     <row r="48" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A48" s="9"/>
       <c r="B48" s="9" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="E48" s="10">
         <v>1</v>
@@ -13707,13 +13708,13 @@
     <row r="49" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A49" s="9"/>
       <c r="B49" s="9" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="E49" s="10">
         <v>1</v>

--- a/database/meta/info_tags.xlsx
+++ b/database/meta/info_tags.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="147">
   <si>
     <t>RS Image,GIS Data,Document,Multimedia,Formatted Data</t>
   </si>
@@ -555,6 +555,14 @@
   </si>
   <si>
     <t>size,Size</t>
+  </si>
+  <si>
+    <t>contributor,Contributor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1109,8 +1117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AML49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="K22" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="X47" sqref="X47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -1188,7 +1196,9 @@
       <c r="U1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="V1" s="2"/>
+      <c r="V1" s="2" t="s">
+        <v>145</v>
+      </c>
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
@@ -2250,6 +2260,9 @@
       <c r="U2" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="V2" s="4" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="3" spans="1:1026" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
@@ -2303,7 +2316,9 @@
       <c r="U3" s="6">
         <v>1</v>
       </c>
-      <c r="V3" s="7"/>
+      <c r="V3" s="4">
+        <v>1</v>
+      </c>
       <c r="W3" s="7"/>
       <c r="X3" s="7"/>
       <c r="Y3" s="7"/>
@@ -3359,6 +3374,9 @@
       <c r="U4" s="10">
         <v>1</v>
       </c>
+      <c r="V4" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A5" s="9"/>
@@ -3410,6 +3428,9 @@
       <c r="U5" s="10">
         <v>1</v>
       </c>
+      <c r="V5" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A6" s="9"/>
@@ -3461,6 +3482,9 @@
       <c r="U6" s="10">
         <v>1</v>
       </c>
+      <c r="V6" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
@@ -3512,6 +3536,9 @@
       <c r="U7" s="10">
         <v>1</v>
       </c>
+      <c r="V7" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A8" s="9"/>
@@ -3563,6 +3590,9 @@
       <c r="U8" s="10">
         <v>1</v>
       </c>
+      <c r="V8" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:1026" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
@@ -3614,7 +3644,9 @@
       <c r="U9" s="6">
         <v>1</v>
       </c>
-      <c r="V9" s="7"/>
+      <c r="V9" s="4">
+        <v>1</v>
+      </c>
       <c r="W9" s="7"/>
       <c r="X9" s="7"/>
       <c r="Y9" s="7"/>
@@ -4670,6 +4702,9 @@
       <c r="U10" s="10">
         <v>1</v>
       </c>
+      <c r="V10" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A11" s="9"/>
@@ -4721,6 +4756,9 @@
       <c r="U11" s="10">
         <v>1</v>
       </c>
+      <c r="V11" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A12" s="9"/>
@@ -4772,6 +4810,9 @@
       <c r="U12" s="10">
         <v>1</v>
       </c>
+      <c r="V12" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
@@ -4823,6 +4864,9 @@
       <c r="U13" s="10">
         <v>1</v>
       </c>
+      <c r="V13" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A14" s="9"/>
@@ -4874,6 +4918,9 @@
       <c r="U14" s="10">
         <v>1</v>
       </c>
+      <c r="V14" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A15" s="9"/>
@@ -4925,6 +4972,9 @@
       <c r="U15" s="10">
         <v>1</v>
       </c>
+      <c r="V15" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:1026" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
@@ -4976,7 +5026,9 @@
       <c r="U16" s="6">
         <v>1</v>
       </c>
-      <c r="V16" s="7"/>
+      <c r="V16" s="4">
+        <v>1</v>
+      </c>
       <c r="W16" s="7"/>
       <c r="X16" s="7"/>
       <c r="Y16" s="7"/>
@@ -6032,6 +6084,9 @@
       <c r="U17" s="10">
         <v>1</v>
       </c>
+      <c r="V17" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A18" s="9"/>
@@ -6083,6 +6138,9 @@
       <c r="U18" s="10">
         <v>1</v>
       </c>
+      <c r="V18" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A19" s="9"/>
@@ -6134,6 +6192,9 @@
       <c r="U19" s="10">
         <v>1</v>
       </c>
+      <c r="V19" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A20" s="9"/>
@@ -6185,6 +6246,9 @@
       <c r="U20" s="10">
         <v>1</v>
       </c>
+      <c r="V20" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A21" s="9"/>
@@ -6236,6 +6300,9 @@
       <c r="U21" s="10">
         <v>1</v>
       </c>
+      <c r="V21" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:1026" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
@@ -6282,7 +6349,9 @@
       <c r="U22" s="6">
         <v>1</v>
       </c>
-      <c r="V22" s="7"/>
+      <c r="V22" s="4">
+        <v>1</v>
+      </c>
       <c r="W22" s="7"/>
       <c r="X22" s="7"/>
       <c r="Y22" s="7"/>
@@ -7336,6 +7405,9 @@
       <c r="U23" s="10">
         <v>1</v>
       </c>
+      <c r="V23" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A24" s="9"/>
@@ -7383,6 +7455,9 @@
       <c r="U24" s="10">
         <v>1</v>
       </c>
+      <c r="V24" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A25" s="9"/>
@@ -7430,6 +7505,9 @@
       <c r="U25" s="10">
         <v>1</v>
       </c>
+      <c r="V25" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:1026" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
@@ -7485,7 +7563,9 @@
       <c r="U26" s="6">
         <v>1</v>
       </c>
-      <c r="V26" s="7"/>
+      <c r="V26" s="4">
+        <v>1</v>
+      </c>
       <c r="W26" s="7"/>
       <c r="X26" s="7"/>
       <c r="Y26" s="7"/>
@@ -8547,6 +8627,9 @@
       <c r="U27" s="10">
         <v>1</v>
       </c>
+      <c r="V27" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A28" s="9"/>
@@ -8602,6 +8685,9 @@
       <c r="U28" s="10">
         <v>1</v>
       </c>
+      <c r="V28" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A29" s="9"/>
@@ -8657,6 +8743,9 @@
       <c r="U29" s="10">
         <v>1</v>
       </c>
+      <c r="V29" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A30" s="9"/>
@@ -8712,6 +8801,9 @@
       <c r="U30" s="10">
         <v>1</v>
       </c>
+      <c r="V30" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:1026" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
@@ -8769,7 +8861,9 @@
       <c r="U31" s="6">
         <v>1</v>
       </c>
-      <c r="V31" s="7"/>
+      <c r="V31" s="4">
+        <v>1</v>
+      </c>
       <c r="W31" s="7"/>
       <c r="X31" s="7"/>
       <c r="Y31" s="7"/>
@@ -9833,6 +9927,9 @@
       <c r="U32" s="10">
         <v>1</v>
       </c>
+      <c r="V32" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="33" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A33" s="9"/>
@@ -9892,6 +9989,9 @@
       <c r="U33" s="10">
         <v>1</v>
       </c>
+      <c r="V33" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="34" spans="1:1026" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
@@ -9948,7 +10048,9 @@
       <c r="U34" s="6">
         <v>1</v>
       </c>
-      <c r="V34" s="7"/>
+      <c r="V34" s="4">
+        <v>1</v>
+      </c>
       <c r="W34" s="7"/>
       <c r="X34" s="7"/>
       <c r="Y34" s="7"/>
@@ -11012,6 +11114,9 @@
       <c r="U35" s="10">
         <v>1</v>
       </c>
+      <c r="V35" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="36" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A36" s="9"/>
@@ -11069,6 +11174,9 @@
       <c r="U36" s="10">
         <v>1</v>
       </c>
+      <c r="V36" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="37" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A37" s="9"/>
@@ -11128,6 +11236,9 @@
       <c r="U37" s="10">
         <v>1</v>
       </c>
+      <c r="V37" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="38" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A38" s="9"/>
@@ -11187,6 +11298,9 @@
       <c r="U38" s="10">
         <v>1</v>
       </c>
+      <c r="V38" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="39" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A39" s="9"/>
@@ -11246,6 +11360,9 @@
       <c r="U39" s="10">
         <v>1</v>
       </c>
+      <c r="V39" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="40" spans="1:1026" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
@@ -11294,7 +11411,9 @@
       <c r="U40" s="6">
         <v>1</v>
       </c>
-      <c r="V40" s="7"/>
+      <c r="V40" s="4">
+        <v>1</v>
+      </c>
       <c r="W40" s="7"/>
       <c r="X40" s="7"/>
       <c r="Y40" s="7"/>
@@ -12350,6 +12469,9 @@
       <c r="U41" s="10">
         <v>1</v>
       </c>
+      <c r="V41" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="42" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A42" s="9"/>
@@ -12401,6 +12523,9 @@
       <c r="U42" s="10">
         <v>1</v>
       </c>
+      <c r="V42" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="43" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A43" s="9"/>
@@ -12452,6 +12577,9 @@
       <c r="U43" s="10">
         <v>1</v>
       </c>
+      <c r="V43" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="44" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A44" s="9"/>
@@ -12503,6 +12631,9 @@
       <c r="U44" s="10">
         <v>1</v>
       </c>
+      <c r="V44" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="45" spans="1:1026" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
@@ -12552,7 +12683,9 @@
       <c r="U45" s="6">
         <v>1</v>
       </c>
-      <c r="V45" s="7"/>
+      <c r="V45" s="4">
+        <v>1</v>
+      </c>
       <c r="W45" s="7"/>
       <c r="X45" s="7"/>
       <c r="Y45" s="7"/>
@@ -13606,6 +13739,9 @@
       <c r="U46" s="10">
         <v>1</v>
       </c>
+      <c r="V46" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="47" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A47" s="9"/>
@@ -13655,6 +13791,9 @@
       <c r="U47" s="10">
         <v>1</v>
       </c>
+      <c r="V47" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="48" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A48" s="9"/>
@@ -13704,8 +13843,11 @@
       <c r="U48" s="10">
         <v>1</v>
       </c>
+      <c r="V48" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A49" s="9"/>
       <c r="B49" s="9" t="s">
         <v>114</v>
@@ -13751,6 +13893,9 @@
       </c>
       <c r="T49" s="14"/>
       <c r="U49" s="10">
+        <v>1</v>
+      </c>
+      <c r="V49" s="4">
         <v>1</v>
       </c>
     </row>

--- a/database/meta/info_tags.xlsx
+++ b/database/meta/info_tags.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="geodata" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027" iterateDelta="1E-4"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -69,9 +69,6 @@
     <t>Text,Pdf,Scansion</t>
   </si>
   <si>
-    <t>Mb</t>
-  </si>
-  <si>
     <t>marine physics</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -561,7 +558,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-</t>
+    <t>email:Mb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1117,8 +1118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AML49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K22" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="X47" sqref="X47"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="V3" sqref="V3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -1140,64 +1141,64 @@
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="E1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
@@ -2258,7 +2259,7 @@
         <v>15</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>16</v>
+        <v>145</v>
       </c>
       <c r="V2" s="4" t="s">
         <v>146</v>
@@ -2266,14 +2267,14 @@
     </row>
     <row r="3" spans="1:1026" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>107</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>108</v>
       </c>
       <c r="E3" s="6">
         <v>1</v>
@@ -3327,13 +3328,13 @@
     <row r="4" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A4" s="9"/>
       <c r="B4" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E4" s="10">
         <v>1</v>
@@ -3381,13 +3382,13 @@
     <row r="5" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A5" s="9"/>
       <c r="B5" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E5" s="10">
         <v>1</v>
@@ -3435,13 +3436,13 @@
     <row r="6" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A6" s="9"/>
       <c r="B6" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E6" s="10">
         <v>1</v>
@@ -3489,13 +3490,13 @@
     <row r="7" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
       <c r="B7" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E7" s="10">
         <v>1</v>
@@ -3543,13 +3544,13 @@
     <row r="8" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A8" s="9"/>
       <c r="B8" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E8" s="10">
         <v>1</v>
@@ -3596,14 +3597,14 @@
     </row>
     <row r="9" spans="1:1026" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E9" s="6">
         <v>1</v>
@@ -4655,13 +4656,13 @@
     <row r="10" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A10" s="9"/>
       <c r="B10" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E10" s="10">
         <v>1</v>
@@ -4709,13 +4710,13 @@
     <row r="11" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A11" s="9"/>
       <c r="B11" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E11" s="10">
         <v>1</v>
@@ -4763,13 +4764,13 @@
     <row r="12" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A12" s="9"/>
       <c r="B12" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E12" s="10">
         <v>1</v>
@@ -4817,13 +4818,13 @@
     <row r="13" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
       <c r="B13" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E13" s="10">
         <v>1</v>
@@ -4871,13 +4872,13 @@
     <row r="14" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A14" s="9"/>
       <c r="B14" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E14" s="10">
         <v>1</v>
@@ -4925,13 +4926,13 @@
     <row r="15" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A15" s="9"/>
       <c r="B15" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E15" s="10">
         <v>1</v>
@@ -4978,14 +4979,14 @@
     </row>
     <row r="16" spans="1:1026" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>104</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>105</v>
       </c>
       <c r="E16" s="6">
         <v>1</v>
@@ -6037,13 +6038,13 @@
     <row r="17" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A17" s="9"/>
       <c r="B17" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E17" s="10">
         <v>1</v>
@@ -6091,13 +6092,13 @@
     <row r="18" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A18" s="9"/>
       <c r="B18" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E18" s="10">
         <v>1</v>
@@ -6145,13 +6146,13 @@
     <row r="19" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A19" s="9"/>
       <c r="B19" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E19" s="10">
         <v>1</v>
@@ -6199,13 +6200,13 @@
     <row r="20" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A20" s="9"/>
       <c r="B20" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E20" s="10">
         <v>1</v>
@@ -6253,13 +6254,13 @@
     <row r="21" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A21" s="9"/>
       <c r="B21" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E21" s="10">
         <v>1</v>
@@ -6306,13 +6307,13 @@
     </row>
     <row r="22" spans="1:1026" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C22" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>102</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>103</v>
       </c>
       <c r="E22" s="6">
         <v>1</v>
@@ -7360,13 +7361,13 @@
     <row r="23" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A23" s="9"/>
       <c r="B23" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E23" s="10">
         <v>1</v>
@@ -7412,13 +7413,13 @@
     <row r="24" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A24" s="9"/>
       <c r="B24" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E24" s="10">
         <v>1</v>
@@ -7462,13 +7463,13 @@
     <row r="25" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A25" s="9"/>
       <c r="B25" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E25" s="10">
         <v>1</v>
@@ -7511,14 +7512,14 @@
     </row>
     <row r="26" spans="1:1026" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>100</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>101</v>
       </c>
       <c r="E26" s="6">
         <v>1</v>
@@ -8574,13 +8575,13 @@
     <row r="27" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A27" s="9"/>
       <c r="B27" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E27" s="10">
         <v>1</v>
@@ -8634,13 +8635,13 @@
     <row r="28" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A28" s="9"/>
       <c r="B28" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E28" s="10">
         <v>1</v>
@@ -8692,13 +8693,13 @@
     <row r="29" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A29" s="9"/>
       <c r="B29" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E29" s="10">
         <v>1</v>
@@ -8750,13 +8751,13 @@
     <row r="30" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A30" s="9"/>
       <c r="B30" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E30" s="10">
         <v>1</v>
@@ -8807,14 +8808,14 @@
     </row>
     <row r="31" spans="1:1026" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D31" s="5" t="s">
         <v>98</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>99</v>
       </c>
       <c r="E31" s="6">
         <v>1</v>
@@ -9872,13 +9873,13 @@
     <row r="32" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A32" s="9"/>
       <c r="B32" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E32" s="10">
         <v>1</v>
@@ -9934,13 +9935,13 @@
     <row r="33" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A33" s="9"/>
       <c r="B33" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E33" s="10">
         <v>1</v>
@@ -9995,13 +9996,13 @@
     </row>
     <row r="34" spans="1:1026" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E34" s="6">
         <v>1</v>
@@ -11059,13 +11060,13 @@
     <row r="35" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A35" s="9"/>
       <c r="B35" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E35" s="10">
         <v>1</v>
@@ -11121,13 +11122,13 @@
     <row r="36" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A36" s="9"/>
       <c r="B36" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E36" s="10">
         <v>1</v>
@@ -11181,13 +11182,13 @@
     <row r="37" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A37" s="9"/>
       <c r="B37" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E37" s="10">
         <v>1</v>
@@ -11243,13 +11244,13 @@
     <row r="38" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A38" s="9"/>
       <c r="B38" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E38" s="10">
         <v>1</v>
@@ -11305,13 +11306,13 @@
     <row r="39" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A39" s="9"/>
       <c r="B39" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E39" s="10">
         <v>1</v>
@@ -11366,13 +11367,13 @@
     </row>
     <row r="40" spans="1:1026" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C40" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D40" s="5" t="s">
         <v>94</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>95</v>
       </c>
       <c r="E40" s="6">
         <v>1</v>
@@ -12422,13 +12423,13 @@
     <row r="41" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A41" s="9"/>
       <c r="B41" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E41" s="10">
         <v>1</v>
@@ -12476,13 +12477,13 @@
     <row r="42" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A42" s="9"/>
       <c r="B42" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E42" s="10">
         <v>1</v>
@@ -12530,13 +12531,13 @@
     <row r="43" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A43" s="9"/>
       <c r="B43" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E43" s="10">
         <v>1</v>
@@ -12584,13 +12585,13 @@
     <row r="44" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A44" s="9"/>
       <c r="B44" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E44" s="10">
         <v>1</v>
@@ -12637,14 +12638,14 @@
     </row>
     <row r="45" spans="1:1026" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B45" s="5"/>
       <c r="C45" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E45" s="6">
         <v>1</v>
@@ -13694,13 +13695,13 @@
     <row r="46" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A46" s="9"/>
       <c r="B46" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E46" s="10">
         <v>1</v>
@@ -13746,13 +13747,13 @@
     <row r="47" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A47" s="9"/>
       <c r="B47" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E47" s="10">
         <v>1</v>
@@ -13798,13 +13799,13 @@
     <row r="48" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A48" s="9"/>
       <c r="B48" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E48" s="10">
         <v>1</v>
@@ -13850,13 +13851,13 @@
     <row r="49" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A49" s="9"/>
       <c r="B49" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E49" s="10">
         <v>1</v>

--- a/database/meta/info_tags.xlsx
+++ b/database/meta/info_tags.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="151">
   <si>
     <t>RS Image,GIS Data,Document,Multimedia,Formatted Data</t>
   </si>
@@ -558,11 +558,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>email:Mb</t>
+    <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>date</t>
+    <t>number:Mb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>memo,Memo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contact_email,Contact Email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>texx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1119,7 +1135,7 @@
   <dimension ref="A1:AML49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="V3" sqref="V3"/>
+      <selection activeCell="Y6" sqref="Y6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -1200,8 +1216,12 @@
       <c r="V1" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
+      <c r="W1" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
       <c r="AA1" s="2"/>
@@ -2259,10 +2279,16 @@
         <v>15</v>
       </c>
       <c r="U2" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="V2" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="V2" s="4" t="s">
-        <v>146</v>
+      <c r="W2" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:1026" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -2320,8 +2346,12 @@
       <c r="V3" s="4">
         <v>1</v>
       </c>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7"/>
+      <c r="W3" s="7">
+        <v>1</v>
+      </c>
+      <c r="X3" s="7">
+        <v>1</v>
+      </c>
       <c r="Y3" s="7"/>
       <c r="Z3" s="7"/>
       <c r="AA3" s="7"/>
@@ -3378,6 +3408,12 @@
       <c r="V4" s="4">
         <v>1</v>
       </c>
+      <c r="W4" s="7">
+        <v>1</v>
+      </c>
+      <c r="X4" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A5" s="9"/>
@@ -3432,6 +3468,12 @@
       <c r="V5" s="4">
         <v>1</v>
       </c>
+      <c r="W5" s="7">
+        <v>1</v>
+      </c>
+      <c r="X5" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A6" s="9"/>
@@ -3486,6 +3528,12 @@
       <c r="V6" s="4">
         <v>1</v>
       </c>
+      <c r="W6" s="7">
+        <v>1</v>
+      </c>
+      <c r="X6" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
@@ -3540,6 +3588,12 @@
       <c r="V7" s="4">
         <v>1</v>
       </c>
+      <c r="W7" s="7">
+        <v>1</v>
+      </c>
+      <c r="X7" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A8" s="9"/>
@@ -3594,6 +3648,12 @@
       <c r="V8" s="4">
         <v>1</v>
       </c>
+      <c r="W8" s="7">
+        <v>1</v>
+      </c>
+      <c r="X8" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:1026" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
@@ -3648,8 +3708,12 @@
       <c r="V9" s="4">
         <v>1</v>
       </c>
-      <c r="W9" s="7"/>
-      <c r="X9" s="7"/>
+      <c r="W9" s="7">
+        <v>1</v>
+      </c>
+      <c r="X9" s="7">
+        <v>1</v>
+      </c>
       <c r="Y9" s="7"/>
       <c r="Z9" s="7"/>
       <c r="AA9" s="7"/>
@@ -4706,6 +4770,12 @@
       <c r="V10" s="4">
         <v>1</v>
       </c>
+      <c r="W10" s="7">
+        <v>1</v>
+      </c>
+      <c r="X10" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A11" s="9"/>
@@ -4760,6 +4830,12 @@
       <c r="V11" s="4">
         <v>1</v>
       </c>
+      <c r="W11" s="7">
+        <v>1</v>
+      </c>
+      <c r="X11" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A12" s="9"/>
@@ -4814,6 +4890,12 @@
       <c r="V12" s="4">
         <v>1</v>
       </c>
+      <c r="W12" s="7">
+        <v>1</v>
+      </c>
+      <c r="X12" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
@@ -4868,6 +4950,12 @@
       <c r="V13" s="4">
         <v>1</v>
       </c>
+      <c r="W13" s="7">
+        <v>1</v>
+      </c>
+      <c r="X13" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A14" s="9"/>
@@ -4922,6 +5010,12 @@
       <c r="V14" s="4">
         <v>1</v>
       </c>
+      <c r="W14" s="7">
+        <v>1</v>
+      </c>
+      <c r="X14" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A15" s="9"/>
@@ -4976,6 +5070,12 @@
       <c r="V15" s="4">
         <v>1</v>
       </c>
+      <c r="W15" s="7">
+        <v>1</v>
+      </c>
+      <c r="X15" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:1026" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
@@ -5030,8 +5130,12 @@
       <c r="V16" s="4">
         <v>1</v>
       </c>
-      <c r="W16" s="7"/>
-      <c r="X16" s="7"/>
+      <c r="W16" s="7">
+        <v>1</v>
+      </c>
+      <c r="X16" s="7">
+        <v>1</v>
+      </c>
       <c r="Y16" s="7"/>
       <c r="Z16" s="7"/>
       <c r="AA16" s="7"/>
@@ -6088,6 +6192,12 @@
       <c r="V17" s="4">
         <v>1</v>
       </c>
+      <c r="W17" s="7">
+        <v>1</v>
+      </c>
+      <c r="X17" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A18" s="9"/>
@@ -6142,6 +6252,12 @@
       <c r="V18" s="4">
         <v>1</v>
       </c>
+      <c r="W18" s="7">
+        <v>1</v>
+      </c>
+      <c r="X18" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A19" s="9"/>
@@ -6196,6 +6312,12 @@
       <c r="V19" s="4">
         <v>1</v>
       </c>
+      <c r="W19" s="7">
+        <v>1</v>
+      </c>
+      <c r="X19" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A20" s="9"/>
@@ -6250,6 +6372,12 @@
       <c r="V20" s="4">
         <v>1</v>
       </c>
+      <c r="W20" s="7">
+        <v>1</v>
+      </c>
+      <c r="X20" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A21" s="9"/>
@@ -6304,6 +6432,12 @@
       <c r="V21" s="4">
         <v>1</v>
       </c>
+      <c r="W21" s="7">
+        <v>1</v>
+      </c>
+      <c r="X21" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:1026" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
@@ -6353,8 +6487,12 @@
       <c r="V22" s="4">
         <v>1</v>
       </c>
-      <c r="W22" s="7"/>
-      <c r="X22" s="7"/>
+      <c r="W22" s="7">
+        <v>1</v>
+      </c>
+      <c r="X22" s="7">
+        <v>1</v>
+      </c>
       <c r="Y22" s="7"/>
       <c r="Z22" s="7"/>
       <c r="AA22" s="7"/>
@@ -7409,6 +7547,12 @@
       <c r="V23" s="4">
         <v>1</v>
       </c>
+      <c r="W23" s="7">
+        <v>1</v>
+      </c>
+      <c r="X23" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A24" s="9"/>
@@ -7459,6 +7603,12 @@
       <c r="V24" s="4">
         <v>1</v>
       </c>
+      <c r="W24" s="7">
+        <v>1</v>
+      </c>
+      <c r="X24" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A25" s="9"/>
@@ -7509,6 +7659,12 @@
       <c r="V25" s="4">
         <v>1</v>
       </c>
+      <c r="W25" s="7">
+        <v>1</v>
+      </c>
+      <c r="X25" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:1026" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
@@ -7567,8 +7723,12 @@
       <c r="V26" s="4">
         <v>1</v>
       </c>
-      <c r="W26" s="7"/>
-      <c r="X26" s="7"/>
+      <c r="W26" s="7">
+        <v>1</v>
+      </c>
+      <c r="X26" s="7">
+        <v>1</v>
+      </c>
       <c r="Y26" s="7"/>
       <c r="Z26" s="7"/>
       <c r="AA26" s="7"/>
@@ -8631,6 +8791,12 @@
       <c r="V27" s="4">
         <v>1</v>
       </c>
+      <c r="W27" s="7">
+        <v>1</v>
+      </c>
+      <c r="X27" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A28" s="9"/>
@@ -8689,6 +8855,12 @@
       <c r="V28" s="4">
         <v>1</v>
       </c>
+      <c r="W28" s="7">
+        <v>1</v>
+      </c>
+      <c r="X28" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A29" s="9"/>
@@ -8747,6 +8919,12 @@
       <c r="V29" s="4">
         <v>1</v>
       </c>
+      <c r="W29" s="7">
+        <v>1</v>
+      </c>
+      <c r="X29" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A30" s="9"/>
@@ -8805,6 +8983,12 @@
       <c r="V30" s="4">
         <v>1</v>
       </c>
+      <c r="W30" s="7">
+        <v>1</v>
+      </c>
+      <c r="X30" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:1026" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
@@ -8865,8 +9049,12 @@
       <c r="V31" s="4">
         <v>1</v>
       </c>
-      <c r="W31" s="7"/>
-      <c r="X31" s="7"/>
+      <c r="W31" s="7">
+        <v>1</v>
+      </c>
+      <c r="X31" s="7">
+        <v>1</v>
+      </c>
       <c r="Y31" s="7"/>
       <c r="Z31" s="7"/>
       <c r="AA31" s="7"/>
@@ -9931,6 +10119,12 @@
       <c r="V32" s="4">
         <v>1</v>
       </c>
+      <c r="W32" s="7">
+        <v>1</v>
+      </c>
+      <c r="X32" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="33" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A33" s="9"/>
@@ -9993,6 +10187,12 @@
       <c r="V33" s="4">
         <v>1</v>
       </c>
+      <c r="W33" s="7">
+        <v>1</v>
+      </c>
+      <c r="X33" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="34" spans="1:1026" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
@@ -10052,8 +10252,12 @@
       <c r="V34" s="4">
         <v>1</v>
       </c>
-      <c r="W34" s="7"/>
-      <c r="X34" s="7"/>
+      <c r="W34" s="7">
+        <v>1</v>
+      </c>
+      <c r="X34" s="7">
+        <v>1</v>
+      </c>
       <c r="Y34" s="7"/>
       <c r="Z34" s="7"/>
       <c r="AA34" s="7"/>
@@ -11118,6 +11322,12 @@
       <c r="V35" s="4">
         <v>1</v>
       </c>
+      <c r="W35" s="7">
+        <v>1</v>
+      </c>
+      <c r="X35" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="36" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A36" s="9"/>
@@ -11178,6 +11388,12 @@
       <c r="V36" s="4">
         <v>1</v>
       </c>
+      <c r="W36" s="7">
+        <v>1</v>
+      </c>
+      <c r="X36" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="37" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A37" s="9"/>
@@ -11240,6 +11456,12 @@
       <c r="V37" s="4">
         <v>1</v>
       </c>
+      <c r="W37" s="7">
+        <v>1</v>
+      </c>
+      <c r="X37" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="38" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A38" s="9"/>
@@ -11302,6 +11524,12 @@
       <c r="V38" s="4">
         <v>1</v>
       </c>
+      <c r="W38" s="7">
+        <v>1</v>
+      </c>
+      <c r="X38" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="39" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A39" s="9"/>
@@ -11364,6 +11592,12 @@
       <c r="V39" s="4">
         <v>1</v>
       </c>
+      <c r="W39" s="7">
+        <v>1</v>
+      </c>
+      <c r="X39" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="40" spans="1:1026" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
@@ -11415,8 +11649,12 @@
       <c r="V40" s="4">
         <v>1</v>
       </c>
-      <c r="W40" s="7"/>
-      <c r="X40" s="7"/>
+      <c r="W40" s="7">
+        <v>1</v>
+      </c>
+      <c r="X40" s="7">
+        <v>1</v>
+      </c>
       <c r="Y40" s="7"/>
       <c r="Z40" s="7"/>
       <c r="AA40" s="7"/>
@@ -12473,6 +12711,12 @@
       <c r="V41" s="4">
         <v>1</v>
       </c>
+      <c r="W41" s="7">
+        <v>1</v>
+      </c>
+      <c r="X41" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="42" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A42" s="9"/>
@@ -12527,6 +12771,12 @@
       <c r="V42" s="4">
         <v>1</v>
       </c>
+      <c r="W42" s="7">
+        <v>1</v>
+      </c>
+      <c r="X42" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="43" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A43" s="9"/>
@@ -12581,6 +12831,12 @@
       <c r="V43" s="4">
         <v>1</v>
       </c>
+      <c r="W43" s="7">
+        <v>1</v>
+      </c>
+      <c r="X43" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="44" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A44" s="9"/>
@@ -12635,6 +12891,12 @@
       <c r="V44" s="4">
         <v>1</v>
       </c>
+      <c r="W44" s="7">
+        <v>1</v>
+      </c>
+      <c r="X44" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="45" spans="1:1026" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
@@ -12687,8 +12949,12 @@
       <c r="V45" s="4">
         <v>1</v>
       </c>
-      <c r="W45" s="7"/>
-      <c r="X45" s="7"/>
+      <c r="W45" s="7">
+        <v>1</v>
+      </c>
+      <c r="X45" s="7">
+        <v>1</v>
+      </c>
       <c r="Y45" s="7"/>
       <c r="Z45" s="7"/>
       <c r="AA45" s="7"/>
@@ -13743,6 +14009,12 @@
       <c r="V46" s="4">
         <v>1</v>
       </c>
+      <c r="W46" s="7">
+        <v>1</v>
+      </c>
+      <c r="X46" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="47" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A47" s="9"/>
@@ -13795,6 +14067,12 @@
       <c r="V47" s="4">
         <v>1</v>
       </c>
+      <c r="W47" s="7">
+        <v>1</v>
+      </c>
+      <c r="X47" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="48" spans="1:1026" x14ac:dyDescent="0.3">
       <c r="A48" s="9"/>
@@ -13847,8 +14125,14 @@
       <c r="V48" s="4">
         <v>1</v>
       </c>
+      <c r="W48" s="7">
+        <v>1</v>
+      </c>
+      <c r="X48" s="7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A49" s="9"/>
       <c r="B49" s="9" t="s">
         <v>113</v>
@@ -13897,6 +14181,12 @@
         <v>1</v>
       </c>
       <c r="V49" s="4">
+        <v>1</v>
+      </c>
+      <c r="W49" s="7">
+        <v>1</v>
+      </c>
+      <c r="X49" s="7">
         <v>1</v>
       </c>
     </row>

--- a/database/meta/info_tags.xlsx
+++ b/database/meta/info_tags.xlsx
@@ -570,15 +570,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>memo,Memo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>contact_email,Contact Email</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>texx</t>
+    <t>file_download,Download</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>download</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1135,7 +1135,7 @@
   <dimension ref="A1:AML49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="Y6" sqref="Y6"/>
+      <selection activeCell="X2" sqref="X2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -1217,10 +1217,10 @@
         <v>144</v>
       </c>
       <c r="W1" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="X1" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>148</v>
       </c>
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>

--- a/database/meta/info_tags.xlsx
+++ b/database/meta/info_tags.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\opt\github\TorCMS\database\meta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E63F43B3-FD83-46DB-A83C-9D8E602657FA}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A3245D8-CF97-41D2-A7C3-C751BEB2C3BC}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="195">
   <si>
     <t>slug</t>
   </si>
@@ -604,6 +604,14 @@
   </si>
   <si>
     <t>text</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>_from_projct,项目来源</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>GeoData,DRR</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1135,10 +1143,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AKZ49"/>
+  <dimension ref="A1:ALA49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BD1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="BZ1" sqref="BZ1"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3:L49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1150,10 +1158,10 @@
     <col min="5" max="5" width="30.6640625" style="1" customWidth="1"/>
     <col min="6" max="8" width="9.21875" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.5546875" style="1" customWidth="1"/>
-    <col min="10" max="988" width="9.21875" style="1" customWidth="1"/>
+    <col min="10" max="989" width="9.21875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:106" s="3" customFormat="1" ht="36" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:107" s="3" customFormat="1" ht="36" x14ac:dyDescent="0.3">
       <c r="A1" s="2">
         <v>9</v>
       </c>
@@ -1186,196 +1194,199 @@
         <v>8</v>
       </c>
       <c r="L1" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AI1" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AK1" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AL1" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AM1" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AN1" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AO1" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="AO1" s="3" t="s">
+      <c r="AP1" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="AP1" s="3" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="AQ1" s="3" t="s">
+      <c r="AR1" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="AR1" s="3" t="s">
+      <c r="AS1" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="AS1" s="3" t="s">
+      <c r="AT1" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="AT1" s="3" t="s">
+      <c r="AU1" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="AU1" s="3" t="s">
+      <c r="AV1" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="AV1" s="3" t="s">
+      <c r="AW1" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="AW1" s="3" t="s">
+      <c r="AX1" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="AX1" s="3" t="s">
+      <c r="AY1" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="AY1" s="3" t="s">
+      <c r="AZ1" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="AZ1" s="3" t="s">
+      <c r="BA1" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="BA1" s="3" t="s">
+      <c r="BB1" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="BB1" s="3" t="s">
+      <c r="BC1" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="BC1" s="3" t="s">
+      <c r="BD1" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="BD1" s="3" t="s">
+      <c r="BE1" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="BE1" s="3" t="s">
+      <c r="BF1" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="BF1" s="3" t="s">
+      <c r="BG1" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="BG1" s="3" t="s">
+      <c r="BH1" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="BH1" s="3" t="s">
+      <c r="BI1" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="BI1" s="3" t="s">
+      <c r="BJ1" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="BJ1" s="3" t="s">
+      <c r="BK1" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="BK1" s="3" t="s">
+      <c r="BL1" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="BL1" s="3" t="s">
+      <c r="BM1" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="BM1" s="3" t="s">
+      <c r="BN1" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="BN1" s="3" t="s">
+      <c r="BO1" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="BO1" s="3" t="s">
+      <c r="BP1" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="BP1" s="3" t="s">
+      <c r="BQ1" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="BQ1" s="3" t="s">
+      <c r="BR1" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="BR1" s="3" t="s">
+      <c r="BS1" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="BS1" s="3" t="s">
+      <c r="BT1" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="BT1" s="3" t="s">
+      <c r="BU1" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="BU1" s="3" t="s">
+      <c r="BV1" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="BV1" s="3" t="s">
+      <c r="BW1" s="3" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="2" spans="1:106" ht="108" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:107" ht="108" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1402,46 +1413,46 @@
         <v>28</v>
       </c>
       <c r="L2" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="O2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="P2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="Q2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="R2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="S2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="T2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="U2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="Z2" s="1" t="s">
         <v>192</v>
@@ -1590,8 +1601,11 @@
       <c r="BV2" s="1" t="s">
         <v>192</v>
       </c>
+      <c r="BW2" s="1" t="s">
+        <v>192</v>
+      </c>
     </row>
-    <row r="3" spans="1:106" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:107" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>42</v>
       </c>
@@ -1628,31 +1642,31 @@
       <c r="N3" s="5">
         <v>1</v>
       </c>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5">
-        <v>1</v>
-      </c>
+      <c r="O3" s="5">
+        <v>1</v>
+      </c>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5">
+        <v>1</v>
+      </c>
+      <c r="R3" s="5"/>
       <c r="S3" s="5">
         <v>1</v>
       </c>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5">
-        <v>1</v>
-      </c>
-      <c r="V3" s="1">
-        <v>1</v>
-      </c>
-      <c r="W3" s="6">
+      <c r="T3" s="5">
+        <v>1</v>
+      </c>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5">
+        <v>1</v>
+      </c>
+      <c r="W3" s="1">
         <v>1</v>
       </c>
       <c r="X3" s="6">
         <v>1</v>
       </c>
-      <c r="Z3" s="6">
+      <c r="Y3" s="6">
         <v>1</v>
       </c>
       <c r="AA3" s="6">
@@ -1799,8 +1813,11 @@
       <c r="BV3" s="6">
         <v>1</v>
       </c>
+      <c r="BW3" s="6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A4" s="7"/>
       <c r="B4" s="7" t="s">
         <v>45</v>
@@ -1828,7 +1845,7 @@
         <v>1</v>
       </c>
       <c r="K4" s="9"/>
-      <c r="L4" s="8">
+      <c r="L4" s="5">
         <v>1</v>
       </c>
       <c r="M4" s="8">
@@ -1837,29 +1854,29 @@
       <c r="N4" s="8">
         <v>1</v>
       </c>
-      <c r="O4" s="9"/>
-      <c r="P4" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="9"/>
+      <c r="O4" s="8">
+        <v>1</v>
+      </c>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="8">
+        <v>1</v>
+      </c>
       <c r="R4" s="9"/>
-      <c r="S4" s="8">
-        <v>1</v>
-      </c>
-      <c r="T4" s="9"/>
-      <c r="U4" s="8">
-        <v>1</v>
-      </c>
-      <c r="V4" s="1">
-        <v>1</v>
-      </c>
-      <c r="W4" s="6">
+      <c r="S4" s="9"/>
+      <c r="T4" s="8">
+        <v>1</v>
+      </c>
+      <c r="U4" s="9"/>
+      <c r="V4" s="8">
+        <v>1</v>
+      </c>
+      <c r="W4" s="1">
         <v>1</v>
       </c>
       <c r="X4" s="6">
         <v>1</v>
       </c>
-      <c r="Z4" s="1">
+      <c r="Y4" s="6">
         <v>1</v>
       </c>
       <c r="AA4" s="1">
@@ -2006,8 +2023,11 @@
       <c r="BV4" s="1">
         <v>1</v>
       </c>
+      <c r="BW4" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
       <c r="B5" s="7" t="s">
         <v>48</v>
@@ -2035,7 +2055,7 @@
         <v>1</v>
       </c>
       <c r="K5" s="8"/>
-      <c r="L5" s="8">
+      <c r="L5" s="5">
         <v>1</v>
       </c>
       <c r="M5" s="8">
@@ -2044,29 +2064,29 @@
       <c r="N5" s="8">
         <v>1</v>
       </c>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="8"/>
+      <c r="O5" s="8">
+        <v>1</v>
+      </c>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8">
+        <v>1</v>
+      </c>
       <c r="R5" s="8"/>
-      <c r="S5" s="8">
-        <v>1</v>
-      </c>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8">
-        <v>1</v>
-      </c>
-      <c r="V5" s="1">
-        <v>1</v>
-      </c>
-      <c r="W5" s="6">
+      <c r="S5" s="8"/>
+      <c r="T5" s="8">
+        <v>1</v>
+      </c>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8">
+        <v>1</v>
+      </c>
+      <c r="W5" s="1">
         <v>1</v>
       </c>
       <c r="X5" s="6">
         <v>1</v>
       </c>
-      <c r="Z5" s="6">
+      <c r="Y5" s="6">
         <v>1</v>
       </c>
       <c r="AA5" s="6">
@@ -2213,7 +2233,9 @@
       <c r="BV5" s="6">
         <v>1</v>
       </c>
-      <c r="BW5" s="6"/>
+      <c r="BW5" s="6">
+        <v>1</v>
+      </c>
       <c r="BX5" s="6"/>
       <c r="BY5" s="6"/>
       <c r="BZ5" s="6"/>
@@ -2245,8 +2267,9 @@
       <c r="CZ5" s="6"/>
       <c r="DA5" s="6"/>
       <c r="DB5" s="6"/>
+      <c r="DC5" s="6"/>
     </row>
-    <row r="6" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
       <c r="B6" s="7" t="s">
         <v>51</v>
@@ -2274,7 +2297,7 @@
         <v>1</v>
       </c>
       <c r="K6" s="9"/>
-      <c r="L6" s="8">
+      <c r="L6" s="5">
         <v>1</v>
       </c>
       <c r="M6" s="8">
@@ -2283,29 +2306,29 @@
       <c r="N6" s="8">
         <v>1</v>
       </c>
-      <c r="O6" s="9"/>
-      <c r="P6" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="9"/>
+      <c r="O6" s="8">
+        <v>1</v>
+      </c>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="8">
+        <v>1</v>
+      </c>
       <c r="R6" s="9"/>
-      <c r="S6" s="8">
-        <v>1</v>
-      </c>
-      <c r="T6" s="9"/>
-      <c r="U6" s="8">
-        <v>1</v>
-      </c>
-      <c r="V6" s="1">
-        <v>1</v>
-      </c>
-      <c r="W6" s="6">
+      <c r="S6" s="9"/>
+      <c r="T6" s="8">
+        <v>1</v>
+      </c>
+      <c r="U6" s="9"/>
+      <c r="V6" s="8">
+        <v>1</v>
+      </c>
+      <c r="W6" s="1">
         <v>1</v>
       </c>
       <c r="X6" s="6">
         <v>1</v>
       </c>
-      <c r="Z6" s="1">
+      <c r="Y6" s="6">
         <v>1</v>
       </c>
       <c r="AA6" s="1">
@@ -2452,8 +2475,11 @@
       <c r="BV6" s="1">
         <v>1</v>
       </c>
+      <c r="BW6" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
       <c r="B7" s="7" t="s">
         <v>54</v>
@@ -2481,7 +2507,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="8"/>
-      <c r="L7" s="8">
+      <c r="L7" s="5">
         <v>1</v>
       </c>
       <c r="M7" s="8">
@@ -2490,29 +2516,29 @@
       <c r="N7" s="8">
         <v>1</v>
       </c>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="8"/>
+      <c r="O7" s="8">
+        <v>1</v>
+      </c>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8">
+        <v>1</v>
+      </c>
       <c r="R7" s="8"/>
-      <c r="S7" s="8">
-        <v>1</v>
-      </c>
-      <c r="T7" s="8"/>
-      <c r="U7" s="8">
-        <v>1</v>
-      </c>
-      <c r="V7" s="1">
-        <v>1</v>
-      </c>
-      <c r="W7" s="6">
+      <c r="S7" s="8"/>
+      <c r="T7" s="8">
+        <v>1</v>
+      </c>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8">
+        <v>1</v>
+      </c>
+      <c r="W7" s="1">
         <v>1</v>
       </c>
       <c r="X7" s="6">
         <v>1</v>
       </c>
-      <c r="Z7" s="6">
+      <c r="Y7" s="6">
         <v>1</v>
       </c>
       <c r="AA7" s="6">
@@ -2659,7 +2685,9 @@
       <c r="BV7" s="6">
         <v>1</v>
       </c>
-      <c r="BW7" s="6"/>
+      <c r="BW7" s="6">
+        <v>1</v>
+      </c>
       <c r="BX7" s="6"/>
       <c r="BY7" s="6"/>
       <c r="BZ7" s="6"/>
@@ -2691,8 +2719,9 @@
       <c r="CZ7" s="6"/>
       <c r="DA7" s="6"/>
       <c r="DB7" s="6"/>
+      <c r="DC7" s="6"/>
     </row>
-    <row r="8" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
       <c r="B8" s="7" t="s">
         <v>57</v>
@@ -2720,7 +2749,7 @@
         <v>1</v>
       </c>
       <c r="K8" s="9"/>
-      <c r="L8" s="8">
+      <c r="L8" s="5">
         <v>1</v>
       </c>
       <c r="M8" s="8">
@@ -2729,29 +2758,29 @@
       <c r="N8" s="8">
         <v>1</v>
       </c>
-      <c r="O8" s="9"/>
-      <c r="P8" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="9"/>
+      <c r="O8" s="8">
+        <v>1</v>
+      </c>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="8">
+        <v>1</v>
+      </c>
       <c r="R8" s="9"/>
-      <c r="S8" s="8">
-        <v>1</v>
-      </c>
-      <c r="T8" s="9"/>
-      <c r="U8" s="8">
-        <v>1</v>
-      </c>
-      <c r="V8" s="1">
-        <v>1</v>
-      </c>
-      <c r="W8" s="6">
+      <c r="S8" s="9"/>
+      <c r="T8" s="8">
+        <v>1</v>
+      </c>
+      <c r="U8" s="9"/>
+      <c r="V8" s="8">
+        <v>1</v>
+      </c>
+      <c r="W8" s="1">
         <v>1</v>
       </c>
       <c r="X8" s="6">
         <v>1</v>
       </c>
-      <c r="Z8" s="1">
+      <c r="Y8" s="6">
         <v>1</v>
       </c>
       <c r="AA8" s="1">
@@ -2898,8 +2927,11 @@
       <c r="BV8" s="1">
         <v>1</v>
       </c>
+      <c r="BW8" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:106" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:107" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>60</v>
       </c>
@@ -2936,29 +2968,29 @@
       <c r="N9" s="5">
         <v>1</v>
       </c>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="5"/>
+      <c r="O9" s="5">
+        <v>1</v>
+      </c>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5">
+        <v>1</v>
+      </c>
       <c r="R9" s="5"/>
-      <c r="S9" s="5">
-        <v>1</v>
-      </c>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5">
-        <v>1</v>
-      </c>
-      <c r="V9" s="1">
-        <v>1</v>
-      </c>
-      <c r="W9" s="6">
+      <c r="S9" s="5"/>
+      <c r="T9" s="5">
+        <v>1</v>
+      </c>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5">
+        <v>1</v>
+      </c>
+      <c r="W9" s="1">
         <v>1</v>
       </c>
       <c r="X9" s="6">
         <v>1</v>
       </c>
-      <c r="Z9" s="6">
+      <c r="Y9" s="6">
         <v>1</v>
       </c>
       <c r="AA9" s="6">
@@ -3105,8 +3137,11 @@
       <c r="BV9" s="6">
         <v>1</v>
       </c>
+      <c r="BW9" s="6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
       <c r="B10" s="7" t="s">
         <v>45</v>
@@ -3134,7 +3169,7 @@
         <v>1</v>
       </c>
       <c r="K10" s="8"/>
-      <c r="L10" s="8">
+      <c r="L10" s="5">
         <v>1</v>
       </c>
       <c r="M10" s="8">
@@ -3143,29 +3178,29 @@
       <c r="N10" s="8">
         <v>1</v>
       </c>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="8"/>
+      <c r="O10" s="8">
+        <v>1</v>
+      </c>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8">
+        <v>1</v>
+      </c>
       <c r="R10" s="8"/>
-      <c r="S10" s="8">
-        <v>1</v>
-      </c>
-      <c r="T10" s="8"/>
-      <c r="U10" s="8">
-        <v>1</v>
-      </c>
-      <c r="V10" s="1">
-        <v>1</v>
-      </c>
-      <c r="W10" s="6">
+      <c r="S10" s="8"/>
+      <c r="T10" s="8">
+        <v>1</v>
+      </c>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8">
+        <v>1</v>
+      </c>
+      <c r="W10" s="1">
         <v>1</v>
       </c>
       <c r="X10" s="6">
         <v>1</v>
       </c>
-      <c r="Z10" s="1">
+      <c r="Y10" s="6">
         <v>1</v>
       </c>
       <c r="AA10" s="1">
@@ -3312,8 +3347,11 @@
       <c r="BV10" s="1">
         <v>1</v>
       </c>
+      <c r="BW10" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A11" s="7"/>
       <c r="B11" s="7" t="s">
         <v>48</v>
@@ -3341,7 +3379,7 @@
         <v>1</v>
       </c>
       <c r="K11" s="9"/>
-      <c r="L11" s="8">
+      <c r="L11" s="5">
         <v>1</v>
       </c>
       <c r="M11" s="8">
@@ -3350,29 +3388,29 @@
       <c r="N11" s="8">
         <v>1</v>
       </c>
-      <c r="O11" s="9"/>
-      <c r="P11" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="9"/>
+      <c r="O11" s="8">
+        <v>1</v>
+      </c>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="8">
+        <v>1</v>
+      </c>
       <c r="R11" s="9"/>
-      <c r="S11" s="8">
-        <v>1</v>
-      </c>
-      <c r="T11" s="9"/>
-      <c r="U11" s="8">
-        <v>1</v>
-      </c>
-      <c r="V11" s="1">
-        <v>1</v>
-      </c>
-      <c r="W11" s="6">
+      <c r="S11" s="9"/>
+      <c r="T11" s="8">
+        <v>1</v>
+      </c>
+      <c r="U11" s="9"/>
+      <c r="V11" s="8">
+        <v>1</v>
+      </c>
+      <c r="W11" s="1">
         <v>1</v>
       </c>
       <c r="X11" s="6">
         <v>1</v>
       </c>
-      <c r="Z11" s="6">
+      <c r="Y11" s="6">
         <v>1</v>
       </c>
       <c r="AA11" s="6">
@@ -3519,7 +3557,9 @@
       <c r="BV11" s="6">
         <v>1</v>
       </c>
-      <c r="BW11" s="6"/>
+      <c r="BW11" s="6">
+        <v>1</v>
+      </c>
       <c r="BX11" s="6"/>
       <c r="BY11" s="6"/>
       <c r="BZ11" s="6"/>
@@ -3551,8 +3591,9 @@
       <c r="CZ11" s="6"/>
       <c r="DA11" s="6"/>
       <c r="DB11" s="6"/>
+      <c r="DC11" s="6"/>
     </row>
-    <row r="12" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
       <c r="B12" s="7" t="s">
         <v>51</v>
@@ -3580,7 +3621,7 @@
         <v>1</v>
       </c>
       <c r="K12" s="8"/>
-      <c r="L12" s="8">
+      <c r="L12" s="5">
         <v>1</v>
       </c>
       <c r="M12" s="8">
@@ -3589,29 +3630,29 @@
       <c r="N12" s="8">
         <v>1</v>
       </c>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="8"/>
+      <c r="O12" s="8">
+        <v>1</v>
+      </c>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8">
+        <v>1</v>
+      </c>
       <c r="R12" s="8"/>
-      <c r="S12" s="8">
-        <v>1</v>
-      </c>
-      <c r="T12" s="8"/>
-      <c r="U12" s="8">
-        <v>1</v>
-      </c>
-      <c r="V12" s="1">
-        <v>1</v>
-      </c>
-      <c r="W12" s="6">
+      <c r="S12" s="8"/>
+      <c r="T12" s="8">
+        <v>1</v>
+      </c>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8">
+        <v>1</v>
+      </c>
+      <c r="W12" s="1">
         <v>1</v>
       </c>
       <c r="X12" s="6">
         <v>1</v>
       </c>
-      <c r="Z12" s="1">
+      <c r="Y12" s="6">
         <v>1</v>
       </c>
       <c r="AA12" s="1">
@@ -3758,8 +3799,11 @@
       <c r="BV12" s="1">
         <v>1</v>
       </c>
+      <c r="BW12" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="13" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
       <c r="B13" s="7" t="s">
         <v>54</v>
@@ -3787,7 +3831,7 @@
         <v>1</v>
       </c>
       <c r="K13" s="9"/>
-      <c r="L13" s="8">
+      <c r="L13" s="5">
         <v>1</v>
       </c>
       <c r="M13" s="8">
@@ -3796,29 +3840,29 @@
       <c r="N13" s="8">
         <v>1</v>
       </c>
-      <c r="O13" s="9"/>
-      <c r="P13" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="9"/>
+      <c r="O13" s="8">
+        <v>1</v>
+      </c>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="8">
+        <v>1</v>
+      </c>
       <c r="R13" s="9"/>
-      <c r="S13" s="8">
-        <v>1</v>
-      </c>
-      <c r="T13" s="9"/>
-      <c r="U13" s="8">
-        <v>1</v>
-      </c>
-      <c r="V13" s="1">
-        <v>1</v>
-      </c>
-      <c r="W13" s="6">
+      <c r="S13" s="9"/>
+      <c r="T13" s="8">
+        <v>1</v>
+      </c>
+      <c r="U13" s="9"/>
+      <c r="V13" s="8">
+        <v>1</v>
+      </c>
+      <c r="W13" s="1">
         <v>1</v>
       </c>
       <c r="X13" s="6">
         <v>1</v>
       </c>
-      <c r="Z13" s="6">
+      <c r="Y13" s="6">
         <v>1</v>
       </c>
       <c r="AA13" s="6">
@@ -3965,7 +4009,9 @@
       <c r="BV13" s="6">
         <v>1</v>
       </c>
-      <c r="BW13" s="6"/>
+      <c r="BW13" s="6">
+        <v>1</v>
+      </c>
       <c r="BX13" s="6"/>
       <c r="BY13" s="6"/>
       <c r="BZ13" s="6"/>
@@ -3997,8 +4043,9 @@
       <c r="CZ13" s="6"/>
       <c r="DA13" s="6"/>
       <c r="DB13" s="6"/>
+      <c r="DC13" s="6"/>
     </row>
-    <row r="14" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
       <c r="B14" s="7" t="s">
         <v>57</v>
@@ -4026,7 +4073,7 @@
         <v>1</v>
       </c>
       <c r="K14" s="9"/>
-      <c r="L14" s="8">
+      <c r="L14" s="5">
         <v>1</v>
       </c>
       <c r="M14" s="8">
@@ -4035,29 +4082,29 @@
       <c r="N14" s="8">
         <v>1</v>
       </c>
-      <c r="O14" s="9"/>
-      <c r="P14" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="9"/>
+      <c r="O14" s="8">
+        <v>1</v>
+      </c>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="8">
+        <v>1</v>
+      </c>
       <c r="R14" s="9"/>
-      <c r="S14" s="8">
-        <v>1</v>
-      </c>
-      <c r="T14" s="9"/>
-      <c r="U14" s="8">
-        <v>1</v>
-      </c>
-      <c r="V14" s="1">
-        <v>1</v>
-      </c>
-      <c r="W14" s="6">
+      <c r="S14" s="9"/>
+      <c r="T14" s="8">
+        <v>1</v>
+      </c>
+      <c r="U14" s="9"/>
+      <c r="V14" s="8">
+        <v>1</v>
+      </c>
+      <c r="W14" s="1">
         <v>1</v>
       </c>
       <c r="X14" s="6">
         <v>1</v>
       </c>
-      <c r="Z14" s="1">
+      <c r="Y14" s="6">
         <v>1</v>
       </c>
       <c r="AA14" s="1">
@@ -4204,8 +4251,11 @@
       <c r="BV14" s="1">
         <v>1</v>
       </c>
+      <c r="BW14" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="15" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
       <c r="B15" s="7" t="s">
         <v>71</v>
@@ -4233,7 +4283,7 @@
         <v>1</v>
       </c>
       <c r="K15" s="9"/>
-      <c r="L15" s="8">
+      <c r="L15" s="5">
         <v>1</v>
       </c>
       <c r="M15" s="8">
@@ -4242,29 +4292,29 @@
       <c r="N15" s="8">
         <v>1</v>
       </c>
-      <c r="O15" s="9"/>
-      <c r="P15" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="9"/>
+      <c r="O15" s="8">
+        <v>1</v>
+      </c>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="8">
+        <v>1</v>
+      </c>
       <c r="R15" s="9"/>
-      <c r="S15" s="8">
-        <v>1</v>
-      </c>
-      <c r="T15" s="9"/>
-      <c r="U15" s="8">
-        <v>1</v>
-      </c>
-      <c r="V15" s="1">
-        <v>1</v>
-      </c>
-      <c r="W15" s="6">
+      <c r="S15" s="9"/>
+      <c r="T15" s="8">
+        <v>1</v>
+      </c>
+      <c r="U15" s="9"/>
+      <c r="V15" s="8">
+        <v>1</v>
+      </c>
+      <c r="W15" s="1">
         <v>1</v>
       </c>
       <c r="X15" s="6">
         <v>1</v>
       </c>
-      <c r="Z15" s="6">
+      <c r="Y15" s="6">
         <v>1</v>
       </c>
       <c r="AA15" s="6">
@@ -4411,7 +4461,9 @@
       <c r="BV15" s="6">
         <v>1</v>
       </c>
-      <c r="BW15" s="6"/>
+      <c r="BW15" s="6">
+        <v>1</v>
+      </c>
       <c r="BX15" s="6"/>
       <c r="BY15" s="6"/>
       <c r="BZ15" s="6"/>
@@ -4443,8 +4495,9 @@
       <c r="CZ15" s="6"/>
       <c r="DA15" s="6"/>
       <c r="DB15" s="6"/>
+      <c r="DC15" s="6"/>
     </row>
-    <row r="16" spans="1:106" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:107" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>74</v>
       </c>
@@ -4481,29 +4534,29 @@
       <c r="N16" s="5">
         <v>1</v>
       </c>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="5"/>
+      <c r="O16" s="5">
+        <v>1</v>
+      </c>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5">
+        <v>1</v>
+      </c>
       <c r="R16" s="5"/>
-      <c r="S16" s="5">
-        <v>1</v>
-      </c>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5">
-        <v>1</v>
-      </c>
-      <c r="V16" s="1">
-        <v>1</v>
-      </c>
-      <c r="W16" s="6">
+      <c r="S16" s="5"/>
+      <c r="T16" s="5">
+        <v>1</v>
+      </c>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5">
+        <v>1</v>
+      </c>
+      <c r="W16" s="1">
         <v>1</v>
       </c>
       <c r="X16" s="6">
         <v>1</v>
       </c>
-      <c r="Z16" s="1">
+      <c r="Y16" s="6">
         <v>1</v>
       </c>
       <c r="AA16" s="1">
@@ -4650,7 +4703,9 @@
       <c r="BV16" s="1">
         <v>1</v>
       </c>
-      <c r="BW16" s="1"/>
+      <c r="BW16" s="1">
+        <v>1</v>
+      </c>
       <c r="BX16" s="1"/>
       <c r="BY16" s="1"/>
       <c r="BZ16" s="1"/>
@@ -4682,8 +4737,9 @@
       <c r="CZ16" s="1"/>
       <c r="DA16" s="1"/>
       <c r="DB16" s="1"/>
+      <c r="DC16" s="1"/>
     </row>
-    <row r="17" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
       <c r="B17" s="7" t="s">
         <v>45</v>
@@ -4711,7 +4767,7 @@
         <v>1</v>
       </c>
       <c r="K17" s="8"/>
-      <c r="L17" s="8">
+      <c r="L17" s="5">
         <v>1</v>
       </c>
       <c r="M17" s="8">
@@ -4720,29 +4776,29 @@
       <c r="N17" s="8">
         <v>1</v>
       </c>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="8"/>
+      <c r="O17" s="8">
+        <v>1</v>
+      </c>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8">
+        <v>1</v>
+      </c>
       <c r="R17" s="8"/>
-      <c r="S17" s="8">
-        <v>1</v>
-      </c>
-      <c r="T17" s="8"/>
-      <c r="U17" s="8">
-        <v>1</v>
-      </c>
-      <c r="V17" s="1">
-        <v>1</v>
-      </c>
-      <c r="W17" s="6">
+      <c r="S17" s="8"/>
+      <c r="T17" s="8">
+        <v>1</v>
+      </c>
+      <c r="U17" s="8"/>
+      <c r="V17" s="8">
+        <v>1</v>
+      </c>
+      <c r="W17" s="1">
         <v>1</v>
       </c>
       <c r="X17" s="6">
         <v>1</v>
       </c>
-      <c r="Z17" s="6">
+      <c r="Y17" s="6">
         <v>1</v>
       </c>
       <c r="AA17" s="6">
@@ -4889,7 +4945,9 @@
       <c r="BV17" s="6">
         <v>1</v>
       </c>
-      <c r="BW17" s="6"/>
+      <c r="BW17" s="6">
+        <v>1</v>
+      </c>
       <c r="BX17" s="6"/>
       <c r="BY17" s="6"/>
       <c r="BZ17" s="6"/>
@@ -4921,8 +4979,9 @@
       <c r="CZ17" s="6"/>
       <c r="DA17" s="6"/>
       <c r="DB17" s="6"/>
+      <c r="DC17" s="6"/>
     </row>
-    <row r="18" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
       <c r="B18" s="7" t="s">
         <v>48</v>
@@ -4950,7 +5009,7 @@
         <v>1</v>
       </c>
       <c r="K18" s="9"/>
-      <c r="L18" s="8">
+      <c r="L18" s="5">
         <v>1</v>
       </c>
       <c r="M18" s="8">
@@ -4959,29 +5018,29 @@
       <c r="N18" s="8">
         <v>1</v>
       </c>
-      <c r="O18" s="9"/>
-      <c r="P18" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="9"/>
+      <c r="O18" s="8">
+        <v>1</v>
+      </c>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="8">
+        <v>1</v>
+      </c>
       <c r="R18" s="9"/>
-      <c r="S18" s="8">
-        <v>1</v>
-      </c>
-      <c r="T18" s="9"/>
-      <c r="U18" s="8">
-        <v>1</v>
-      </c>
-      <c r="V18" s="1">
-        <v>1</v>
-      </c>
-      <c r="W18" s="6">
+      <c r="S18" s="9"/>
+      <c r="T18" s="8">
+        <v>1</v>
+      </c>
+      <c r="U18" s="9"/>
+      <c r="V18" s="8">
+        <v>1</v>
+      </c>
+      <c r="W18" s="1">
         <v>1</v>
       </c>
       <c r="X18" s="6">
         <v>1</v>
       </c>
-      <c r="Z18" s="1">
+      <c r="Y18" s="6">
         <v>1</v>
       </c>
       <c r="AA18" s="1">
@@ -5128,8 +5187,11 @@
       <c r="BV18" s="1">
         <v>1</v>
       </c>
+      <c r="BW18" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="19" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="B19" s="7" t="s">
         <v>51</v>
@@ -5157,7 +5219,7 @@
         <v>1</v>
       </c>
       <c r="K19" s="8"/>
-      <c r="L19" s="8">
+      <c r="L19" s="5">
         <v>1</v>
       </c>
       <c r="M19" s="8">
@@ -5166,29 +5228,29 @@
       <c r="N19" s="8">
         <v>1</v>
       </c>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="8"/>
+      <c r="O19" s="8">
+        <v>1</v>
+      </c>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8">
+        <v>1</v>
+      </c>
       <c r="R19" s="8"/>
-      <c r="S19" s="8">
-        <v>1</v>
-      </c>
-      <c r="T19" s="8"/>
-      <c r="U19" s="8">
-        <v>1</v>
-      </c>
-      <c r="V19" s="1">
-        <v>1</v>
-      </c>
-      <c r="W19" s="6">
+      <c r="S19" s="8"/>
+      <c r="T19" s="8">
+        <v>1</v>
+      </c>
+      <c r="U19" s="8"/>
+      <c r="V19" s="8">
+        <v>1</v>
+      </c>
+      <c r="W19" s="1">
         <v>1</v>
       </c>
       <c r="X19" s="6">
         <v>1</v>
       </c>
-      <c r="Z19" s="6">
+      <c r="Y19" s="6">
         <v>1</v>
       </c>
       <c r="AA19" s="6">
@@ -5335,7 +5397,9 @@
       <c r="BV19" s="6">
         <v>1</v>
       </c>
-      <c r="BW19" s="6"/>
+      <c r="BW19" s="6">
+        <v>1</v>
+      </c>
       <c r="BX19" s="6"/>
       <c r="BY19" s="6"/>
       <c r="BZ19" s="6"/>
@@ -5367,8 +5431,9 @@
       <c r="CZ19" s="6"/>
       <c r="DA19" s="6"/>
       <c r="DB19" s="6"/>
+      <c r="DC19" s="6"/>
     </row>
-    <row r="20" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
       <c r="B20" s="7" t="s">
         <v>54</v>
@@ -5396,7 +5461,7 @@
         <v>1</v>
       </c>
       <c r="K20" s="9"/>
-      <c r="L20" s="8">
+      <c r="L20" s="5">
         <v>1</v>
       </c>
       <c r="M20" s="8">
@@ -5405,29 +5470,29 @@
       <c r="N20" s="8">
         <v>1</v>
       </c>
-      <c r="O20" s="9"/>
-      <c r="P20" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="9"/>
+      <c r="O20" s="8">
+        <v>1</v>
+      </c>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="8">
+        <v>1</v>
+      </c>
       <c r="R20" s="9"/>
-      <c r="S20" s="8">
-        <v>1</v>
-      </c>
-      <c r="T20" s="9"/>
-      <c r="U20" s="8">
-        <v>1</v>
-      </c>
-      <c r="V20" s="1">
-        <v>1</v>
-      </c>
-      <c r="W20" s="6">
+      <c r="S20" s="9"/>
+      <c r="T20" s="8">
+        <v>1</v>
+      </c>
+      <c r="U20" s="9"/>
+      <c r="V20" s="8">
+        <v>1</v>
+      </c>
+      <c r="W20" s="1">
         <v>1</v>
       </c>
       <c r="X20" s="6">
         <v>1</v>
       </c>
-      <c r="Z20" s="1">
+      <c r="Y20" s="6">
         <v>1</v>
       </c>
       <c r="AA20" s="1">
@@ -5574,8 +5639,11 @@
       <c r="BV20" s="1">
         <v>1</v>
       </c>
+      <c r="BW20" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="21" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
       <c r="B21" s="7" t="s">
         <v>57</v>
@@ -5603,7 +5671,7 @@
         <v>1</v>
       </c>
       <c r="K21" s="8"/>
-      <c r="L21" s="8">
+      <c r="L21" s="5">
         <v>1</v>
       </c>
       <c r="M21" s="8">
@@ -5612,29 +5680,29 @@
       <c r="N21" s="8">
         <v>1</v>
       </c>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="8"/>
+      <c r="O21" s="8">
+        <v>1</v>
+      </c>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8">
+        <v>1</v>
+      </c>
       <c r="R21" s="8"/>
-      <c r="S21" s="8">
-        <v>1</v>
-      </c>
-      <c r="T21" s="8"/>
-      <c r="U21" s="8">
-        <v>1</v>
-      </c>
-      <c r="V21" s="1">
-        <v>1</v>
-      </c>
-      <c r="W21" s="6">
+      <c r="S21" s="8"/>
+      <c r="T21" s="8">
+        <v>1</v>
+      </c>
+      <c r="U21" s="8"/>
+      <c r="V21" s="8">
+        <v>1</v>
+      </c>
+      <c r="W21" s="1">
         <v>1</v>
       </c>
       <c r="X21" s="6">
         <v>1</v>
       </c>
-      <c r="Z21" s="6">
+      <c r="Y21" s="6">
         <v>1</v>
       </c>
       <c r="AA21" s="6">
@@ -5781,7 +5849,9 @@
       <c r="BV21" s="6">
         <v>1</v>
       </c>
-      <c r="BW21" s="6"/>
+      <c r="BW21" s="6">
+        <v>1</v>
+      </c>
       <c r="BX21" s="6"/>
       <c r="BY21" s="6"/>
       <c r="BZ21" s="6"/>
@@ -5813,8 +5883,9 @@
       <c r="CZ21" s="6"/>
       <c r="DA21" s="6"/>
       <c r="DB21" s="6"/>
+      <c r="DC21" s="6"/>
     </row>
-    <row r="22" spans="1:106" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:107" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>85</v>
       </c>
@@ -5847,29 +5918,29 @@
       <c r="N22" s="5">
         <v>1</v>
       </c>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="5"/>
+      <c r="O22" s="5">
+        <v>1</v>
+      </c>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5">
+        <v>1</v>
+      </c>
       <c r="R22" s="5"/>
-      <c r="S22" s="5">
-        <v>1</v>
-      </c>
-      <c r="T22" s="5"/>
-      <c r="U22" s="5">
-        <v>1</v>
-      </c>
-      <c r="V22" s="1">
-        <v>1</v>
-      </c>
-      <c r="W22" s="6">
+      <c r="S22" s="5"/>
+      <c r="T22" s="5">
+        <v>1</v>
+      </c>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5">
+        <v>1</v>
+      </c>
+      <c r="W22" s="1">
         <v>1</v>
       </c>
       <c r="X22" s="6">
         <v>1</v>
       </c>
-      <c r="Z22" s="1">
+      <c r="Y22" s="6">
         <v>1</v>
       </c>
       <c r="AA22" s="1">
@@ -6016,7 +6087,9 @@
       <c r="BV22" s="1">
         <v>1</v>
       </c>
-      <c r="BW22" s="1"/>
+      <c r="BW22" s="1">
+        <v>1</v>
+      </c>
       <c r="BX22" s="1"/>
       <c r="BY22" s="1"/>
       <c r="BZ22" s="1"/>
@@ -6048,8 +6121,9 @@
       <c r="CZ22" s="1"/>
       <c r="DA22" s="1"/>
       <c r="DB22" s="1"/>
+      <c r="DC22" s="1"/>
     </row>
-    <row r="23" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A23" s="7"/>
       <c r="B23" s="7" t="s">
         <v>45</v>
@@ -6075,7 +6149,7 @@
       <c r="K23" s="8">
         <v>1</v>
       </c>
-      <c r="L23" s="8">
+      <c r="L23" s="5">
         <v>1</v>
       </c>
       <c r="M23" s="8">
@@ -6084,29 +6158,29 @@
       <c r="N23" s="8">
         <v>1</v>
       </c>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q23" s="8"/>
+      <c r="O23" s="8">
+        <v>1</v>
+      </c>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8">
+        <v>1</v>
+      </c>
       <c r="R23" s="8"/>
-      <c r="S23" s="8">
-        <v>1</v>
-      </c>
-      <c r="T23" s="8"/>
-      <c r="U23" s="8">
-        <v>1</v>
-      </c>
-      <c r="V23" s="1">
-        <v>1</v>
-      </c>
-      <c r="W23" s="6">
+      <c r="S23" s="8"/>
+      <c r="T23" s="8">
+        <v>1</v>
+      </c>
+      <c r="U23" s="8"/>
+      <c r="V23" s="8">
+        <v>1</v>
+      </c>
+      <c r="W23" s="1">
         <v>1</v>
       </c>
       <c r="X23" s="6">
         <v>1</v>
       </c>
-      <c r="Z23" s="6">
+      <c r="Y23" s="6">
         <v>1</v>
       </c>
       <c r="AA23" s="6">
@@ -6253,7 +6327,9 @@
       <c r="BV23" s="6">
         <v>1</v>
       </c>
-      <c r="BW23" s="6"/>
+      <c r="BW23" s="6">
+        <v>1</v>
+      </c>
       <c r="BX23" s="6"/>
       <c r="BY23" s="6"/>
       <c r="BZ23" s="6"/>
@@ -6285,8 +6361,9 @@
       <c r="CZ23" s="6"/>
       <c r="DA23" s="6"/>
       <c r="DB23" s="6"/>
+      <c r="DC23" s="6"/>
     </row>
-    <row r="24" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A24" s="7"/>
       <c r="B24" s="7" t="s">
         <v>48</v>
@@ -6310,7 +6387,7 @@
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
-      <c r="L24" s="8">
+      <c r="L24" s="5">
         <v>1</v>
       </c>
       <c r="M24" s="8">
@@ -6319,29 +6396,29 @@
       <c r="N24" s="8">
         <v>1</v>
       </c>
-      <c r="O24" s="9"/>
-      <c r="P24" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q24" s="9"/>
+      <c r="O24" s="8">
+        <v>1</v>
+      </c>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="8">
+        <v>1</v>
+      </c>
       <c r="R24" s="9"/>
-      <c r="S24" s="8">
-        <v>1</v>
-      </c>
-      <c r="T24" s="9"/>
-      <c r="U24" s="8">
-        <v>1</v>
-      </c>
-      <c r="V24" s="1">
-        <v>1</v>
-      </c>
-      <c r="W24" s="6">
+      <c r="S24" s="9"/>
+      <c r="T24" s="8">
+        <v>1</v>
+      </c>
+      <c r="U24" s="9"/>
+      <c r="V24" s="8">
+        <v>1</v>
+      </c>
+      <c r="W24" s="1">
         <v>1</v>
       </c>
       <c r="X24" s="6">
         <v>1</v>
       </c>
-      <c r="Z24" s="1">
+      <c r="Y24" s="6">
         <v>1</v>
       </c>
       <c r="AA24" s="1">
@@ -6488,8 +6565,11 @@
       <c r="BV24" s="1">
         <v>1</v>
       </c>
+      <c r="BW24" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="25" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A25" s="7"/>
       <c r="B25" s="7" t="s">
         <v>51</v>
@@ -6513,7 +6593,7 @@
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
-      <c r="L25" s="8">
+      <c r="L25" s="5">
         <v>1</v>
       </c>
       <c r="M25" s="8">
@@ -6522,29 +6602,29 @@
       <c r="N25" s="8">
         <v>1</v>
       </c>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q25" s="8"/>
+      <c r="O25" s="8">
+        <v>1</v>
+      </c>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8">
+        <v>1</v>
+      </c>
       <c r="R25" s="8"/>
-      <c r="S25" s="8">
-        <v>1</v>
-      </c>
-      <c r="T25" s="8"/>
-      <c r="U25" s="8">
-        <v>1</v>
-      </c>
-      <c r="V25" s="1">
-        <v>1</v>
-      </c>
-      <c r="W25" s="6">
+      <c r="S25" s="8"/>
+      <c r="T25" s="8">
+        <v>1</v>
+      </c>
+      <c r="U25" s="8"/>
+      <c r="V25" s="8">
+        <v>1</v>
+      </c>
+      <c r="W25" s="1">
         <v>1</v>
       </c>
       <c r="X25" s="6">
         <v>1</v>
       </c>
-      <c r="Z25" s="6">
+      <c r="Y25" s="6">
         <v>1</v>
       </c>
       <c r="AA25" s="6">
@@ -6691,7 +6771,9 @@
       <c r="BV25" s="6">
         <v>1</v>
       </c>
-      <c r="BW25" s="6"/>
+      <c r="BW25" s="6">
+        <v>1</v>
+      </c>
       <c r="BX25" s="6"/>
       <c r="BY25" s="6"/>
       <c r="BZ25" s="6"/>
@@ -6723,8 +6805,9 @@
       <c r="CZ25" s="6"/>
       <c r="DA25" s="6"/>
       <c r="DB25" s="6"/>
+      <c r="DC25" s="6"/>
     </row>
-    <row r="26" spans="1:106" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:107" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>93</v>
       </c>
@@ -6761,10 +6844,10 @@
       <c r="N26" s="5">
         <v>1</v>
       </c>
-      <c r="O26" s="5"/>
-      <c r="P26" s="5">
-        <v>1</v>
-      </c>
+      <c r="O26" s="5">
+        <v>1</v>
+      </c>
+      <c r="P26" s="5"/>
       <c r="Q26" s="5">
         <v>1</v>
       </c>
@@ -6774,20 +6857,20 @@
       <c r="S26" s="5">
         <v>1</v>
       </c>
-      <c r="T26" s="5"/>
-      <c r="U26" s="5">
-        <v>1</v>
-      </c>
-      <c r="V26" s="1">
-        <v>1</v>
-      </c>
-      <c r="W26" s="6">
+      <c r="T26" s="5">
+        <v>1</v>
+      </c>
+      <c r="U26" s="5"/>
+      <c r="V26" s="5">
+        <v>1</v>
+      </c>
+      <c r="W26" s="1">
         <v>1</v>
       </c>
       <c r="X26" s="6">
         <v>1</v>
       </c>
-      <c r="Z26" s="1">
+      <c r="Y26" s="6">
         <v>1</v>
       </c>
       <c r="AA26" s="1">
@@ -6934,7 +7017,9 @@
       <c r="BV26" s="1">
         <v>1</v>
       </c>
-      <c r="BW26" s="1"/>
+      <c r="BW26" s="1">
+        <v>1</v>
+      </c>
       <c r="BX26" s="1"/>
       <c r="BY26" s="1"/>
       <c r="BZ26" s="1"/>
@@ -6966,8 +7051,9 @@
       <c r="CZ26" s="1"/>
       <c r="DA26" s="1"/>
       <c r="DB26" s="1"/>
+      <c r="DC26" s="1"/>
     </row>
-    <row r="27" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A27" s="7"/>
       <c r="B27" s="7" t="s">
         <v>45</v>
@@ -6997,7 +7083,7 @@
       <c r="K27" s="8">
         <v>1</v>
       </c>
-      <c r="L27" s="8">
+      <c r="L27" s="5">
         <v>1</v>
       </c>
       <c r="M27" s="8">
@@ -7006,10 +7092,10 @@
       <c r="N27" s="8">
         <v>1</v>
       </c>
-      <c r="O27" s="8"/>
-      <c r="P27" s="8">
-        <v>1</v>
-      </c>
+      <c r="O27" s="8">
+        <v>1</v>
+      </c>
+      <c r="P27" s="8"/>
       <c r="Q27" s="8">
         <v>1</v>
       </c>
@@ -7019,20 +7105,20 @@
       <c r="S27" s="8">
         <v>1</v>
       </c>
-      <c r="T27" s="8"/>
-      <c r="U27" s="8">
-        <v>1</v>
-      </c>
-      <c r="V27" s="1">
-        <v>1</v>
-      </c>
-      <c r="W27" s="6">
+      <c r="T27" s="8">
+        <v>1</v>
+      </c>
+      <c r="U27" s="8"/>
+      <c r="V27" s="8">
+        <v>1</v>
+      </c>
+      <c r="W27" s="1">
         <v>1</v>
       </c>
       <c r="X27" s="6">
         <v>1</v>
       </c>
-      <c r="Z27" s="6">
+      <c r="Y27" s="6">
         <v>1</v>
       </c>
       <c r="AA27" s="6">
@@ -7179,7 +7265,9 @@
       <c r="BV27" s="6">
         <v>1</v>
       </c>
-      <c r="BW27" s="6"/>
+      <c r="BW27" s="6">
+        <v>1</v>
+      </c>
       <c r="BX27" s="6"/>
       <c r="BY27" s="6"/>
       <c r="BZ27" s="6"/>
@@ -7211,8 +7299,9 @@
       <c r="CZ27" s="6"/>
       <c r="DA27" s="6"/>
       <c r="DB27" s="6"/>
+      <c r="DC27" s="6"/>
     </row>
-    <row r="28" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A28" s="7"/>
       <c r="B28" s="7" t="s">
         <v>48</v>
@@ -7240,7 +7329,7 @@
         <v>1</v>
       </c>
       <c r="K28" s="9"/>
-      <c r="L28" s="8">
+      <c r="L28" s="5">
         <v>1</v>
       </c>
       <c r="M28" s="8">
@@ -7249,33 +7338,33 @@
       <c r="N28" s="8">
         <v>1</v>
       </c>
-      <c r="O28" s="9"/>
-      <c r="P28" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q28" s="9">
+      <c r="O28" s="8">
+        <v>1</v>
+      </c>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="8">
         <v>1</v>
       </c>
       <c r="R28" s="9">
         <v>1</v>
       </c>
-      <c r="S28" s="8">
-        <v>1</v>
-      </c>
-      <c r="T28" s="9"/>
-      <c r="U28" s="8">
-        <v>1</v>
-      </c>
-      <c r="V28" s="1">
-        <v>1</v>
-      </c>
-      <c r="W28" s="6">
+      <c r="S28" s="9">
+        <v>1</v>
+      </c>
+      <c r="T28" s="8">
+        <v>1</v>
+      </c>
+      <c r="U28" s="9"/>
+      <c r="V28" s="8">
+        <v>1</v>
+      </c>
+      <c r="W28" s="1">
         <v>1</v>
       </c>
       <c r="X28" s="6">
         <v>1</v>
       </c>
-      <c r="Z28" s="1">
+      <c r="Y28" s="6">
         <v>1</v>
       </c>
       <c r="AA28" s="1">
@@ -7422,8 +7511,11 @@
       <c r="BV28" s="1">
         <v>1</v>
       </c>
+      <c r="BW28" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="29" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A29" s="7"/>
       <c r="B29" s="7" t="s">
         <v>51</v>
@@ -7451,7 +7543,7 @@
         <v>1</v>
       </c>
       <c r="K29" s="8"/>
-      <c r="L29" s="8">
+      <c r="L29" s="5">
         <v>1</v>
       </c>
       <c r="M29" s="8">
@@ -7460,10 +7552,10 @@
       <c r="N29" s="8">
         <v>1</v>
       </c>
-      <c r="O29" s="8"/>
-      <c r="P29" s="8">
-        <v>1</v>
-      </c>
+      <c r="O29" s="8">
+        <v>1</v>
+      </c>
+      <c r="P29" s="8"/>
       <c r="Q29" s="8">
         <v>1</v>
       </c>
@@ -7473,20 +7565,20 @@
       <c r="S29" s="8">
         <v>1</v>
       </c>
-      <c r="T29" s="8"/>
-      <c r="U29" s="8">
-        <v>1</v>
-      </c>
-      <c r="V29" s="1">
-        <v>1</v>
-      </c>
-      <c r="W29" s="6">
+      <c r="T29" s="8">
+        <v>1</v>
+      </c>
+      <c r="U29" s="8"/>
+      <c r="V29" s="8">
+        <v>1</v>
+      </c>
+      <c r="W29" s="1">
         <v>1</v>
       </c>
       <c r="X29" s="6">
         <v>1</v>
       </c>
-      <c r="Z29" s="6">
+      <c r="Y29" s="6">
         <v>1</v>
       </c>
       <c r="AA29" s="6">
@@ -7633,7 +7725,9 @@
       <c r="BV29" s="6">
         <v>1</v>
       </c>
-      <c r="BW29" s="6"/>
+      <c r="BW29" s="6">
+        <v>1</v>
+      </c>
       <c r="BX29" s="6"/>
       <c r="BY29" s="6"/>
       <c r="BZ29" s="6"/>
@@ -7665,8 +7759,9 @@
       <c r="CZ29" s="6"/>
       <c r="DA29" s="6"/>
       <c r="DB29" s="6"/>
+      <c r="DC29" s="6"/>
     </row>
-    <row r="30" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A30" s="7"/>
       <c r="B30" s="7" t="s">
         <v>54</v>
@@ -7694,7 +7789,7 @@
         <v>1</v>
       </c>
       <c r="K30" s="8"/>
-      <c r="L30" s="8">
+      <c r="L30" s="5">
         <v>1</v>
       </c>
       <c r="M30" s="8">
@@ -7703,10 +7798,10 @@
       <c r="N30" s="8">
         <v>1</v>
       </c>
-      <c r="O30" s="8"/>
-      <c r="P30" s="8">
-        <v>1</v>
-      </c>
+      <c r="O30" s="8">
+        <v>1</v>
+      </c>
+      <c r="P30" s="8"/>
       <c r="Q30" s="8">
         <v>1</v>
       </c>
@@ -7716,20 +7811,20 @@
       <c r="S30" s="8">
         <v>1</v>
       </c>
-      <c r="T30" s="8"/>
-      <c r="U30" s="8">
-        <v>1</v>
-      </c>
-      <c r="V30" s="1">
-        <v>1</v>
-      </c>
-      <c r="W30" s="6">
+      <c r="T30" s="8">
+        <v>1</v>
+      </c>
+      <c r="U30" s="8"/>
+      <c r="V30" s="8">
+        <v>1</v>
+      </c>
+      <c r="W30" s="1">
         <v>1</v>
       </c>
       <c r="X30" s="6">
         <v>1</v>
       </c>
-      <c r="Z30" s="1">
+      <c r="Y30" s="6">
         <v>1</v>
       </c>
       <c r="AA30" s="1">
@@ -7876,8 +7971,11 @@
       <c r="BV30" s="1">
         <v>1</v>
       </c>
+      <c r="BW30" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="31" spans="1:106" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:107" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>103</v>
       </c>
@@ -7916,10 +8014,10 @@
       <c r="N31" s="5">
         <v>1</v>
       </c>
-      <c r="O31" s="5"/>
-      <c r="P31" s="5">
-        <v>1</v>
-      </c>
+      <c r="O31" s="5">
+        <v>1</v>
+      </c>
+      <c r="P31" s="5"/>
       <c r="Q31" s="5">
         <v>1</v>
       </c>
@@ -7929,20 +8027,20 @@
       <c r="S31" s="5">
         <v>1</v>
       </c>
-      <c r="T31" s="5"/>
-      <c r="U31" s="5">
-        <v>1</v>
-      </c>
-      <c r="V31" s="1">
-        <v>1</v>
-      </c>
-      <c r="W31" s="6">
+      <c r="T31" s="5">
+        <v>1</v>
+      </c>
+      <c r="U31" s="5"/>
+      <c r="V31" s="5">
+        <v>1</v>
+      </c>
+      <c r="W31" s="1">
         <v>1</v>
       </c>
       <c r="X31" s="6">
         <v>1</v>
       </c>
-      <c r="Z31" s="6">
+      <c r="Y31" s="6">
         <v>1</v>
       </c>
       <c r="AA31" s="6">
@@ -8089,8 +8187,11 @@
       <c r="BV31" s="6">
         <v>1</v>
       </c>
+      <c r="BW31" s="6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="32" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>
       <c r="B32" s="7" t="s">
         <v>45</v>
@@ -8122,7 +8223,7 @@
       <c r="K32" s="8">
         <v>1</v>
       </c>
-      <c r="L32" s="8">
+      <c r="L32" s="5">
         <v>1</v>
       </c>
       <c r="M32" s="8">
@@ -8131,10 +8232,10 @@
       <c r="N32" s="8">
         <v>1</v>
       </c>
-      <c r="O32" s="8"/>
-      <c r="P32" s="8">
-        <v>1</v>
-      </c>
+      <c r="O32" s="8">
+        <v>1</v>
+      </c>
+      <c r="P32" s="8"/>
       <c r="Q32" s="8">
         <v>1</v>
       </c>
@@ -8144,20 +8245,20 @@
       <c r="S32" s="8">
         <v>1</v>
       </c>
-      <c r="T32" s="8"/>
-      <c r="U32" s="8">
-        <v>1</v>
-      </c>
-      <c r="V32" s="1">
-        <v>1</v>
-      </c>
-      <c r="W32" s="6">
+      <c r="T32" s="8">
+        <v>1</v>
+      </c>
+      <c r="U32" s="8"/>
+      <c r="V32" s="8">
+        <v>1</v>
+      </c>
+      <c r="W32" s="1">
         <v>1</v>
       </c>
       <c r="X32" s="6">
         <v>1</v>
       </c>
-      <c r="Z32" s="1">
+      <c r="Y32" s="6">
         <v>1</v>
       </c>
       <c r="AA32" s="1">
@@ -8304,8 +8405,11 @@
       <c r="BV32" s="1">
         <v>1</v>
       </c>
+      <c r="BW32" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="33" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A33" s="7"/>
       <c r="B33" s="7" t="s">
         <v>48</v>
@@ -8337,7 +8441,7 @@
       <c r="K33" s="9">
         <v>1</v>
       </c>
-      <c r="L33" s="8">
+      <c r="L33" s="5">
         <v>1</v>
       </c>
       <c r="M33" s="8">
@@ -8346,33 +8450,33 @@
       <c r="N33" s="8">
         <v>1</v>
       </c>
-      <c r="O33" s="9"/>
-      <c r="P33" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q33" s="9">
+      <c r="O33" s="8">
+        <v>1</v>
+      </c>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="8">
         <v>1</v>
       </c>
       <c r="R33" s="9">
         <v>1</v>
       </c>
-      <c r="S33" s="8">
-        <v>1</v>
-      </c>
-      <c r="T33" s="9"/>
-      <c r="U33" s="8">
-        <v>1</v>
-      </c>
-      <c r="V33" s="1">
-        <v>1</v>
-      </c>
-      <c r="W33" s="6">
+      <c r="S33" s="9">
+        <v>1</v>
+      </c>
+      <c r="T33" s="8">
+        <v>1</v>
+      </c>
+      <c r="U33" s="9"/>
+      <c r="V33" s="8">
+        <v>1</v>
+      </c>
+      <c r="W33" s="1">
         <v>1</v>
       </c>
       <c r="X33" s="6">
         <v>1</v>
       </c>
-      <c r="Z33" s="6">
+      <c r="Y33" s="6">
         <v>1</v>
       </c>
       <c r="AA33" s="6">
@@ -8519,7 +8623,9 @@
       <c r="BV33" s="6">
         <v>1</v>
       </c>
-      <c r="BW33" s="6"/>
+      <c r="BW33" s="6">
+        <v>1</v>
+      </c>
       <c r="BX33" s="6"/>
       <c r="BY33" s="6"/>
       <c r="BZ33" s="6"/>
@@ -8551,8 +8657,9 @@
       <c r="CZ33" s="6"/>
       <c r="DA33" s="6"/>
       <c r="DB33" s="6"/>
+      <c r="DC33" s="6"/>
     </row>
-    <row r="34" spans="1:106" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:107" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>110</v>
       </c>
@@ -8591,33 +8698,33 @@
       <c r="N34" s="5">
         <v>1</v>
       </c>
-      <c r="O34" s="11"/>
-      <c r="P34" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q34" s="11">
+      <c r="O34" s="5">
+        <v>1</v>
+      </c>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="5">
         <v>1</v>
       </c>
       <c r="R34" s="11">
         <v>1</v>
       </c>
-      <c r="S34" s="5">
-        <v>1</v>
-      </c>
-      <c r="T34" s="11"/>
-      <c r="U34" s="5">
-        <v>1</v>
-      </c>
-      <c r="V34" s="1">
-        <v>1</v>
-      </c>
-      <c r="W34" s="6">
+      <c r="S34" s="11">
+        <v>1</v>
+      </c>
+      <c r="T34" s="5">
+        <v>1</v>
+      </c>
+      <c r="U34" s="11"/>
+      <c r="V34" s="5">
+        <v>1</v>
+      </c>
+      <c r="W34" s="1">
         <v>1</v>
       </c>
       <c r="X34" s="6">
         <v>1</v>
       </c>
-      <c r="Z34" s="1">
+      <c r="Y34" s="6">
         <v>1</v>
       </c>
       <c r="AA34" s="1">
@@ -8764,7 +8871,9 @@
       <c r="BV34" s="1">
         <v>1</v>
       </c>
-      <c r="BW34" s="1"/>
+      <c r="BW34" s="1">
+        <v>1</v>
+      </c>
       <c r="BX34" s="1"/>
       <c r="BY34" s="1"/>
       <c r="BZ34" s="1"/>
@@ -8796,8 +8905,9 @@
       <c r="CZ34" s="1"/>
       <c r="DA34" s="1"/>
       <c r="DB34" s="1"/>
+      <c r="DC34" s="1"/>
     </row>
-    <row r="35" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A35" s="7"/>
       <c r="B35" s="7" t="s">
         <v>45</v>
@@ -8829,7 +8939,7 @@
       <c r="K35" s="12">
         <v>1</v>
       </c>
-      <c r="L35" s="8">
+      <c r="L35" s="5">
         <v>1</v>
       </c>
       <c r="M35" s="8">
@@ -8838,33 +8948,33 @@
       <c r="N35" s="8">
         <v>1</v>
       </c>
-      <c r="O35" s="12"/>
-      <c r="P35" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q35" s="12">
+      <c r="O35" s="8">
+        <v>1</v>
+      </c>
+      <c r="P35" s="12"/>
+      <c r="Q35" s="8">
         <v>1</v>
       </c>
       <c r="R35" s="12">
         <v>1</v>
       </c>
-      <c r="S35" s="8">
-        <v>1</v>
-      </c>
-      <c r="T35" s="12"/>
-      <c r="U35" s="8">
-        <v>1</v>
-      </c>
-      <c r="V35" s="1">
-        <v>1</v>
-      </c>
-      <c r="W35" s="6">
+      <c r="S35" s="12">
+        <v>1</v>
+      </c>
+      <c r="T35" s="8">
+        <v>1</v>
+      </c>
+      <c r="U35" s="12"/>
+      <c r="V35" s="8">
+        <v>1</v>
+      </c>
+      <c r="W35" s="1">
         <v>1</v>
       </c>
       <c r="X35" s="6">
         <v>1</v>
       </c>
-      <c r="Z35" s="6">
+      <c r="Y35" s="6">
         <v>1</v>
       </c>
       <c r="AA35" s="6">
@@ -9011,7 +9121,9 @@
       <c r="BV35" s="6">
         <v>1</v>
       </c>
-      <c r="BW35" s="6"/>
+      <c r="BW35" s="6">
+        <v>1</v>
+      </c>
       <c r="BX35" s="6"/>
       <c r="BY35" s="6"/>
       <c r="BZ35" s="6"/>
@@ -9043,8 +9155,9 @@
       <c r="CZ35" s="6"/>
       <c r="DA35" s="6"/>
       <c r="DB35" s="6"/>
+      <c r="DC35" s="6"/>
     </row>
-    <row r="36" spans="1:106" ht="24" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:107" ht="24" x14ac:dyDescent="0.3">
       <c r="A36" s="7"/>
       <c r="B36" s="7" t="s">
         <v>48</v>
@@ -9074,7 +9187,7 @@
       <c r="K36" s="12">
         <v>1</v>
       </c>
-      <c r="L36" s="8">
+      <c r="L36" s="5">
         <v>1</v>
       </c>
       <c r="M36" s="8">
@@ -9083,33 +9196,33 @@
       <c r="N36" s="8">
         <v>1</v>
       </c>
-      <c r="O36" s="12"/>
-      <c r="P36" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q36" s="12">
+      <c r="O36" s="8">
+        <v>1</v>
+      </c>
+      <c r="P36" s="12"/>
+      <c r="Q36" s="8">
         <v>1</v>
       </c>
       <c r="R36" s="12">
         <v>1</v>
       </c>
-      <c r="S36" s="8">
-        <v>1</v>
-      </c>
-      <c r="T36" s="12"/>
-      <c r="U36" s="8">
-        <v>1</v>
-      </c>
-      <c r="V36" s="1">
-        <v>1</v>
-      </c>
-      <c r="W36" s="6">
+      <c r="S36" s="12">
+        <v>1</v>
+      </c>
+      <c r="T36" s="8">
+        <v>1</v>
+      </c>
+      <c r="U36" s="12"/>
+      <c r="V36" s="8">
+        <v>1</v>
+      </c>
+      <c r="W36" s="1">
         <v>1</v>
       </c>
       <c r="X36" s="6">
         <v>1</v>
       </c>
-      <c r="Z36" s="1">
+      <c r="Y36" s="6">
         <v>1</v>
       </c>
       <c r="AA36" s="1">
@@ -9256,8 +9369,11 @@
       <c r="BV36" s="1">
         <v>1</v>
       </c>
+      <c r="BW36" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="37" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A37" s="7"/>
       <c r="B37" s="7" t="s">
         <v>51</v>
@@ -9289,7 +9405,7 @@
       <c r="K37" s="12">
         <v>1</v>
       </c>
-      <c r="L37" s="8">
+      <c r="L37" s="5">
         <v>1</v>
       </c>
       <c r="M37" s="8">
@@ -9298,33 +9414,33 @@
       <c r="N37" s="8">
         <v>1</v>
       </c>
-      <c r="O37" s="12"/>
-      <c r="P37" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q37" s="12">
+      <c r="O37" s="8">
+        <v>1</v>
+      </c>
+      <c r="P37" s="12"/>
+      <c r="Q37" s="8">
         <v>1</v>
       </c>
       <c r="R37" s="12">
         <v>1</v>
       </c>
-      <c r="S37" s="8">
-        <v>1</v>
-      </c>
-      <c r="T37" s="12"/>
-      <c r="U37" s="8">
-        <v>1</v>
-      </c>
-      <c r="V37" s="1">
-        <v>1</v>
-      </c>
-      <c r="W37" s="6">
+      <c r="S37" s="12">
+        <v>1</v>
+      </c>
+      <c r="T37" s="8">
+        <v>1</v>
+      </c>
+      <c r="U37" s="12"/>
+      <c r="V37" s="8">
+        <v>1</v>
+      </c>
+      <c r="W37" s="1">
         <v>1</v>
       </c>
       <c r="X37" s="6">
         <v>1</v>
       </c>
-      <c r="Z37" s="6">
+      <c r="Y37" s="6">
         <v>1</v>
       </c>
       <c r="AA37" s="6">
@@ -9471,7 +9587,9 @@
       <c r="BV37" s="6">
         <v>1</v>
       </c>
-      <c r="BW37" s="6"/>
+      <c r="BW37" s="6">
+        <v>1</v>
+      </c>
       <c r="BX37" s="6"/>
       <c r="BY37" s="6"/>
       <c r="BZ37" s="6"/>
@@ -9503,8 +9621,9 @@
       <c r="CZ37" s="6"/>
       <c r="DA37" s="6"/>
       <c r="DB37" s="6"/>
+      <c r="DC37" s="6"/>
     </row>
-    <row r="38" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A38" s="7"/>
       <c r="B38" s="7" t="s">
         <v>54</v>
@@ -9536,7 +9655,7 @@
       <c r="K38" s="12">
         <v>1</v>
       </c>
-      <c r="L38" s="8">
+      <c r="L38" s="5">
         <v>1</v>
       </c>
       <c r="M38" s="8">
@@ -9545,33 +9664,33 @@
       <c r="N38" s="8">
         <v>1</v>
       </c>
-      <c r="O38" s="12"/>
-      <c r="P38" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q38" s="12">
+      <c r="O38" s="8">
+        <v>1</v>
+      </c>
+      <c r="P38" s="12"/>
+      <c r="Q38" s="8">
         <v>1</v>
       </c>
       <c r="R38" s="12">
         <v>1</v>
       </c>
-      <c r="S38" s="8">
-        <v>1</v>
-      </c>
-      <c r="T38" s="12"/>
-      <c r="U38" s="8">
-        <v>1</v>
-      </c>
-      <c r="V38" s="1">
-        <v>1</v>
-      </c>
-      <c r="W38" s="6">
+      <c r="S38" s="12">
+        <v>1</v>
+      </c>
+      <c r="T38" s="8">
+        <v>1</v>
+      </c>
+      <c r="U38" s="12"/>
+      <c r="V38" s="8">
+        <v>1</v>
+      </c>
+      <c r="W38" s="1">
         <v>1</v>
       </c>
       <c r="X38" s="6">
         <v>1</v>
       </c>
-      <c r="Z38" s="1">
+      <c r="Y38" s="6">
         <v>1</v>
       </c>
       <c r="AA38" s="1">
@@ -9718,8 +9837,11 @@
       <c r="BV38" s="1">
         <v>1</v>
       </c>
+      <c r="BW38" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="39" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A39" s="7"/>
       <c r="B39" s="7" t="s">
         <v>57</v>
@@ -9751,7 +9873,7 @@
       <c r="K39" s="12">
         <v>1</v>
       </c>
-      <c r="L39" s="8">
+      <c r="L39" s="5">
         <v>1</v>
       </c>
       <c r="M39" s="8">
@@ -9760,33 +9882,33 @@
       <c r="N39" s="8">
         <v>1</v>
       </c>
-      <c r="O39" s="12"/>
-      <c r="P39" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q39" s="12">
+      <c r="O39" s="8">
+        <v>1</v>
+      </c>
+      <c r="P39" s="12"/>
+      <c r="Q39" s="8">
         <v>1</v>
       </c>
       <c r="R39" s="12">
         <v>1</v>
       </c>
-      <c r="S39" s="8">
-        <v>1</v>
-      </c>
-      <c r="T39" s="12"/>
-      <c r="U39" s="8">
-        <v>1</v>
-      </c>
-      <c r="V39" s="1">
-        <v>1</v>
-      </c>
-      <c r="W39" s="6">
+      <c r="S39" s="12">
+        <v>1</v>
+      </c>
+      <c r="T39" s="8">
+        <v>1</v>
+      </c>
+      <c r="U39" s="12"/>
+      <c r="V39" s="8">
+        <v>1</v>
+      </c>
+      <c r="W39" s="1">
         <v>1</v>
       </c>
       <c r="X39" s="6">
         <v>1</v>
       </c>
-      <c r="Z39" s="6">
+      <c r="Y39" s="6">
         <v>1</v>
       </c>
       <c r="AA39" s="6">
@@ -9933,7 +10055,9 @@
       <c r="BV39" s="6">
         <v>1</v>
       </c>
-      <c r="BW39" s="6"/>
+      <c r="BW39" s="6">
+        <v>1</v>
+      </c>
       <c r="BX39" s="6"/>
       <c r="BY39" s="6"/>
       <c r="BZ39" s="6"/>
@@ -9965,8 +10089,9 @@
       <c r="CZ39" s="6"/>
       <c r="DA39" s="6"/>
       <c r="DB39" s="6"/>
+      <c r="DC39" s="6"/>
     </row>
-    <row r="40" spans="1:106" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:107" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>122</v>
       </c>
@@ -10001,29 +10126,29 @@
       <c r="N40" s="5">
         <v>1</v>
       </c>
-      <c r="O40" s="11"/>
-      <c r="P40" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q40" s="11"/>
+      <c r="O40" s="5">
+        <v>1</v>
+      </c>
+      <c r="P40" s="11"/>
+      <c r="Q40" s="5">
+        <v>1</v>
+      </c>
       <c r="R40" s="11"/>
-      <c r="S40" s="5">
-        <v>1</v>
-      </c>
-      <c r="T40" s="11"/>
-      <c r="U40" s="5">
-        <v>1</v>
-      </c>
-      <c r="V40" s="1">
-        <v>1</v>
-      </c>
-      <c r="W40" s="6">
+      <c r="S40" s="11"/>
+      <c r="T40" s="5">
+        <v>1</v>
+      </c>
+      <c r="U40" s="11"/>
+      <c r="V40" s="5">
+        <v>1</v>
+      </c>
+      <c r="W40" s="1">
         <v>1</v>
       </c>
       <c r="X40" s="6">
         <v>1</v>
       </c>
-      <c r="Z40" s="1">
+      <c r="Y40" s="6">
         <v>1</v>
       </c>
       <c r="AA40" s="1">
@@ -10170,7 +10295,9 @@
       <c r="BV40" s="1">
         <v>1</v>
       </c>
-      <c r="BW40" s="1"/>
+      <c r="BW40" s="1">
+        <v>1</v>
+      </c>
       <c r="BX40" s="1"/>
       <c r="BY40" s="1"/>
       <c r="BZ40" s="1"/>
@@ -10202,8 +10329,9 @@
       <c r="CZ40" s="1"/>
       <c r="DA40" s="1"/>
       <c r="DB40" s="1"/>
+      <c r="DC40" s="1"/>
     </row>
-    <row r="41" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A41" s="7"/>
       <c r="B41" s="7" t="s">
         <v>45</v>
@@ -10231,7 +10359,7 @@
         <v>1</v>
       </c>
       <c r="K41" s="12"/>
-      <c r="L41" s="8">
+      <c r="L41" s="5">
         <v>1</v>
       </c>
       <c r="M41" s="8">
@@ -10240,29 +10368,29 @@
       <c r="N41" s="8">
         <v>1</v>
       </c>
-      <c r="O41" s="12"/>
-      <c r="P41" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q41" s="12"/>
+      <c r="O41" s="8">
+        <v>1</v>
+      </c>
+      <c r="P41" s="12"/>
+      <c r="Q41" s="8">
+        <v>1</v>
+      </c>
       <c r="R41" s="12"/>
-      <c r="S41" s="8">
-        <v>1</v>
-      </c>
-      <c r="T41" s="12"/>
-      <c r="U41" s="8">
-        <v>1</v>
-      </c>
-      <c r="V41" s="1">
-        <v>1</v>
-      </c>
-      <c r="W41" s="6">
+      <c r="S41" s="12"/>
+      <c r="T41" s="8">
+        <v>1</v>
+      </c>
+      <c r="U41" s="12"/>
+      <c r="V41" s="8">
+        <v>1</v>
+      </c>
+      <c r="W41" s="1">
         <v>1</v>
       </c>
       <c r="X41" s="6">
         <v>1</v>
       </c>
-      <c r="Z41" s="6">
+      <c r="Y41" s="6">
         <v>1</v>
       </c>
       <c r="AA41" s="6">
@@ -10409,7 +10537,9 @@
       <c r="BV41" s="6">
         <v>1</v>
       </c>
-      <c r="BW41" s="6"/>
+      <c r="BW41" s="6">
+        <v>1</v>
+      </c>
       <c r="BX41" s="6"/>
       <c r="BY41" s="6"/>
       <c r="BZ41" s="6"/>
@@ -10441,8 +10571,9 @@
       <c r="CZ41" s="6"/>
       <c r="DA41" s="6"/>
       <c r="DB41" s="6"/>
+      <c r="DC41" s="6"/>
     </row>
-    <row r="42" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A42" s="7"/>
       <c r="B42" s="7" t="s">
         <v>48</v>
@@ -10470,7 +10601,7 @@
         <v>1</v>
       </c>
       <c r="K42" s="12"/>
-      <c r="L42" s="8">
+      <c r="L42" s="5">
         <v>1</v>
       </c>
       <c r="M42" s="8">
@@ -10479,29 +10610,29 @@
       <c r="N42" s="8">
         <v>1</v>
       </c>
-      <c r="O42" s="12"/>
-      <c r="P42" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q42" s="12"/>
+      <c r="O42" s="8">
+        <v>1</v>
+      </c>
+      <c r="P42" s="12"/>
+      <c r="Q42" s="8">
+        <v>1</v>
+      </c>
       <c r="R42" s="12"/>
-      <c r="S42" s="8">
-        <v>1</v>
-      </c>
-      <c r="T42" s="12"/>
-      <c r="U42" s="8">
-        <v>1</v>
-      </c>
-      <c r="V42" s="1">
-        <v>1</v>
-      </c>
-      <c r="W42" s="6">
+      <c r="S42" s="12"/>
+      <c r="T42" s="8">
+        <v>1</v>
+      </c>
+      <c r="U42" s="12"/>
+      <c r="V42" s="8">
+        <v>1</v>
+      </c>
+      <c r="W42" s="1">
         <v>1</v>
       </c>
       <c r="X42" s="6">
         <v>1</v>
       </c>
-      <c r="Z42" s="1">
+      <c r="Y42" s="6">
         <v>1</v>
       </c>
       <c r="AA42" s="1">
@@ -10648,8 +10779,11 @@
       <c r="BV42" s="1">
         <v>1</v>
       </c>
+      <c r="BW42" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="43" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A43" s="7"/>
       <c r="B43" s="7" t="s">
         <v>51</v>
@@ -10677,7 +10811,7 @@
         <v>1</v>
       </c>
       <c r="K43" s="12"/>
-      <c r="L43" s="8">
+      <c r="L43" s="5">
         <v>1</v>
       </c>
       <c r="M43" s="8">
@@ -10686,29 +10820,29 @@
       <c r="N43" s="8">
         <v>1</v>
       </c>
-      <c r="O43" s="12"/>
-      <c r="P43" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q43" s="12"/>
+      <c r="O43" s="8">
+        <v>1</v>
+      </c>
+      <c r="P43" s="12"/>
+      <c r="Q43" s="8">
+        <v>1</v>
+      </c>
       <c r="R43" s="12"/>
-      <c r="S43" s="8">
-        <v>1</v>
-      </c>
-      <c r="T43" s="12"/>
-      <c r="U43" s="8">
-        <v>1</v>
-      </c>
-      <c r="V43" s="1">
-        <v>1</v>
-      </c>
-      <c r="W43" s="6">
+      <c r="S43" s="12"/>
+      <c r="T43" s="8">
+        <v>1</v>
+      </c>
+      <c r="U43" s="12"/>
+      <c r="V43" s="8">
+        <v>1</v>
+      </c>
+      <c r="W43" s="1">
         <v>1</v>
       </c>
       <c r="X43" s="6">
         <v>1</v>
       </c>
-      <c r="Z43" s="6">
+      <c r="Y43" s="6">
         <v>1</v>
       </c>
       <c r="AA43" s="6">
@@ -10855,7 +10989,9 @@
       <c r="BV43" s="6">
         <v>1</v>
       </c>
-      <c r="BW43" s="6"/>
+      <c r="BW43" s="6">
+        <v>1</v>
+      </c>
       <c r="BX43" s="6"/>
       <c r="BY43" s="6"/>
       <c r="BZ43" s="6"/>
@@ -10887,8 +11023,9 @@
       <c r="CZ43" s="6"/>
       <c r="DA43" s="6"/>
       <c r="DB43" s="6"/>
+      <c r="DC43" s="6"/>
     </row>
-    <row r="44" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A44" s="7"/>
       <c r="B44" s="7" t="s">
         <v>54</v>
@@ -10916,7 +11053,7 @@
         <v>1</v>
       </c>
       <c r="K44" s="12"/>
-      <c r="L44" s="8">
+      <c r="L44" s="5">
         <v>1</v>
       </c>
       <c r="M44" s="8">
@@ -10925,29 +11062,29 @@
       <c r="N44" s="8">
         <v>1</v>
       </c>
-      <c r="O44" s="12"/>
-      <c r="P44" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q44" s="12"/>
+      <c r="O44" s="8">
+        <v>1</v>
+      </c>
+      <c r="P44" s="12"/>
+      <c r="Q44" s="8">
+        <v>1</v>
+      </c>
       <c r="R44" s="12"/>
-      <c r="S44" s="8">
-        <v>1</v>
-      </c>
-      <c r="T44" s="12"/>
-      <c r="U44" s="8">
-        <v>1</v>
-      </c>
-      <c r="V44" s="1">
-        <v>1</v>
-      </c>
-      <c r="W44" s="6">
+      <c r="S44" s="12"/>
+      <c r="T44" s="8">
+        <v>1</v>
+      </c>
+      <c r="U44" s="12"/>
+      <c r="V44" s="8">
+        <v>1</v>
+      </c>
+      <c r="W44" s="1">
         <v>1</v>
       </c>
       <c r="X44" s="6">
         <v>1</v>
       </c>
-      <c r="Z44" s="1">
+      <c r="Y44" s="6">
         <v>1</v>
       </c>
       <c r="AA44" s="1">
@@ -11094,8 +11231,11 @@
       <c r="BV44" s="1">
         <v>1</v>
       </c>
+      <c r="BW44" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="45" spans="1:106" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:107" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>132</v>
       </c>
@@ -11130,29 +11270,29 @@
       <c r="N45" s="5">
         <v>1</v>
       </c>
-      <c r="O45" s="11"/>
-      <c r="P45" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q45" s="11"/>
+      <c r="O45" s="5">
+        <v>1</v>
+      </c>
+      <c r="P45" s="11"/>
+      <c r="Q45" s="5">
+        <v>1</v>
+      </c>
       <c r="R45" s="11"/>
-      <c r="S45" s="5">
-        <v>1</v>
-      </c>
-      <c r="T45" s="11"/>
-      <c r="U45" s="5">
-        <v>1</v>
-      </c>
-      <c r="V45" s="1">
-        <v>1</v>
-      </c>
-      <c r="W45" s="6">
+      <c r="S45" s="11"/>
+      <c r="T45" s="5">
+        <v>1</v>
+      </c>
+      <c r="U45" s="11"/>
+      <c r="V45" s="5">
+        <v>1</v>
+      </c>
+      <c r="W45" s="1">
         <v>1</v>
       </c>
       <c r="X45" s="6">
         <v>1</v>
       </c>
-      <c r="Z45" s="6">
+      <c r="Y45" s="6">
         <v>1</v>
       </c>
       <c r="AA45" s="6">
@@ -11299,8 +11439,11 @@
       <c r="BV45" s="6">
         <v>1</v>
       </c>
+      <c r="BW45" s="6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="46" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A46" s="7"/>
       <c r="B46" s="7" t="s">
         <v>45</v>
@@ -11326,7 +11469,7 @@
         <v>1</v>
       </c>
       <c r="K46" s="12"/>
-      <c r="L46" s="8">
+      <c r="L46" s="5">
         <v>1</v>
       </c>
       <c r="M46" s="8">
@@ -11335,29 +11478,29 @@
       <c r="N46" s="8">
         <v>1</v>
       </c>
-      <c r="O46" s="12"/>
-      <c r="P46" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q46" s="12"/>
+      <c r="O46" s="8">
+        <v>1</v>
+      </c>
+      <c r="P46" s="12"/>
+      <c r="Q46" s="8">
+        <v>1</v>
+      </c>
       <c r="R46" s="12"/>
-      <c r="S46" s="8">
-        <v>1</v>
-      </c>
-      <c r="T46" s="12"/>
-      <c r="U46" s="8">
-        <v>1</v>
-      </c>
-      <c r="V46" s="1">
-        <v>1</v>
-      </c>
-      <c r="W46" s="6">
+      <c r="S46" s="12"/>
+      <c r="T46" s="8">
+        <v>1</v>
+      </c>
+      <c r="U46" s="12"/>
+      <c r="V46" s="8">
+        <v>1</v>
+      </c>
+      <c r="W46" s="1">
         <v>1</v>
       </c>
       <c r="X46" s="6">
         <v>1</v>
       </c>
-      <c r="Z46" s="1">
+      <c r="Y46" s="6">
         <v>1</v>
       </c>
       <c r="AA46" s="1">
@@ -11504,8 +11647,11 @@
       <c r="BV46" s="1">
         <v>1</v>
       </c>
+      <c r="BW46" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="47" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A47" s="7"/>
       <c r="B47" s="7" t="s">
         <v>48</v>
@@ -11531,7 +11677,7 @@
         <v>1</v>
       </c>
       <c r="K47" s="12"/>
-      <c r="L47" s="8">
+      <c r="L47" s="5">
         <v>1</v>
       </c>
       <c r="M47" s="8">
@@ -11540,29 +11686,29 @@
       <c r="N47" s="8">
         <v>1</v>
       </c>
-      <c r="O47" s="12"/>
-      <c r="P47" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q47" s="12"/>
+      <c r="O47" s="8">
+        <v>1</v>
+      </c>
+      <c r="P47" s="12"/>
+      <c r="Q47" s="8">
+        <v>1</v>
+      </c>
       <c r="R47" s="12"/>
-      <c r="S47" s="8">
-        <v>1</v>
-      </c>
-      <c r="T47" s="12"/>
-      <c r="U47" s="8">
-        <v>1</v>
-      </c>
-      <c r="V47" s="1">
-        <v>1</v>
-      </c>
-      <c r="W47" s="6">
+      <c r="S47" s="12"/>
+      <c r="T47" s="8">
+        <v>1</v>
+      </c>
+      <c r="U47" s="12"/>
+      <c r="V47" s="8">
+        <v>1</v>
+      </c>
+      <c r="W47" s="1">
         <v>1</v>
       </c>
       <c r="X47" s="6">
         <v>1</v>
       </c>
-      <c r="Z47" s="6">
+      <c r="Y47" s="6">
         <v>1</v>
       </c>
       <c r="AA47" s="6">
@@ -11709,7 +11855,9 @@
       <c r="BV47" s="6">
         <v>1</v>
       </c>
-      <c r="BW47" s="6"/>
+      <c r="BW47" s="6">
+        <v>1</v>
+      </c>
       <c r="BX47" s="6"/>
       <c r="BY47" s="6"/>
       <c r="BZ47" s="6"/>
@@ -11741,8 +11889,9 @@
       <c r="CZ47" s="6"/>
       <c r="DA47" s="6"/>
       <c r="DB47" s="6"/>
+      <c r="DC47" s="6"/>
     </row>
-    <row r="48" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A48" s="7"/>
       <c r="B48" s="7" t="s">
         <v>51</v>
@@ -11768,7 +11917,7 @@
         <v>1</v>
       </c>
       <c r="K48" s="12"/>
-      <c r="L48" s="8">
+      <c r="L48" s="5">
         <v>1</v>
       </c>
       <c r="M48" s="8">
@@ -11777,29 +11926,29 @@
       <c r="N48" s="8">
         <v>1</v>
       </c>
-      <c r="O48" s="12"/>
-      <c r="P48" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q48" s="12"/>
+      <c r="O48" s="8">
+        <v>1</v>
+      </c>
+      <c r="P48" s="12"/>
+      <c r="Q48" s="8">
+        <v>1</v>
+      </c>
       <c r="R48" s="12"/>
-      <c r="S48" s="8">
-        <v>1</v>
-      </c>
-      <c r="T48" s="12"/>
-      <c r="U48" s="8">
-        <v>1</v>
-      </c>
-      <c r="V48" s="1">
-        <v>1</v>
-      </c>
-      <c r="W48" s="6">
+      <c r="S48" s="12"/>
+      <c r="T48" s="8">
+        <v>1</v>
+      </c>
+      <c r="U48" s="12"/>
+      <c r="V48" s="8">
+        <v>1</v>
+      </c>
+      <c r="W48" s="1">
         <v>1</v>
       </c>
       <c r="X48" s="6">
         <v>1</v>
       </c>
-      <c r="Z48" s="1">
+      <c r="Y48" s="6">
         <v>1</v>
       </c>
       <c r="AA48" s="1">
@@ -11946,8 +12095,11 @@
       <c r="BV48" s="1">
         <v>1</v>
       </c>
+      <c r="BW48" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="49" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A49" s="7"/>
       <c r="B49" s="7" t="s">
         <v>54</v>
@@ -11973,7 +12125,7 @@
         <v>1</v>
       </c>
       <c r="K49" s="12"/>
-      <c r="L49" s="8">
+      <c r="L49" s="5">
         <v>1</v>
       </c>
       <c r="M49" s="8">
@@ -11982,29 +12134,29 @@
       <c r="N49" s="8">
         <v>1</v>
       </c>
-      <c r="O49" s="12"/>
-      <c r="P49" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q49" s="12"/>
+      <c r="O49" s="8">
+        <v>1</v>
+      </c>
+      <c r="P49" s="12"/>
+      <c r="Q49" s="8">
+        <v>1</v>
+      </c>
       <c r="R49" s="12"/>
-      <c r="S49" s="8">
-        <v>1</v>
-      </c>
-      <c r="T49" s="12"/>
-      <c r="U49" s="8">
-        <v>1</v>
-      </c>
-      <c r="V49" s="1">
-        <v>1</v>
-      </c>
-      <c r="W49" s="6">
+      <c r="S49" s="12"/>
+      <c r="T49" s="8">
+        <v>1</v>
+      </c>
+      <c r="U49" s="12"/>
+      <c r="V49" s="8">
+        <v>1</v>
+      </c>
+      <c r="W49" s="1">
         <v>1</v>
       </c>
       <c r="X49" s="6">
         <v>1</v>
       </c>
-      <c r="Z49" s="6">
+      <c r="Y49" s="6">
         <v>1</v>
       </c>
       <c r="AA49" s="6">
@@ -12151,7 +12303,9 @@
       <c r="BV49" s="6">
         <v>1</v>
       </c>
-      <c r="BW49" s="6"/>
+      <c r="BW49" s="6">
+        <v>1</v>
+      </c>
       <c r="BX49" s="6"/>
       <c r="BY49" s="6"/>
       <c r="BZ49" s="6"/>
@@ -12183,10 +12337,11 @@
       <c r="CZ49" s="6"/>
       <c r="DA49" s="6"/>
       <c r="DB49" s="6"/>
+      <c r="DC49" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/database/meta/info_tags.xlsx
+++ b/database/meta/info_tags.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\opt\github\TorCMS\database\meta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F44A24F4-01A4-43E4-8CFA-2B8E04D7E409}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF59FC3-01C7-4EF2-AD44-D025C1874186}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -224,9 +224,6 @@
   </si>
   <si>
     <t>Text,Pdf,Scansion</t>
-  </si>
-  <si>
-    <t>number:Mb</t>
   </si>
   <si>
     <t>date</t>
@@ -578,6 +575,10 @@
   </si>
   <si>
     <t>_file_download,Download</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>number:kb</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -1183,7 +1184,7 @@
   <dimension ref="A1:AKZ26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="X2" sqref="X2"/>
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1211,67 +1212,67 @@
         <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="M1" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="O1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="S1" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="P1" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>159</v>
       </c>
       <c r="U1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="V1" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="W1" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y1" s="3" t="s">
         <v>161</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>162</v>
       </c>
       <c r="Z1" s="3" t="s">
         <v>3</v>
@@ -1310,10 +1311,10 @@
         <v>14</v>
       </c>
       <c r="AL1" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="AM1" s="3" t="s">
         <v>163</v>
-      </c>
-      <c r="AM1" s="3" t="s">
-        <v>164</v>
       </c>
       <c r="AN1" s="3" t="s">
         <v>15</v>
@@ -1475,178 +1476,178 @@
         <v>65</v>
       </c>
       <c r="U2" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="V2" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="V2" s="5" t="s">
+      <c r="W2" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="W2" s="5" t="s">
+      <c r="X2" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="X2" s="5" t="s">
+      <c r="Y2" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="Y2" s="5" t="s">
-        <v>70</v>
-      </c>
       <c r="Z2" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AA2" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AB2" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AC2" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AD2" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AE2" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AF2" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AG2" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AH2" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AI2" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AJ2" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AK2" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AL2" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AM2" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AN2" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AO2" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AP2" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AQ2" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AR2" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AS2" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AT2" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AU2" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AV2" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AW2" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AX2" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AY2" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AZ2" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="BA2" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="BB2" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="BC2" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="BD2" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="BE2" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="BF2" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="BG2" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="BH2" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="BI2" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="BJ2" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="BK2" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="BL2" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="BM2" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="BN2" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="BO2" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="BP2" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="BQ2" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="BR2" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="BS2" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="BT2" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="BU2" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="BV2" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:106" s="7" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>72</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>73</v>
       </c>
       <c r="E3" s="6">
         <v>1</v>
@@ -1849,13 +1850,13 @@
     <row r="4" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A4" s="8"/>
       <c r="B4" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="D4" s="9" t="s">
         <v>75</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>76</v>
       </c>
       <c r="E4" s="10">
         <v>1</v>
@@ -2055,14 +2056,14 @@
     </row>
     <row r="5" spans="1:106" s="7" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>78</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>79</v>
       </c>
       <c r="E5" s="6">
         <v>1</v>
@@ -2263,13 +2264,13 @@
     <row r="6" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A6" s="8"/>
       <c r="B6" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E6" s="10">
         <v>1</v>
@@ -2470,13 +2471,13 @@
     <row r="7" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
       <c r="B7" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="D7" s="9" t="s">
         <v>82</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>83</v>
       </c>
       <c r="E7" s="10">
         <v>1</v>
@@ -2708,14 +2709,14 @@
     </row>
     <row r="8" spans="1:106" s="7" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>85</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>86</v>
       </c>
       <c r="E8" s="6">
         <v>1</v>
@@ -2948,13 +2949,13 @@
     <row r="9" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A9" s="8"/>
       <c r="B9" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C9" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>87</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>88</v>
       </c>
       <c r="E9" s="10">
         <v>1</v>
@@ -3187,13 +3188,13 @@
     <row r="10" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A10" s="8"/>
       <c r="B10" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C10" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>89</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>90</v>
       </c>
       <c r="E10" s="10">
         <v>1</v>
@@ -3393,14 +3394,14 @@
     </row>
     <row r="11" spans="1:106" s="7" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B11" s="12"/>
       <c r="C11" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>92</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>93</v>
       </c>
       <c r="E11" s="6">
         <v>1</v>
@@ -3629,13 +3630,13 @@
     <row r="12" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
       <c r="B12" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C12" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>94</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>95</v>
       </c>
       <c r="E12" s="10">
         <v>1</v>
@@ -3866,13 +3867,13 @@
     <row r="13" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A13" s="8"/>
       <c r="B13" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C13" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>96</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>97</v>
       </c>
       <c r="E13" s="10">
         <v>1</v>
@@ -4069,13 +4070,13 @@
     <row r="14" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A14" s="8"/>
       <c r="B14" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="D14" s="9" t="s">
         <v>99</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>100</v>
       </c>
       <c r="E14" s="10">
         <v>1</v>
@@ -4304,13 +4305,13 @@
     <row r="15" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A15" s="8"/>
       <c r="B15" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="D15" s="9" t="s">
         <v>102</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>103</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
@@ -4415,14 +4416,14 @@
     </row>
     <row r="16" spans="1:106" s="7" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>106</v>
       </c>
       <c r="E16" s="6">
         <v>1</v>
@@ -4659,13 +4660,13 @@
     <row r="17" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A17" s="8"/>
       <c r="B17" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C17" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D17" s="9" t="s">
         <v>107</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>108</v>
       </c>
       <c r="E17" s="10">
         <v>1</v>
@@ -4904,13 +4905,13 @@
     <row r="18" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A18" s="8"/>
       <c r="B18" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C18" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D18" s="9" t="s">
         <v>109</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>110</v>
       </c>
       <c r="E18" s="10">
         <v>1</v>
@@ -5114,14 +5115,14 @@
     </row>
     <row r="19" spans="1:106" s="7" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>112</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>113</v>
       </c>
       <c r="E19" s="6">
         <v>1</v>
@@ -5328,13 +5329,13 @@
     <row r="20" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A20" s="8"/>
       <c r="B20" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C20" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D20" s="9" t="s">
         <v>114</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>115</v>
       </c>
       <c r="E20" s="10">
         <v>1</v>
@@ -5543,13 +5544,13 @@
     <row r="21" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A21" s="8"/>
       <c r="B21" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C21" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="D21" s="9" t="s">
         <v>116</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>117</v>
       </c>
       <c r="E21" s="10">
         <v>1</v>
@@ -5789,14 +5790,14 @@
     </row>
     <row r="22" spans="1:106" s="7" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B22" s="12"/>
       <c r="C22" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>119</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>120</v>
       </c>
       <c r="E22" s="6">
         <v>1</v>
@@ -6035,13 +6036,13 @@
     <row r="23" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A23" s="8"/>
       <c r="B23" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C23" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D23" s="9" t="s">
         <v>121</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>122</v>
       </c>
       <c r="E23" s="10">
         <v>1</v>
@@ -6281,14 +6282,14 @@
     </row>
     <row r="24" spans="1:106" s="7" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B24" s="12"/>
       <c r="C24" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>124</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>125</v>
       </c>
       <c r="E24" s="6">
         <v>1</v>
@@ -6521,13 +6522,13 @@
     <row r="25" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A25" s="8"/>
       <c r="B25" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C25" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D25" s="9" t="s">
         <v>126</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>127</v>
       </c>
       <c r="E25" s="10">
         <v>1</v>
@@ -6762,13 +6763,13 @@
     <row r="26" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A26" s="8"/>
       <c r="B26" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C26" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D26" s="9" t="s">
         <v>128</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>129</v>
       </c>
       <c r="E26" s="10">
         <v>1</v>
@@ -6992,7 +6993,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15" t="s">
@@ -7010,62 +7011,62 @@
     </row>
     <row r="3" spans="1:4" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" s="16" t="s">
         <v>132</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A4" s="16"/>
       <c r="B4" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C4" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="D4" s="16" t="s">
         <v>134</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="51.75" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="B5" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C5" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="D5" s="16" t="s">
         <v>136</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A6" s="16"/>
       <c r="B6" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="D6" s="16" t="s">
         <v>139</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A7" s="16"/>
       <c r="B7" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="C7" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="D7" s="16" t="s">
         <v>142</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/database/meta/info_tags.xlsx
+++ b/database/meta/info_tags.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\opt\github\TorCMS\database\meta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FC805C0-1376-4EA7-98BC-3B7F8CF81AB8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34BA3611-2200-410C-BF9B-54FAFF96722D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="169">
   <si>
     <t>slug</t>
   </si>
@@ -631,6 +631,10 @@
   </si>
   <si>
     <t>gdhomepage,RespInst Homepage</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -1235,8 +1239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AKZ26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BA1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="BV1" sqref="BV1"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1588,7 +1592,7 @@
         <v>21</v>
       </c>
       <c r="AO2" s="5" t="s">
-        <v>21</v>
+        <v>168</v>
       </c>
       <c r="AP2" s="5" t="s">
         <v>21</v>
@@ -1606,7 +1610,7 @@
         <v>113</v>
       </c>
       <c r="AU2" s="5" t="s">
-        <v>21</v>
+        <v>168</v>
       </c>
       <c r="AV2" s="5" t="s">
         <v>21</v>
@@ -1654,10 +1658,10 @@
         <v>21</v>
       </c>
       <c r="BK2" s="5" t="s">
-        <v>21</v>
+        <v>168</v>
       </c>
       <c r="BL2" s="5" t="s">
-        <v>21</v>
+        <v>168</v>
       </c>
       <c r="BM2" s="5" t="s">
         <v>21</v>

--- a/database/meta/info_tags.xlsx
+++ b/database/meta/info_tags.xlsx
@@ -319,16 +319,16 @@
     <t xml:space="preserve">number:kb</t>
   </si>
   <si>
+    <t xml:space="preserve">date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">download</t>
+  </si>
+  <si>
     <t xml:space="preserve">text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">download</t>
-  </si>
-  <si>
-    <t xml:space="preserve">date</t>
   </si>
   <si>
     <t xml:space="preserve">]</t>
@@ -884,8 +884,8 @@
   </sheetPr>
   <dimension ref="A1:DB26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O1" colorId="64" zoomScale="96" zoomScaleNormal="96" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="V2" activeCellId="0" sqref="V2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="96" zoomScaleNormal="96" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="V6" activeCellId="0" sqref="V6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1189,157 +1189,157 @@
         <v>91</v>
       </c>
       <c r="Y2" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z2" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA2" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB2" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC2" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD2" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE2" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF2" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG2" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH2" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI2" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ2" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="AK2" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL2" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="AM2" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="AN2" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO2" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="Z2" s="6" t="s">
+      <c r="AP2" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="AQ2" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="AR2" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS2" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="AT2" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="AA2" s="6" t="s">
+      <c r="AU2" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="AB2" s="6" t="s">
+      <c r="AV2" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="AW2" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="AX2" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="AY2" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="AZ2" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="BA2" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="BB2" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="BC2" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="BD2" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="BE2" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="BF2" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="BG2" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="BH2" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="BI2" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="BJ2" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="BK2" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="AC2" s="6" t="s">
+      <c r="BL2" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="AD2" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="AE2" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="AF2" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="AG2" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="AH2" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="AI2" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="AJ2" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="AK2" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="AL2" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="AM2" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="AN2" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="AO2" s="6" t="s">
+      <c r="BM2" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="AP2" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="AQ2" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="AR2" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="AS2" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="AT2" s="6" t="s">
+      <c r="BN2" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="AU2" s="6" t="s">
+      <c r="BO2" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="AV2" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="AW2" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="AX2" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="AY2" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="AZ2" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="BA2" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="BB2" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="BC2" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="BD2" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="BE2" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="BF2" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="BG2" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="BH2" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="BI2" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="BJ2" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="BK2" s="6" t="s">
+      <c r="BP2" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="BL2" s="6" t="s">
+      <c r="BQ2" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="BM2" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="BN2" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="BO2" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="BP2" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="BQ2" s="6" t="s">
-        <v>89</v>
-      </c>
       <c r="BR2" s="6" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="BS2" s="6" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="BT2" s="6" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="BU2" s="6" t="s">
         <v>93</v>
       </c>
       <c r="BV2" s="6" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
-    <row r="3" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
         <v>94</v>
       </c>
@@ -1391,9 +1391,7 @@
       <c r="U3" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="V3" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="V3" s="1"/>
       <c r="W3" s="8" t="n">
         <v>1</v>
       </c>
@@ -1548,7 +1546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9"/>
       <c r="B4" s="10" t="s">
         <v>97</v>
@@ -1598,9 +1596,6 @@
       <c r="U4" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="V4" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="W4" s="8" t="n">
         <v>1</v>
       </c>
@@ -1755,7 +1750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
         <v>100</v>
       </c>
@@ -1805,9 +1800,7 @@
       <c r="U5" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="V5" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="V5" s="1"/>
       <c r="W5" s="8" t="n">
         <v>1</v>
       </c>
@@ -1962,7 +1955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="9"/>
       <c r="B6" s="10" t="s">
         <v>97</v>
@@ -2012,9 +2005,6 @@
       <c r="U6" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="V6" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="W6" s="8" t="n">
         <v>1</v>
       </c>
@@ -2169,7 +2159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9"/>
       <c r="B7" s="10" t="s">
         <v>104</v>
@@ -2217,9 +2207,6 @@
       </c>
       <c r="T7" s="12"/>
       <c r="U7" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="V7" s="1" t="n">
         <v>1</v>
       </c>
       <c r="W7" s="8" t="n">
@@ -2408,7 +2395,7 @@
       <c r="DA7" s="8"/>
       <c r="DB7" s="8"/>
     </row>
-    <row r="8" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
         <v>107</v>
       </c>
@@ -2458,9 +2445,7 @@
       <c r="U8" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="V8" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="V8" s="1"/>
       <c r="W8" s="8" t="n">
         <v>1</v>
       </c>
@@ -2647,7 +2632,7 @@
       <c r="DA8" s="1"/>
       <c r="DB8" s="1"/>
     </row>
-    <row r="9" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="9"/>
       <c r="B9" s="10" t="s">
         <v>97</v>
@@ -2695,9 +2680,6 @@
       </c>
       <c r="T9" s="11"/>
       <c r="U9" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="V9" s="1" t="n">
         <v>1</v>
       </c>
       <c r="W9" s="8" t="n">
@@ -2886,7 +2868,7 @@
       <c r="DA9" s="8"/>
       <c r="DB9" s="8"/>
     </row>
-    <row r="10" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="9"/>
       <c r="B10" s="10" t="s">
         <v>104</v>
@@ -2936,9 +2918,6 @@
       <c r="U10" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="V10" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="W10" s="8" t="n">
         <v>1</v>
       </c>
@@ -3093,7 +3072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
         <v>114</v>
       </c>
@@ -3139,9 +3118,7 @@
       <c r="U11" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="V11" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="V11" s="1"/>
       <c r="W11" s="8" t="n">
         <v>1</v>
       </c>
@@ -3328,7 +3305,7 @@
       <c r="DA11" s="1"/>
       <c r="DB11" s="1"/>
     </row>
-    <row r="12" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="9"/>
       <c r="B12" s="10" t="s">
         <v>97</v>
@@ -3374,9 +3351,6 @@
       </c>
       <c r="T12" s="11"/>
       <c r="U12" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="V12" s="1" t="n">
         <v>1</v>
       </c>
       <c r="W12" s="8" t="n">
@@ -3565,7 +3539,7 @@
       <c r="DA12" s="8"/>
       <c r="DB12" s="8"/>
     </row>
-    <row r="13" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="9"/>
       <c r="B13" s="10" t="s">
         <v>104</v>
@@ -3611,9 +3585,6 @@
       <c r="U13" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="V13" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="W13" s="8" t="n">
         <v>1</v>
       </c>
@@ -3768,7 +3739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="9"/>
       <c r="B14" s="10" t="s">
         <v>121</v>
@@ -3812,9 +3783,6 @@
       </c>
       <c r="T14" s="11"/>
       <c r="U14" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="V14" s="1" t="n">
         <v>1</v>
       </c>
       <c r="W14" s="8" t="n">
@@ -4003,7 +3971,7 @@
       <c r="DA14" s="8"/>
       <c r="DB14" s="8"/>
     </row>
-    <row r="15" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="9"/>
       <c r="B15" s="10" t="s">
         <v>124</v>
@@ -4115,7 +4083,7 @@
       <c r="DA15" s="8"/>
       <c r="DB15" s="8"/>
     </row>
-    <row r="16" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" s="8" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="7" t="s">
         <v>127</v>
       </c>
@@ -4169,9 +4137,7 @@
       <c r="U16" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="V16" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="V16" s="1"/>
       <c r="W16" s="8" t="n">
         <v>1</v>
       </c>
@@ -4358,7 +4324,7 @@
       <c r="DA16" s="1"/>
       <c r="DB16" s="1"/>
     </row>
-    <row r="17" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="9"/>
       <c r="B17" s="10" t="s">
         <v>97</v>
@@ -4412,9 +4378,6 @@
       </c>
       <c r="T17" s="11"/>
       <c r="U17" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="V17" s="1" t="n">
         <v>1</v>
       </c>
       <c r="W17" s="8" t="n">
@@ -4603,7 +4566,7 @@
       <c r="DA17" s="8"/>
       <c r="DB17" s="8"/>
     </row>
-    <row r="18" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="9"/>
       <c r="B18" s="10" t="s">
         <v>104</v>
@@ -4657,9 +4620,6 @@
       <c r="U18" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="V18" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="W18" s="8" t="n">
         <v>1</v>
       </c>
@@ -4814,7 +4774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="s">
         <v>134</v>
       </c>
@@ -4870,9 +4830,7 @@
       <c r="U19" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="V19" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="V19" s="1"/>
       <c r="W19" s="8" t="n">
         <v>1</v>
       </c>
@@ -5027,7 +4985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="9"/>
       <c r="B20" s="10" t="s">
         <v>97</v>
@@ -5085,9 +5043,6 @@
       <c r="U20" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="V20" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="W20" s="8" t="n">
         <v>1</v>
       </c>
@@ -5242,7 +5197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="9"/>
       <c r="B21" s="10" t="s">
         <v>104</v>
@@ -5298,9 +5253,6 @@
       </c>
       <c r="T21" s="12"/>
       <c r="U21" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="V21" s="1" t="n">
         <v>1</v>
       </c>
       <c r="W21" s="8" t="n">
@@ -5489,7 +5441,7 @@
       <c r="DA21" s="8"/>
       <c r="DB21" s="8"/>
     </row>
-    <row r="22" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="7" t="s">
         <v>141</v>
       </c>
@@ -5545,9 +5497,7 @@
       <c r="U22" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="V22" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="V22" s="1"/>
       <c r="W22" s="8" t="n">
         <v>1</v>
       </c>
@@ -5734,7 +5684,7 @@
       <c r="DA22" s="1"/>
       <c r="DB22" s="1"/>
     </row>
-    <row r="23" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="9"/>
       <c r="B23" s="10" t="s">
         <v>97</v>
@@ -5790,9 +5740,6 @@
       </c>
       <c r="T23" s="15"/>
       <c r="U23" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="V23" s="1" t="n">
         <v>1</v>
       </c>
       <c r="W23" s="8" t="n">
@@ -5981,7 +5928,7 @@
       <c r="DA23" s="8"/>
       <c r="DB23" s="8"/>
     </row>
-    <row r="24" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="7" t="s">
         <v>146</v>
       </c>
@@ -6031,9 +5978,7 @@
       <c r="U24" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="V24" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="V24" s="1"/>
       <c r="W24" s="8" t="n">
         <v>1</v>
       </c>
@@ -6220,7 +6165,7 @@
       <c r="DA24" s="1"/>
       <c r="DB24" s="1"/>
     </row>
-    <row r="25" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="9"/>
       <c r="B25" s="10" t="s">
         <v>97</v>
@@ -6270,9 +6215,6 @@
       </c>
       <c r="T25" s="15"/>
       <c r="U25" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="V25" s="1" t="n">
         <v>1</v>
       </c>
       <c r="W25" s="8" t="n">
@@ -6461,7 +6403,7 @@
       <c r="DA25" s="8"/>
       <c r="DB25" s="8"/>
     </row>
-    <row r="26" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="9"/>
       <c r="B26" s="10" t="s">
         <v>104</v>
@@ -6511,9 +6453,6 @@
       </c>
       <c r="T26" s="15"/>
       <c r="U26" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="V26" s="1" t="n">
         <v>1</v>
       </c>
       <c r="W26" s="8" t="n">

--- a/database/meta/info_tags.xlsx
+++ b/database/meta/info_tags.xlsx
@@ -5,11 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="1-post" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="2-data" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="9-data" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="m-map" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Sheet4" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
@@ -319,6 +319,7 @@
       <color rgb="FF080808"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -513,7 +514,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D34" activeCellId="0" sqref="D34"/>
+      <selection pane="topLeft" activeCell="D34" activeCellId="1" sqref="B16:B17 D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.3671875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -644,8 +645,8 @@
   </sheetPr>
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="96" zoomScaleNormal="96" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="96" zoomScaleNormal="96" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B16:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.3671875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -662,7 +663,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2" t="s">
@@ -809,8 +810,8 @@
   </sheetPr>
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D31" activeCellId="0" sqref="D31"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D31" activeCellId="1" sqref="B16:B17 D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.3671875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1061,10 +1062,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B16:B17 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.3671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/database/meta/info_tags.xlsx
+++ b/database/meta/info_tags.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\opt\github\TorCMS\database\meta\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EED8DBE-1BBB-4431-A025-A65273329A83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="1-post" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="1-post" sheetId="1" r:id="rId1"/>
+    <sheet name="3-data" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,96 +26,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
-  <si>
-    <t xml:space="preserve">slug</t>
-  </si>
-  <si>
-    <t xml:space="preserve">title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">t01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tech</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Technology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">develop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Programming and development</t>
-  </si>
-  <si>
-    <t xml:space="preserve">t02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">software</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Software application</t>
-  </si>
-  <si>
-    <t xml:space="preserve">t03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">osgis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open source GIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">t04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spatech</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Space Technology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Education</t>
-  </si>
-  <si>
-    <t xml:space="preserve">education</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Education and training</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
+  <si>
+    <t>slug</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>t01</t>
+  </si>
+  <si>
+    <t>tech</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>develop</t>
+  </si>
+  <si>
+    <t>Programming and development</t>
+  </si>
+  <si>
+    <t>t02</t>
+  </si>
+  <si>
+    <t>software</t>
+  </si>
+  <si>
+    <t>Software application</t>
+  </si>
+  <si>
+    <t>t03</t>
+  </si>
+  <si>
+    <t>osgis</t>
+  </si>
+  <si>
+    <t>Open source GIS</t>
+  </si>
+  <si>
+    <t>t04</t>
+  </si>
+  <si>
+    <t>spatech</t>
+  </si>
+  <si>
+    <t>Space Technology</t>
+  </si>
+  <si>
+    <t>edu</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>education</t>
+  </si>
+  <si>
+    <t>Education and training</t>
+  </si>
+  <si>
+    <t>Economic resources</t>
+  </si>
+  <si>
+    <t>eco_res</t>
+  </si>
+  <si>
+    <t>Nature resources</t>
+  </si>
+  <si>
+    <t>nature_res</t>
+  </si>
+  <si>
+    <t>nature_resources</t>
+  </si>
+  <si>
+    <t>t22</t>
+  </si>
+  <si>
+    <t>Nature Geographic</t>
+  </si>
+  <si>
+    <t>nature_geo</t>
+  </si>
+  <si>
+    <t>Basic geographic</t>
+  </si>
+  <si>
+    <t>basic_geo_db</t>
+  </si>
+  <si>
+    <t>t21</t>
+  </si>
+  <si>
+    <t>Raw,Rough,Finish,Product</t>
+  </si>
+  <si>
+    <t>Observation,Monitor,Detection,General Investigation,Research,Field trip,Digital data,Data reanalysis,Network capture</t>
+  </si>
+  <si>
+    <t>RS Image,GIS Data,Document,Multimedia,Formatted Data</t>
+  </si>
+  <si>
+    <t>_grade,Grade</t>
+  </si>
+  <si>
+    <t>_derive,Derive</t>
+  </si>
+  <si>
+    <t>_record,Record</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -145,6 +184,19 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF313739"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -167,80 +219,74 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  <cellStyles count="1">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -299,32 +345,340 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:D9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AMJ9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D34" activeCellId="0" sqref="D34"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.37890625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.33203125" defaultRowHeight="17.25"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="8.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="24.3"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="1" width="8.36"/>
+    <col min="1" max="2" width="8.33203125" style="1"/>
+    <col min="3" max="3" width="15.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" style="1" customWidth="1"/>
+    <col min="5" max="1024" width="8.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="n">
+    <row r="1" spans="1:4">
+      <c r="A1" s="2">
         <v>1</v>
       </c>
       <c r="B1" s="2"/>
@@ -335,13 +689,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:4">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -353,7 +707,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:4" ht="27">
       <c r="A4" s="5"/>
       <c r="B4" s="3" t="s">
         <v>2</v>
@@ -365,7 +719,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:4">
       <c r="A5" s="5"/>
       <c r="B5" s="3" t="s">
         <v>7</v>
@@ -377,7 +731,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:4">
       <c r="A6" s="5"/>
       <c r="B6" s="3" t="s">
         <v>10</v>
@@ -389,7 +743,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:4">
       <c r="A7" s="5"/>
       <c r="B7" s="3" t="s">
         <v>13</v>
@@ -401,7 +755,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:4">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -413,7 +767,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:4">
       <c r="A9" s="5"/>
       <c r="B9" s="3" t="s">
         <v>2</v>
@@ -426,12 +780,170 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84FAAAC3-0593-4F9F-96C0-F670E093E072}">
+  <dimension ref="A1:AMJ7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.33203125" defaultRowHeight="17.25"/>
+  <cols>
+    <col min="1" max="1" width="3.109375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="25" style="6" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="24.21875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="24.77734375" style="6" customWidth="1"/>
+    <col min="7" max="7" width="24.88671875" style="6" customWidth="1"/>
+    <col min="8" max="1024" width="8.33203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="10">
+        <v>3</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="71.25">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="7">
+        <v>1</v>
+      </c>
+      <c r="F3" s="7">
+        <v>1</v>
+      </c>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="8"/>
+      <c r="B4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="7">
+        <v>1</v>
+      </c>
+      <c r="F4" s="7">
+        <v>1</v>
+      </c>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="7">
+        <v>1</v>
+      </c>
+      <c r="F5" s="7">
+        <v>1</v>
+      </c>
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="8"/>
+      <c r="B6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="7">
+        <v>1</v>
+      </c>
+      <c r="F6" s="7">
+        <v>1</v>
+      </c>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="8"/>
+      <c r="B7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="7"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/database/meta/info_tags.xlsx
+++ b/database/meta/info_tags.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\opt\github\TorCMS\database\meta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EED8DBE-1BBB-4431-A025-A65273329A83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01A130D7-3615-4380-8695-13F050E0FAF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -91,36 +91,15 @@
     <t>Economic resources</t>
   </si>
   <si>
-    <t>eco_res</t>
-  </si>
-  <si>
     <t>Nature resources</t>
   </si>
   <si>
-    <t>nature_res</t>
-  </si>
-  <si>
-    <t>nature_resources</t>
-  </si>
-  <si>
-    <t>t22</t>
-  </si>
-  <si>
     <t>Nature Geographic</t>
   </si>
   <si>
-    <t>nature_geo</t>
-  </si>
-  <si>
     <t>Basic geographic</t>
   </si>
   <si>
-    <t>basic_geo_db</t>
-  </si>
-  <si>
-    <t>t21</t>
-  </si>
-  <si>
     <t>Raw,Rough,Finish,Product</t>
   </si>
   <si>
@@ -137,6 +116,34 @@
   </si>
   <si>
     <t>_record,Record</t>
+  </si>
+  <si>
+    <t>t31</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>t32</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>basic_geo_db3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>nature_geo3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>nature_resources3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>nature_res3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>eco_res3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -795,7 +802,7 @@
   <dimension ref="A1:AMJ7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.33203125" defaultRowHeight="17.25"/>
@@ -822,13 +829,13 @@
         <v>1</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="71.25">
@@ -837,13 +844,13 @@
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
       <c r="E2" s="10" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -852,10 +859,10 @@
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E3" s="7">
         <v>1</v>
@@ -871,10 +878,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4" s="7">
         <v>1</v>
@@ -886,14 +893,14 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="7" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5" s="7">
         <v>1</v>
@@ -909,10 +916,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6" s="7">
         <v>1</v>
@@ -928,7 +935,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>20</v>

--- a/database/meta/info_tags.xlsx
+++ b/database/meta/info_tags.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="1-post" sheetId="1" state="visible" r:id="rId2"/>
@@ -77,7 +77,7 @@
     <t xml:space="preserve">Education</t>
   </si>
   <si>
-    <t xml:space="preserve">education</t>
+    <t xml:space="preserve">education_training</t>
   </si>
   <si>
     <t xml:space="preserve">Education and training</t>
@@ -444,8 +444,8 @@
   </sheetPr>
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D34" activeCellId="0" sqref="D34"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.34765625" defaultRowHeight="17.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -546,7 +546,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5"/>
       <c r="B9" s="3" t="s">
         <v>2</v>
@@ -576,14 +576,14 @@
   </sheetPr>
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="96" zoomScaleNormal="96" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="96" zoomScaleNormal="96" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.34765625" defaultRowHeight="17.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="6" width="3.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="6" width="13.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="6" width="13.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="6" width="25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="6" width="20.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="6" width="24.21"/>

--- a/database/meta/info_tags.xlsx
+++ b/database/meta/info_tags.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="1-post" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="3-data" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="q-question" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="43">
   <si>
     <t xml:space="preserve">slug</t>
   </si>
@@ -135,6 +136,21 @@
   </si>
   <si>
     <t xml:space="preserve">Organization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">q</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tq1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">questions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">问答</t>
+  </si>
+  <si>
+    <t xml:space="preserve">question</t>
   </si>
 </sst>
 </file>
@@ -144,7 +160,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="16">
     <font>
       <sz val="12"/>
       <name val="微软雅黑"/>
@@ -214,8 +230,43 @@
       <family val="0"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF900800"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="文泉驿正黑"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF1F4F6A"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -225,7 +276,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFDBEBF4"/>
-        <bgColor rgb="FFCCFFFF"/>
+        <bgColor rgb="FFE2F3D6"/>
       </patternFill>
     </fill>
     <fill>
@@ -258,8 +309,14 @@
         <bgColor rgb="FF00FFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2F3D6"/>
+        <bgColor rgb="FFDBEBF4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -274,6 +331,13 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -300,7 +364,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -362,6 +426,30 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -410,7 +498,7 @@
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFE2F3D6"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
@@ -424,7 +512,7 @@
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF1F4F6A"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF080808"/>
       <rgbColor rgb="FF333300"/>
@@ -444,7 +532,7 @@
   </sheetPr>
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -561,7 +649,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"Page &amp;P</oddFooter>
@@ -725,11 +813,77 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="18"/>
+    </row>
+    <row r="3" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="20"/>
+      <c r="C3" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="19"/>
+      <c r="B4" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/database/meta/info_tags.xlsx
+++ b/database/meta/info_tags.xlsx
@@ -147,7 +147,7 @@
     <t xml:space="preserve">questions</t>
   </si>
   <si>
-    <t xml:space="preserve">问答</t>
+    <t xml:space="preserve">Q&amp;A</t>
   </si>
   <si>
     <t xml:space="preserve">question</t>
@@ -263,7 +263,6 @@
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="9">
@@ -830,10 +829,10 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
+      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="16" t="s">

--- a/database/meta/info_tags.xlsx
+++ b/database/meta/info_tags.xlsx
@@ -144,13 +144,13 @@
     <t xml:space="preserve">tq1</t>
   </si>
   <si>
-    <t xml:space="preserve">questions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q&amp;A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">question</t>
+    <t xml:space="preserve">topics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Topics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">topic</t>
   </si>
 </sst>
 </file>
@@ -259,10 +259,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
+      <sz val="10"/>
+      <color rgb="FF067D17"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="9">
@@ -472,7 +473,7 @@
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF900800"/>
-      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF067D17"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
@@ -829,10 +830,10 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.69921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="16" t="s">
@@ -860,7 +861,7 @@
       <c r="C3" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="21" t="s">
         <v>41</v>
       </c>
     </row>

--- a/database/meta/info_tags.xlsx
+++ b/database/meta/info_tags.xlsx
@@ -5,12 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="1-post" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="3-data" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="q-question" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="v-map-show" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="48">
   <si>
     <t xml:space="preserve">slug</t>
   </si>
@@ -151,6 +152,21 @@
   </si>
   <si>
     <t xml:space="preserve">topic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tv1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">map_shows</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Map visualization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">map_show</t>
   </si>
 </sst>
 </file>
@@ -160,7 +176,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <name val="微软雅黑"/>
@@ -252,21 +268,14 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF1F4F6A"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="10"/>
-      <color rgb="FF067D17"/>
+      <color rgb="FF000000"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -276,7 +285,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFDBEBF4"/>
-        <bgColor rgb="FFE2F3D6"/>
+        <bgColor rgb="FFCCFFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -309,14 +318,8 @@
         <bgColor rgb="FF00FFFF"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE2F3D6"/>
-        <bgColor rgb="FFDBEBF4"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -329,13 +332,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
       <diagonal/>
     </border>
   </borders>
@@ -364,7 +360,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -429,27 +425,31 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -473,7 +473,7 @@
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF900800"/>
-      <rgbColor rgb="FF067D17"/>
+      <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
@@ -498,7 +498,7 @@
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFE2F3D6"/>
+      <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
@@ -512,7 +512,7 @@
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF1F4F6A"/>
+      <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF080808"/>
       <rgbColor rgb="FF333300"/>
@@ -827,15 +827,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:AMJ5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.69921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="690" style="0" width="9.61"/>
+  </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="18" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="16" t="s">
         <v>38</v>
       </c>
@@ -846,37 +849,2789 @@
       <c r="D1" s="17" t="s">
         <v>1</v>
       </c>
+      <c r="ZN1" s="19"/>
+      <c r="ZO1" s="19"/>
+      <c r="ZP1" s="19"/>
+      <c r="ZQ1" s="19"/>
+      <c r="ZR1" s="19"/>
+      <c r="ZS1" s="19"/>
+      <c r="ZT1" s="19"/>
+      <c r="ZU1" s="19"/>
+      <c r="ZV1" s="19"/>
+      <c r="ZW1" s="19"/>
+      <c r="ZX1" s="19"/>
+      <c r="ZY1" s="19"/>
+      <c r="ZZ1" s="19"/>
+      <c r="AAA1" s="19"/>
+      <c r="AAB1" s="19"/>
+      <c r="AAC1" s="19"/>
+      <c r="AAD1" s="19"/>
+      <c r="AAE1" s="19"/>
+      <c r="AAF1" s="19"/>
+      <c r="AAG1" s="19"/>
+      <c r="AAH1" s="19"/>
+      <c r="AAI1" s="19"/>
+      <c r="AAJ1" s="19"/>
+      <c r="AAK1" s="19"/>
+      <c r="AAL1" s="19"/>
+      <c r="AAM1" s="19"/>
+      <c r="AAN1" s="19"/>
+      <c r="AAO1" s="19"/>
+      <c r="AAP1" s="19"/>
+      <c r="AAQ1" s="19"/>
+      <c r="AAR1" s="19"/>
+      <c r="AAS1" s="19"/>
+      <c r="AAT1" s="19"/>
+      <c r="AAU1" s="19"/>
+      <c r="AAV1" s="19"/>
+      <c r="AAW1" s="19"/>
+      <c r="AAX1" s="19"/>
+      <c r="AAY1" s="19"/>
+      <c r="AAZ1" s="19"/>
+      <c r="ABA1" s="19"/>
+      <c r="ABB1" s="19"/>
+      <c r="ABC1" s="19"/>
+      <c r="ABD1" s="19"/>
+      <c r="ABE1" s="19"/>
+      <c r="ABF1" s="19"/>
+      <c r="ABG1" s="19"/>
+      <c r="ABH1" s="19"/>
+      <c r="ABI1" s="19"/>
+      <c r="ABJ1" s="19"/>
+      <c r="ABK1" s="19"/>
+      <c r="ABL1" s="19"/>
+      <c r="ABM1" s="19"/>
+      <c r="ABN1" s="19"/>
+      <c r="ABO1" s="19"/>
+      <c r="ABP1" s="19"/>
+      <c r="ABQ1" s="19"/>
+      <c r="ABR1" s="19"/>
+      <c r="ABS1" s="19"/>
+      <c r="ABT1" s="19"/>
+      <c r="ABU1" s="19"/>
+      <c r="ABV1" s="19"/>
+      <c r="ABW1" s="19"/>
+      <c r="ABX1" s="19"/>
+      <c r="ABY1" s="19"/>
+      <c r="ABZ1" s="19"/>
+      <c r="ACA1" s="19"/>
+      <c r="ACB1" s="19"/>
+      <c r="ACC1" s="19"/>
+      <c r="ACD1" s="19"/>
+      <c r="ACE1" s="19"/>
+      <c r="ACF1" s="19"/>
+      <c r="ACG1" s="19"/>
+      <c r="ACH1" s="19"/>
+      <c r="ACI1" s="19"/>
+      <c r="ACJ1" s="19"/>
+      <c r="ACK1" s="19"/>
+      <c r="ACL1" s="19"/>
+      <c r="ACM1" s="19"/>
+      <c r="ACN1" s="19"/>
+      <c r="ACO1" s="19"/>
+      <c r="ACP1" s="19"/>
+      <c r="ACQ1" s="19"/>
+      <c r="ACR1" s="19"/>
+      <c r="ACS1" s="19"/>
+      <c r="ACT1" s="19"/>
+      <c r="ACU1" s="19"/>
+      <c r="ACV1" s="19"/>
+      <c r="ACW1" s="19"/>
+      <c r="ACX1" s="19"/>
+      <c r="ACY1" s="19"/>
+      <c r="ACZ1" s="19"/>
+      <c r="ADA1" s="19"/>
+      <c r="ADB1" s="19"/>
+      <c r="ADC1" s="19"/>
+      <c r="ADD1" s="19"/>
+      <c r="ADE1" s="19"/>
+      <c r="ADF1" s="19"/>
+      <c r="ADG1" s="19"/>
+      <c r="ADH1" s="19"/>
+      <c r="ADI1" s="19"/>
+      <c r="ADJ1" s="19"/>
+      <c r="ADK1" s="19"/>
+      <c r="ADL1" s="19"/>
+      <c r="ADM1" s="19"/>
+      <c r="ADN1" s="19"/>
+      <c r="ADO1" s="19"/>
+      <c r="ADP1" s="19"/>
+      <c r="ADQ1" s="19"/>
+      <c r="ADR1" s="19"/>
+      <c r="ADS1" s="19"/>
+      <c r="ADT1" s="19"/>
+      <c r="ADU1" s="19"/>
+      <c r="ADV1" s="19"/>
+      <c r="ADW1" s="19"/>
+      <c r="ADX1" s="19"/>
+      <c r="ADY1" s="19"/>
+      <c r="ADZ1" s="19"/>
+      <c r="AEA1" s="19"/>
+      <c r="AEB1" s="19"/>
+      <c r="AEC1" s="19"/>
+      <c r="AED1" s="19"/>
+      <c r="AEE1" s="19"/>
+      <c r="AEF1" s="19"/>
+      <c r="AEG1" s="19"/>
+      <c r="AEH1" s="19"/>
+      <c r="AEI1" s="19"/>
+      <c r="AEJ1" s="19"/>
+      <c r="AEK1" s="19"/>
+      <c r="AEL1" s="19"/>
+      <c r="AEM1" s="19"/>
+      <c r="AEN1" s="19"/>
+      <c r="AEO1" s="19"/>
+      <c r="AEP1" s="19"/>
+      <c r="AEQ1" s="19"/>
+      <c r="AER1" s="19"/>
+      <c r="AES1" s="19"/>
+      <c r="AET1" s="19"/>
+      <c r="AEU1" s="19"/>
+      <c r="AEV1" s="19"/>
+      <c r="AEW1" s="19"/>
+      <c r="AEX1" s="19"/>
+      <c r="AEY1" s="19"/>
+      <c r="AEZ1" s="19"/>
+      <c r="AFA1" s="19"/>
+      <c r="AFB1" s="19"/>
+      <c r="AFC1" s="19"/>
+      <c r="AFD1" s="19"/>
+      <c r="AFE1" s="19"/>
+      <c r="AFF1" s="19"/>
+      <c r="AFG1" s="19"/>
+      <c r="AFH1" s="19"/>
+      <c r="AFI1" s="19"/>
+      <c r="AFJ1" s="19"/>
+      <c r="AFK1" s="19"/>
+      <c r="AFL1" s="19"/>
+      <c r="AFM1" s="19"/>
+      <c r="AFN1" s="19"/>
+      <c r="AFO1" s="19"/>
+      <c r="AFP1" s="19"/>
+      <c r="AFQ1" s="19"/>
+      <c r="AFR1" s="19"/>
+      <c r="AFS1" s="19"/>
+      <c r="AFT1" s="19"/>
+      <c r="AFU1" s="19"/>
+      <c r="AFV1" s="19"/>
+      <c r="AFW1" s="19"/>
+      <c r="AFX1" s="19"/>
+      <c r="AFY1" s="19"/>
+      <c r="AFZ1" s="19"/>
+      <c r="AGA1" s="19"/>
+      <c r="AGB1" s="19"/>
+      <c r="AGC1" s="19"/>
+      <c r="AGD1" s="19"/>
+      <c r="AGE1" s="19"/>
+      <c r="AGF1" s="19"/>
+      <c r="AGG1" s="19"/>
+      <c r="AGH1" s="19"/>
+      <c r="AGI1" s="19"/>
+      <c r="AGJ1" s="19"/>
+      <c r="AGK1" s="19"/>
+      <c r="AGL1" s="19"/>
+      <c r="AGM1" s="19"/>
+      <c r="AGN1" s="19"/>
+      <c r="AGO1" s="19"/>
+      <c r="AGP1" s="19"/>
+      <c r="AGQ1" s="19"/>
+      <c r="AGR1" s="19"/>
+      <c r="AGS1" s="19"/>
+      <c r="AGT1" s="19"/>
+      <c r="AGU1" s="19"/>
+      <c r="AGV1" s="19"/>
+      <c r="AGW1" s="19"/>
+      <c r="AGX1" s="19"/>
+      <c r="AGY1" s="19"/>
+      <c r="AGZ1" s="19"/>
+      <c r="AHA1" s="19"/>
+      <c r="AHB1" s="19"/>
+      <c r="AHC1" s="19"/>
+      <c r="AHD1" s="19"/>
+      <c r="AHE1" s="19"/>
+      <c r="AHF1" s="19"/>
+      <c r="AHG1" s="19"/>
+      <c r="AHH1" s="19"/>
+      <c r="AHI1" s="19"/>
+      <c r="AHJ1" s="19"/>
+      <c r="AHK1" s="19"/>
+      <c r="AHL1" s="19"/>
+      <c r="AHM1" s="19"/>
+      <c r="AHN1" s="19"/>
+      <c r="AHO1" s="19"/>
+      <c r="AHP1" s="19"/>
+      <c r="AHQ1" s="19"/>
+      <c r="AHR1" s="19"/>
+      <c r="AHS1" s="19"/>
+      <c r="AHT1" s="19"/>
+      <c r="AHU1" s="19"/>
+      <c r="AHV1" s="19"/>
+      <c r="AHW1" s="19"/>
+      <c r="AHX1" s="19"/>
+      <c r="AHY1" s="19"/>
+      <c r="AHZ1" s="19"/>
+      <c r="AIA1" s="19"/>
+      <c r="AIB1" s="19"/>
+      <c r="AIC1" s="19"/>
+      <c r="AID1" s="19"/>
+      <c r="AIE1" s="19"/>
+      <c r="AIF1" s="19"/>
+      <c r="AIG1" s="19"/>
+      <c r="AIH1" s="19"/>
+      <c r="AII1" s="19"/>
+      <c r="AIJ1" s="19"/>
+      <c r="AIK1" s="19"/>
+      <c r="AIL1" s="19"/>
+      <c r="AIM1" s="19"/>
+      <c r="AIN1" s="19"/>
+      <c r="AIO1" s="19"/>
+      <c r="AIP1" s="19"/>
+      <c r="AIQ1" s="19"/>
+      <c r="AIR1" s="19"/>
+      <c r="AIS1" s="19"/>
+      <c r="AIT1" s="19"/>
+      <c r="AIU1" s="19"/>
+      <c r="AIV1" s="19"/>
+      <c r="AIW1" s="19"/>
+      <c r="AIX1" s="19"/>
+      <c r="AIY1" s="19"/>
+      <c r="AIZ1" s="19"/>
+      <c r="AJA1" s="19"/>
+      <c r="AJB1" s="19"/>
+      <c r="AJC1" s="19"/>
+      <c r="AJD1" s="19"/>
+      <c r="AJE1" s="19"/>
+      <c r="AJF1" s="19"/>
+      <c r="AJG1" s="19"/>
+      <c r="AJH1" s="19"/>
+      <c r="AJI1" s="19"/>
+      <c r="AJJ1" s="19"/>
+      <c r="AJK1" s="19"/>
+      <c r="AJL1" s="19"/>
+      <c r="AJM1" s="19"/>
+      <c r="AJN1" s="19"/>
+      <c r="AJO1" s="19"/>
+      <c r="AJP1" s="19"/>
+      <c r="AJQ1" s="19"/>
+      <c r="AJR1" s="19"/>
+      <c r="AJS1" s="19"/>
+      <c r="AJT1" s="19"/>
+      <c r="AJU1" s="19"/>
+      <c r="AJV1" s="19"/>
+      <c r="AJW1" s="19"/>
+      <c r="AJX1" s="19"/>
+      <c r="AJY1" s="19"/>
+      <c r="AJZ1" s="19"/>
+      <c r="AKA1" s="19"/>
+      <c r="AKB1" s="19"/>
+      <c r="AKC1" s="19"/>
+      <c r="AKD1" s="19"/>
+      <c r="AKE1" s="19"/>
+      <c r="AKF1" s="19"/>
+      <c r="AKG1" s="19"/>
+      <c r="AKH1" s="19"/>
+      <c r="AKI1" s="19"/>
+      <c r="AKJ1" s="19"/>
+      <c r="AKK1" s="19"/>
+      <c r="AKL1" s="19"/>
+      <c r="AKM1" s="19"/>
+      <c r="AKN1" s="19"/>
+      <c r="AKO1" s="19"/>
+      <c r="AKP1" s="19"/>
+      <c r="AKQ1" s="19"/>
+      <c r="AKR1" s="19"/>
+      <c r="AKS1" s="19"/>
+      <c r="AKT1" s="19"/>
+      <c r="AKU1" s="19"/>
+      <c r="AKV1" s="19"/>
+      <c r="AKW1" s="19"/>
+      <c r="AKX1" s="19"/>
+      <c r="AKY1" s="19"/>
+      <c r="AKZ1" s="19"/>
+      <c r="ALA1" s="19"/>
+      <c r="ALB1" s="19"/>
+      <c r="ALC1" s="19"/>
+      <c r="ALD1" s="19"/>
+      <c r="ALE1" s="19"/>
+      <c r="ALF1" s="19"/>
+      <c r="ALG1" s="19"/>
+      <c r="ALH1" s="19"/>
+      <c r="ALI1" s="19"/>
+      <c r="ALJ1" s="19"/>
+      <c r="ALK1" s="19"/>
+      <c r="ALL1" s="19"/>
+      <c r="ALM1" s="19"/>
+      <c r="ALN1" s="19"/>
+      <c r="ALO1" s="19"/>
+      <c r="ALP1" s="19"/>
+      <c r="ALQ1" s="19"/>
+      <c r="ALR1" s="19"/>
+      <c r="ALS1" s="19"/>
+      <c r="ALT1" s="19"/>
+      <c r="ALU1" s="19"/>
+      <c r="ALV1" s="19"/>
+      <c r="ALW1" s="19"/>
+      <c r="ALX1" s="19"/>
+      <c r="ALY1" s="19"/>
+      <c r="ALZ1" s="19"/>
+      <c r="AMA1" s="19"/>
+      <c r="AMB1" s="19"/>
+      <c r="AMC1" s="19"/>
+      <c r="AMD1" s="19"/>
+      <c r="AME1" s="19"/>
+      <c r="AMF1" s="19"/>
+      <c r="AMG1" s="19"/>
+      <c r="AMH1" s="19"/>
+      <c r="AMI1" s="19"/>
+      <c r="AMJ1" s="19"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" s="18" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="16"/>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
-      <c r="D2" s="18"/>
+      <c r="D2" s="20"/>
+      <c r="ZN2" s="19"/>
+      <c r="ZO2" s="19"/>
+      <c r="ZP2" s="19"/>
+      <c r="ZQ2" s="19"/>
+      <c r="ZR2" s="19"/>
+      <c r="ZS2" s="19"/>
+      <c r="ZT2" s="19"/>
+      <c r="ZU2" s="19"/>
+      <c r="ZV2" s="19"/>
+      <c r="ZW2" s="19"/>
+      <c r="ZX2" s="19"/>
+      <c r="ZY2" s="19"/>
+      <c r="ZZ2" s="19"/>
+      <c r="AAA2" s="19"/>
+      <c r="AAB2" s="19"/>
+      <c r="AAC2" s="19"/>
+      <c r="AAD2" s="19"/>
+      <c r="AAE2" s="19"/>
+      <c r="AAF2" s="19"/>
+      <c r="AAG2" s="19"/>
+      <c r="AAH2" s="19"/>
+      <c r="AAI2" s="19"/>
+      <c r="AAJ2" s="19"/>
+      <c r="AAK2" s="19"/>
+      <c r="AAL2" s="19"/>
+      <c r="AAM2" s="19"/>
+      <c r="AAN2" s="19"/>
+      <c r="AAO2" s="19"/>
+      <c r="AAP2" s="19"/>
+      <c r="AAQ2" s="19"/>
+      <c r="AAR2" s="19"/>
+      <c r="AAS2" s="19"/>
+      <c r="AAT2" s="19"/>
+      <c r="AAU2" s="19"/>
+      <c r="AAV2" s="19"/>
+      <c r="AAW2" s="19"/>
+      <c r="AAX2" s="19"/>
+      <c r="AAY2" s="19"/>
+      <c r="AAZ2" s="19"/>
+      <c r="ABA2" s="19"/>
+      <c r="ABB2" s="19"/>
+      <c r="ABC2" s="19"/>
+      <c r="ABD2" s="19"/>
+      <c r="ABE2" s="19"/>
+      <c r="ABF2" s="19"/>
+      <c r="ABG2" s="19"/>
+      <c r="ABH2" s="19"/>
+      <c r="ABI2" s="19"/>
+      <c r="ABJ2" s="19"/>
+      <c r="ABK2" s="19"/>
+      <c r="ABL2" s="19"/>
+      <c r="ABM2" s="19"/>
+      <c r="ABN2" s="19"/>
+      <c r="ABO2" s="19"/>
+      <c r="ABP2" s="19"/>
+      <c r="ABQ2" s="19"/>
+      <c r="ABR2" s="19"/>
+      <c r="ABS2" s="19"/>
+      <c r="ABT2" s="19"/>
+      <c r="ABU2" s="19"/>
+      <c r="ABV2" s="19"/>
+      <c r="ABW2" s="19"/>
+      <c r="ABX2" s="19"/>
+      <c r="ABY2" s="19"/>
+      <c r="ABZ2" s="19"/>
+      <c r="ACA2" s="19"/>
+      <c r="ACB2" s="19"/>
+      <c r="ACC2" s="19"/>
+      <c r="ACD2" s="19"/>
+      <c r="ACE2" s="19"/>
+      <c r="ACF2" s="19"/>
+      <c r="ACG2" s="19"/>
+      <c r="ACH2" s="19"/>
+      <c r="ACI2" s="19"/>
+      <c r="ACJ2" s="19"/>
+      <c r="ACK2" s="19"/>
+      <c r="ACL2" s="19"/>
+      <c r="ACM2" s="19"/>
+      <c r="ACN2" s="19"/>
+      <c r="ACO2" s="19"/>
+      <c r="ACP2" s="19"/>
+      <c r="ACQ2" s="19"/>
+      <c r="ACR2" s="19"/>
+      <c r="ACS2" s="19"/>
+      <c r="ACT2" s="19"/>
+      <c r="ACU2" s="19"/>
+      <c r="ACV2" s="19"/>
+      <c r="ACW2" s="19"/>
+      <c r="ACX2" s="19"/>
+      <c r="ACY2" s="19"/>
+      <c r="ACZ2" s="19"/>
+      <c r="ADA2" s="19"/>
+      <c r="ADB2" s="19"/>
+      <c r="ADC2" s="19"/>
+      <c r="ADD2" s="19"/>
+      <c r="ADE2" s="19"/>
+      <c r="ADF2" s="19"/>
+      <c r="ADG2" s="19"/>
+      <c r="ADH2" s="19"/>
+      <c r="ADI2" s="19"/>
+      <c r="ADJ2" s="19"/>
+      <c r="ADK2" s="19"/>
+      <c r="ADL2" s="19"/>
+      <c r="ADM2" s="19"/>
+      <c r="ADN2" s="19"/>
+      <c r="ADO2" s="19"/>
+      <c r="ADP2" s="19"/>
+      <c r="ADQ2" s="19"/>
+      <c r="ADR2" s="19"/>
+      <c r="ADS2" s="19"/>
+      <c r="ADT2" s="19"/>
+      <c r="ADU2" s="19"/>
+      <c r="ADV2" s="19"/>
+      <c r="ADW2" s="19"/>
+      <c r="ADX2" s="19"/>
+      <c r="ADY2" s="19"/>
+      <c r="ADZ2" s="19"/>
+      <c r="AEA2" s="19"/>
+      <c r="AEB2" s="19"/>
+      <c r="AEC2" s="19"/>
+      <c r="AED2" s="19"/>
+      <c r="AEE2" s="19"/>
+      <c r="AEF2" s="19"/>
+      <c r="AEG2" s="19"/>
+      <c r="AEH2" s="19"/>
+      <c r="AEI2" s="19"/>
+      <c r="AEJ2" s="19"/>
+      <c r="AEK2" s="19"/>
+      <c r="AEL2" s="19"/>
+      <c r="AEM2" s="19"/>
+      <c r="AEN2" s="19"/>
+      <c r="AEO2" s="19"/>
+      <c r="AEP2" s="19"/>
+      <c r="AEQ2" s="19"/>
+      <c r="AER2" s="19"/>
+      <c r="AES2" s="19"/>
+      <c r="AET2" s="19"/>
+      <c r="AEU2" s="19"/>
+      <c r="AEV2" s="19"/>
+      <c r="AEW2" s="19"/>
+      <c r="AEX2" s="19"/>
+      <c r="AEY2" s="19"/>
+      <c r="AEZ2" s="19"/>
+      <c r="AFA2" s="19"/>
+      <c r="AFB2" s="19"/>
+      <c r="AFC2" s="19"/>
+      <c r="AFD2" s="19"/>
+      <c r="AFE2" s="19"/>
+      <c r="AFF2" s="19"/>
+      <c r="AFG2" s="19"/>
+      <c r="AFH2" s="19"/>
+      <c r="AFI2" s="19"/>
+      <c r="AFJ2" s="19"/>
+      <c r="AFK2" s="19"/>
+      <c r="AFL2" s="19"/>
+      <c r="AFM2" s="19"/>
+      <c r="AFN2" s="19"/>
+      <c r="AFO2" s="19"/>
+      <c r="AFP2" s="19"/>
+      <c r="AFQ2" s="19"/>
+      <c r="AFR2" s="19"/>
+      <c r="AFS2" s="19"/>
+      <c r="AFT2" s="19"/>
+      <c r="AFU2" s="19"/>
+      <c r="AFV2" s="19"/>
+      <c r="AFW2" s="19"/>
+      <c r="AFX2" s="19"/>
+      <c r="AFY2" s="19"/>
+      <c r="AFZ2" s="19"/>
+      <c r="AGA2" s="19"/>
+      <c r="AGB2" s="19"/>
+      <c r="AGC2" s="19"/>
+      <c r="AGD2" s="19"/>
+      <c r="AGE2" s="19"/>
+      <c r="AGF2" s="19"/>
+      <c r="AGG2" s="19"/>
+      <c r="AGH2" s="19"/>
+      <c r="AGI2" s="19"/>
+      <c r="AGJ2" s="19"/>
+      <c r="AGK2" s="19"/>
+      <c r="AGL2" s="19"/>
+      <c r="AGM2" s="19"/>
+      <c r="AGN2" s="19"/>
+      <c r="AGO2" s="19"/>
+      <c r="AGP2" s="19"/>
+      <c r="AGQ2" s="19"/>
+      <c r="AGR2" s="19"/>
+      <c r="AGS2" s="19"/>
+      <c r="AGT2" s="19"/>
+      <c r="AGU2" s="19"/>
+      <c r="AGV2" s="19"/>
+      <c r="AGW2" s="19"/>
+      <c r="AGX2" s="19"/>
+      <c r="AGY2" s="19"/>
+      <c r="AGZ2" s="19"/>
+      <c r="AHA2" s="19"/>
+      <c r="AHB2" s="19"/>
+      <c r="AHC2" s="19"/>
+      <c r="AHD2" s="19"/>
+      <c r="AHE2" s="19"/>
+      <c r="AHF2" s="19"/>
+      <c r="AHG2" s="19"/>
+      <c r="AHH2" s="19"/>
+      <c r="AHI2" s="19"/>
+      <c r="AHJ2" s="19"/>
+      <c r="AHK2" s="19"/>
+      <c r="AHL2" s="19"/>
+      <c r="AHM2" s="19"/>
+      <c r="AHN2" s="19"/>
+      <c r="AHO2" s="19"/>
+      <c r="AHP2" s="19"/>
+      <c r="AHQ2" s="19"/>
+      <c r="AHR2" s="19"/>
+      <c r="AHS2" s="19"/>
+      <c r="AHT2" s="19"/>
+      <c r="AHU2" s="19"/>
+      <c r="AHV2" s="19"/>
+      <c r="AHW2" s="19"/>
+      <c r="AHX2" s="19"/>
+      <c r="AHY2" s="19"/>
+      <c r="AHZ2" s="19"/>
+      <c r="AIA2" s="19"/>
+      <c r="AIB2" s="19"/>
+      <c r="AIC2" s="19"/>
+      <c r="AID2" s="19"/>
+      <c r="AIE2" s="19"/>
+      <c r="AIF2" s="19"/>
+      <c r="AIG2" s="19"/>
+      <c r="AIH2" s="19"/>
+      <c r="AII2" s="19"/>
+      <c r="AIJ2" s="19"/>
+      <c r="AIK2" s="19"/>
+      <c r="AIL2" s="19"/>
+      <c r="AIM2" s="19"/>
+      <c r="AIN2" s="19"/>
+      <c r="AIO2" s="19"/>
+      <c r="AIP2" s="19"/>
+      <c r="AIQ2" s="19"/>
+      <c r="AIR2" s="19"/>
+      <c r="AIS2" s="19"/>
+      <c r="AIT2" s="19"/>
+      <c r="AIU2" s="19"/>
+      <c r="AIV2" s="19"/>
+      <c r="AIW2" s="19"/>
+      <c r="AIX2" s="19"/>
+      <c r="AIY2" s="19"/>
+      <c r="AIZ2" s="19"/>
+      <c r="AJA2" s="19"/>
+      <c r="AJB2" s="19"/>
+      <c r="AJC2" s="19"/>
+      <c r="AJD2" s="19"/>
+      <c r="AJE2" s="19"/>
+      <c r="AJF2" s="19"/>
+      <c r="AJG2" s="19"/>
+      <c r="AJH2" s="19"/>
+      <c r="AJI2" s="19"/>
+      <c r="AJJ2" s="19"/>
+      <c r="AJK2" s="19"/>
+      <c r="AJL2" s="19"/>
+      <c r="AJM2" s="19"/>
+      <c r="AJN2" s="19"/>
+      <c r="AJO2" s="19"/>
+      <c r="AJP2" s="19"/>
+      <c r="AJQ2" s="19"/>
+      <c r="AJR2" s="19"/>
+      <c r="AJS2" s="19"/>
+      <c r="AJT2" s="19"/>
+      <c r="AJU2" s="19"/>
+      <c r="AJV2" s="19"/>
+      <c r="AJW2" s="19"/>
+      <c r="AJX2" s="19"/>
+      <c r="AJY2" s="19"/>
+      <c r="AJZ2" s="19"/>
+      <c r="AKA2" s="19"/>
+      <c r="AKB2" s="19"/>
+      <c r="AKC2" s="19"/>
+      <c r="AKD2" s="19"/>
+      <c r="AKE2" s="19"/>
+      <c r="AKF2" s="19"/>
+      <c r="AKG2" s="19"/>
+      <c r="AKH2" s="19"/>
+      <c r="AKI2" s="19"/>
+      <c r="AKJ2" s="19"/>
+      <c r="AKK2" s="19"/>
+      <c r="AKL2" s="19"/>
+      <c r="AKM2" s="19"/>
+      <c r="AKN2" s="19"/>
+      <c r="AKO2" s="19"/>
+      <c r="AKP2" s="19"/>
+      <c r="AKQ2" s="19"/>
+      <c r="AKR2" s="19"/>
+      <c r="AKS2" s="19"/>
+      <c r="AKT2" s="19"/>
+      <c r="AKU2" s="19"/>
+      <c r="AKV2" s="19"/>
+      <c r="AKW2" s="19"/>
+      <c r="AKX2" s="19"/>
+      <c r="AKY2" s="19"/>
+      <c r="AKZ2" s="19"/>
+      <c r="ALA2" s="19"/>
+      <c r="ALB2" s="19"/>
+      <c r="ALC2" s="19"/>
+      <c r="ALD2" s="19"/>
+      <c r="ALE2" s="19"/>
+      <c r="ALF2" s="19"/>
+      <c r="ALG2" s="19"/>
+      <c r="ALH2" s="19"/>
+      <c r="ALI2" s="19"/>
+      <c r="ALJ2" s="19"/>
+      <c r="ALK2" s="19"/>
+      <c r="ALL2" s="19"/>
+      <c r="ALM2" s="19"/>
+      <c r="ALN2" s="19"/>
+      <c r="ALO2" s="19"/>
+      <c r="ALP2" s="19"/>
+      <c r="ALQ2" s="19"/>
+      <c r="ALR2" s="19"/>
+      <c r="ALS2" s="19"/>
+      <c r="ALT2" s="19"/>
+      <c r="ALU2" s="19"/>
+      <c r="ALV2" s="19"/>
+      <c r="ALW2" s="19"/>
+      <c r="ALX2" s="19"/>
+      <c r="ALY2" s="19"/>
+      <c r="ALZ2" s="19"/>
+      <c r="AMA2" s="19"/>
+      <c r="AMB2" s="19"/>
+      <c r="AMC2" s="19"/>
+      <c r="AMD2" s="19"/>
+      <c r="AME2" s="19"/>
+      <c r="AMF2" s="19"/>
+      <c r="AMG2" s="19"/>
+      <c r="AMH2" s="19"/>
+      <c r="AMI2" s="19"/>
+      <c r="AMJ2" s="19"/>
     </row>
-    <row r="3" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="19" t="s">
+    <row r="3" s="18" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="21" t="s">
         <v>39</v>
       </c>
       <c r="B3" s="20"/>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="22" t="s">
         <v>41</v>
       </c>
+      <c r="ZN3" s="19"/>
+      <c r="ZO3" s="19"/>
+      <c r="ZP3" s="19"/>
+      <c r="ZQ3" s="19"/>
+      <c r="ZR3" s="19"/>
+      <c r="ZS3" s="19"/>
+      <c r="ZT3" s="19"/>
+      <c r="ZU3" s="19"/>
+      <c r="ZV3" s="19"/>
+      <c r="ZW3" s="19"/>
+      <c r="ZX3" s="19"/>
+      <c r="ZY3" s="19"/>
+      <c r="ZZ3" s="19"/>
+      <c r="AAA3" s="19"/>
+      <c r="AAB3" s="19"/>
+      <c r="AAC3" s="19"/>
+      <c r="AAD3" s="19"/>
+      <c r="AAE3" s="19"/>
+      <c r="AAF3" s="19"/>
+      <c r="AAG3" s="19"/>
+      <c r="AAH3" s="19"/>
+      <c r="AAI3" s="19"/>
+      <c r="AAJ3" s="19"/>
+      <c r="AAK3" s="19"/>
+      <c r="AAL3" s="19"/>
+      <c r="AAM3" s="19"/>
+      <c r="AAN3" s="19"/>
+      <c r="AAO3" s="19"/>
+      <c r="AAP3" s="19"/>
+      <c r="AAQ3" s="19"/>
+      <c r="AAR3" s="19"/>
+      <c r="AAS3" s="19"/>
+      <c r="AAT3" s="19"/>
+      <c r="AAU3" s="19"/>
+      <c r="AAV3" s="19"/>
+      <c r="AAW3" s="19"/>
+      <c r="AAX3" s="19"/>
+      <c r="AAY3" s="19"/>
+      <c r="AAZ3" s="19"/>
+      <c r="ABA3" s="19"/>
+      <c r="ABB3" s="19"/>
+      <c r="ABC3" s="19"/>
+      <c r="ABD3" s="19"/>
+      <c r="ABE3" s="19"/>
+      <c r="ABF3" s="19"/>
+      <c r="ABG3" s="19"/>
+      <c r="ABH3" s="19"/>
+      <c r="ABI3" s="19"/>
+      <c r="ABJ3" s="19"/>
+      <c r="ABK3" s="19"/>
+      <c r="ABL3" s="19"/>
+      <c r="ABM3" s="19"/>
+      <c r="ABN3" s="19"/>
+      <c r="ABO3" s="19"/>
+      <c r="ABP3" s="19"/>
+      <c r="ABQ3" s="19"/>
+      <c r="ABR3" s="19"/>
+      <c r="ABS3" s="19"/>
+      <c r="ABT3" s="19"/>
+      <c r="ABU3" s="19"/>
+      <c r="ABV3" s="19"/>
+      <c r="ABW3" s="19"/>
+      <c r="ABX3" s="19"/>
+      <c r="ABY3" s="19"/>
+      <c r="ABZ3" s="19"/>
+      <c r="ACA3" s="19"/>
+      <c r="ACB3" s="19"/>
+      <c r="ACC3" s="19"/>
+      <c r="ACD3" s="19"/>
+      <c r="ACE3" s="19"/>
+      <c r="ACF3" s="19"/>
+      <c r="ACG3" s="19"/>
+      <c r="ACH3" s="19"/>
+      <c r="ACI3" s="19"/>
+      <c r="ACJ3" s="19"/>
+      <c r="ACK3" s="19"/>
+      <c r="ACL3" s="19"/>
+      <c r="ACM3" s="19"/>
+      <c r="ACN3" s="19"/>
+      <c r="ACO3" s="19"/>
+      <c r="ACP3" s="19"/>
+      <c r="ACQ3" s="19"/>
+      <c r="ACR3" s="19"/>
+      <c r="ACS3" s="19"/>
+      <c r="ACT3" s="19"/>
+      <c r="ACU3" s="19"/>
+      <c r="ACV3" s="19"/>
+      <c r="ACW3" s="19"/>
+      <c r="ACX3" s="19"/>
+      <c r="ACY3" s="19"/>
+      <c r="ACZ3" s="19"/>
+      <c r="ADA3" s="19"/>
+      <c r="ADB3" s="19"/>
+      <c r="ADC3" s="19"/>
+      <c r="ADD3" s="19"/>
+      <c r="ADE3" s="19"/>
+      <c r="ADF3" s="19"/>
+      <c r="ADG3" s="19"/>
+      <c r="ADH3" s="19"/>
+      <c r="ADI3" s="19"/>
+      <c r="ADJ3" s="19"/>
+      <c r="ADK3" s="19"/>
+      <c r="ADL3" s="19"/>
+      <c r="ADM3" s="19"/>
+      <c r="ADN3" s="19"/>
+      <c r="ADO3" s="19"/>
+      <c r="ADP3" s="19"/>
+      <c r="ADQ3" s="19"/>
+      <c r="ADR3" s="19"/>
+      <c r="ADS3" s="19"/>
+      <c r="ADT3" s="19"/>
+      <c r="ADU3" s="19"/>
+      <c r="ADV3" s="19"/>
+      <c r="ADW3" s="19"/>
+      <c r="ADX3" s="19"/>
+      <c r="ADY3" s="19"/>
+      <c r="ADZ3" s="19"/>
+      <c r="AEA3" s="19"/>
+      <c r="AEB3" s="19"/>
+      <c r="AEC3" s="19"/>
+      <c r="AED3" s="19"/>
+      <c r="AEE3" s="19"/>
+      <c r="AEF3" s="19"/>
+      <c r="AEG3" s="19"/>
+      <c r="AEH3" s="19"/>
+      <c r="AEI3" s="19"/>
+      <c r="AEJ3" s="19"/>
+      <c r="AEK3" s="19"/>
+      <c r="AEL3" s="19"/>
+      <c r="AEM3" s="19"/>
+      <c r="AEN3" s="19"/>
+      <c r="AEO3" s="19"/>
+      <c r="AEP3" s="19"/>
+      <c r="AEQ3" s="19"/>
+      <c r="AER3" s="19"/>
+      <c r="AES3" s="19"/>
+      <c r="AET3" s="19"/>
+      <c r="AEU3" s="19"/>
+      <c r="AEV3" s="19"/>
+      <c r="AEW3" s="19"/>
+      <c r="AEX3" s="19"/>
+      <c r="AEY3" s="19"/>
+      <c r="AEZ3" s="19"/>
+      <c r="AFA3" s="19"/>
+      <c r="AFB3" s="19"/>
+      <c r="AFC3" s="19"/>
+      <c r="AFD3" s="19"/>
+      <c r="AFE3" s="19"/>
+      <c r="AFF3" s="19"/>
+      <c r="AFG3" s="19"/>
+      <c r="AFH3" s="19"/>
+      <c r="AFI3" s="19"/>
+      <c r="AFJ3" s="19"/>
+      <c r="AFK3" s="19"/>
+      <c r="AFL3" s="19"/>
+      <c r="AFM3" s="19"/>
+      <c r="AFN3" s="19"/>
+      <c r="AFO3" s="19"/>
+      <c r="AFP3" s="19"/>
+      <c r="AFQ3" s="19"/>
+      <c r="AFR3" s="19"/>
+      <c r="AFS3" s="19"/>
+      <c r="AFT3" s="19"/>
+      <c r="AFU3" s="19"/>
+      <c r="AFV3" s="19"/>
+      <c r="AFW3" s="19"/>
+      <c r="AFX3" s="19"/>
+      <c r="AFY3" s="19"/>
+      <c r="AFZ3" s="19"/>
+      <c r="AGA3" s="19"/>
+      <c r="AGB3" s="19"/>
+      <c r="AGC3" s="19"/>
+      <c r="AGD3" s="19"/>
+      <c r="AGE3" s="19"/>
+      <c r="AGF3" s="19"/>
+      <c r="AGG3" s="19"/>
+      <c r="AGH3" s="19"/>
+      <c r="AGI3" s="19"/>
+      <c r="AGJ3" s="19"/>
+      <c r="AGK3" s="19"/>
+      <c r="AGL3" s="19"/>
+      <c r="AGM3" s="19"/>
+      <c r="AGN3" s="19"/>
+      <c r="AGO3" s="19"/>
+      <c r="AGP3" s="19"/>
+      <c r="AGQ3" s="19"/>
+      <c r="AGR3" s="19"/>
+      <c r="AGS3" s="19"/>
+      <c r="AGT3" s="19"/>
+      <c r="AGU3" s="19"/>
+      <c r="AGV3" s="19"/>
+      <c r="AGW3" s="19"/>
+      <c r="AGX3" s="19"/>
+      <c r="AGY3" s="19"/>
+      <c r="AGZ3" s="19"/>
+      <c r="AHA3" s="19"/>
+      <c r="AHB3" s="19"/>
+      <c r="AHC3" s="19"/>
+      <c r="AHD3" s="19"/>
+      <c r="AHE3" s="19"/>
+      <c r="AHF3" s="19"/>
+      <c r="AHG3" s="19"/>
+      <c r="AHH3" s="19"/>
+      <c r="AHI3" s="19"/>
+      <c r="AHJ3" s="19"/>
+      <c r="AHK3" s="19"/>
+      <c r="AHL3" s="19"/>
+      <c r="AHM3" s="19"/>
+      <c r="AHN3" s="19"/>
+      <c r="AHO3" s="19"/>
+      <c r="AHP3" s="19"/>
+      <c r="AHQ3" s="19"/>
+      <c r="AHR3" s="19"/>
+      <c r="AHS3" s="19"/>
+      <c r="AHT3" s="19"/>
+      <c r="AHU3" s="19"/>
+      <c r="AHV3" s="19"/>
+      <c r="AHW3" s="19"/>
+      <c r="AHX3" s="19"/>
+      <c r="AHY3" s="19"/>
+      <c r="AHZ3" s="19"/>
+      <c r="AIA3" s="19"/>
+      <c r="AIB3" s="19"/>
+      <c r="AIC3" s="19"/>
+      <c r="AID3" s="19"/>
+      <c r="AIE3" s="19"/>
+      <c r="AIF3" s="19"/>
+      <c r="AIG3" s="19"/>
+      <c r="AIH3" s="19"/>
+      <c r="AII3" s="19"/>
+      <c r="AIJ3" s="19"/>
+      <c r="AIK3" s="19"/>
+      <c r="AIL3" s="19"/>
+      <c r="AIM3" s="19"/>
+      <c r="AIN3" s="19"/>
+      <c r="AIO3" s="19"/>
+      <c r="AIP3" s="19"/>
+      <c r="AIQ3" s="19"/>
+      <c r="AIR3" s="19"/>
+      <c r="AIS3" s="19"/>
+      <c r="AIT3" s="19"/>
+      <c r="AIU3" s="19"/>
+      <c r="AIV3" s="19"/>
+      <c r="AIW3" s="19"/>
+      <c r="AIX3" s="19"/>
+      <c r="AIY3" s="19"/>
+      <c r="AIZ3" s="19"/>
+      <c r="AJA3" s="19"/>
+      <c r="AJB3" s="19"/>
+      <c r="AJC3" s="19"/>
+      <c r="AJD3" s="19"/>
+      <c r="AJE3" s="19"/>
+      <c r="AJF3" s="19"/>
+      <c r="AJG3" s="19"/>
+      <c r="AJH3" s="19"/>
+      <c r="AJI3" s="19"/>
+      <c r="AJJ3" s="19"/>
+      <c r="AJK3" s="19"/>
+      <c r="AJL3" s="19"/>
+      <c r="AJM3" s="19"/>
+      <c r="AJN3" s="19"/>
+      <c r="AJO3" s="19"/>
+      <c r="AJP3" s="19"/>
+      <c r="AJQ3" s="19"/>
+      <c r="AJR3" s="19"/>
+      <c r="AJS3" s="19"/>
+      <c r="AJT3" s="19"/>
+      <c r="AJU3" s="19"/>
+      <c r="AJV3" s="19"/>
+      <c r="AJW3" s="19"/>
+      <c r="AJX3" s="19"/>
+      <c r="AJY3" s="19"/>
+      <c r="AJZ3" s="19"/>
+      <c r="AKA3" s="19"/>
+      <c r="AKB3" s="19"/>
+      <c r="AKC3" s="19"/>
+      <c r="AKD3" s="19"/>
+      <c r="AKE3" s="19"/>
+      <c r="AKF3" s="19"/>
+      <c r="AKG3" s="19"/>
+      <c r="AKH3" s="19"/>
+      <c r="AKI3" s="19"/>
+      <c r="AKJ3" s="19"/>
+      <c r="AKK3" s="19"/>
+      <c r="AKL3" s="19"/>
+      <c r="AKM3" s="19"/>
+      <c r="AKN3" s="19"/>
+      <c r="AKO3" s="19"/>
+      <c r="AKP3" s="19"/>
+      <c r="AKQ3" s="19"/>
+      <c r="AKR3" s="19"/>
+      <c r="AKS3" s="19"/>
+      <c r="AKT3" s="19"/>
+      <c r="AKU3" s="19"/>
+      <c r="AKV3" s="19"/>
+      <c r="AKW3" s="19"/>
+      <c r="AKX3" s="19"/>
+      <c r="AKY3" s="19"/>
+      <c r="AKZ3" s="19"/>
+      <c r="ALA3" s="19"/>
+      <c r="ALB3" s="19"/>
+      <c r="ALC3" s="19"/>
+      <c r="ALD3" s="19"/>
+      <c r="ALE3" s="19"/>
+      <c r="ALF3" s="19"/>
+      <c r="ALG3" s="19"/>
+      <c r="ALH3" s="19"/>
+      <c r="ALI3" s="19"/>
+      <c r="ALJ3" s="19"/>
+      <c r="ALK3" s="19"/>
+      <c r="ALL3" s="19"/>
+      <c r="ALM3" s="19"/>
+      <c r="ALN3" s="19"/>
+      <c r="ALO3" s="19"/>
+      <c r="ALP3" s="19"/>
+      <c r="ALQ3" s="19"/>
+      <c r="ALR3" s="19"/>
+      <c r="ALS3" s="19"/>
+      <c r="ALT3" s="19"/>
+      <c r="ALU3" s="19"/>
+      <c r="ALV3" s="19"/>
+      <c r="ALW3" s="19"/>
+      <c r="ALX3" s="19"/>
+      <c r="ALY3" s="19"/>
+      <c r="ALZ3" s="19"/>
+      <c r="AMA3" s="19"/>
+      <c r="AMB3" s="19"/>
+      <c r="AMC3" s="19"/>
+      <c r="AMD3" s="19"/>
+      <c r="AME3" s="19"/>
+      <c r="AMF3" s="19"/>
+      <c r="AMG3" s="19"/>
+      <c r="AMH3" s="19"/>
+      <c r="AMI3" s="19"/>
+      <c r="AMJ3" s="19"/>
     </row>
-    <row r="4" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19" t="s">
+    <row r="4" s="18" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="21"/>
+      <c r="B4" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="22" t="s">
         <v>41</v>
       </c>
+      <c r="ZN4" s="19"/>
+      <c r="ZO4" s="19"/>
+      <c r="ZP4" s="19"/>
+      <c r="ZQ4" s="19"/>
+      <c r="ZR4" s="19"/>
+      <c r="ZS4" s="19"/>
+      <c r="ZT4" s="19"/>
+      <c r="ZU4" s="19"/>
+      <c r="ZV4" s="19"/>
+      <c r="ZW4" s="19"/>
+      <c r="ZX4" s="19"/>
+      <c r="ZY4" s="19"/>
+      <c r="ZZ4" s="19"/>
+      <c r="AAA4" s="19"/>
+      <c r="AAB4" s="19"/>
+      <c r="AAC4" s="19"/>
+      <c r="AAD4" s="19"/>
+      <c r="AAE4" s="19"/>
+      <c r="AAF4" s="19"/>
+      <c r="AAG4" s="19"/>
+      <c r="AAH4" s="19"/>
+      <c r="AAI4" s="19"/>
+      <c r="AAJ4" s="19"/>
+      <c r="AAK4" s="19"/>
+      <c r="AAL4" s="19"/>
+      <c r="AAM4" s="19"/>
+      <c r="AAN4" s="19"/>
+      <c r="AAO4" s="19"/>
+      <c r="AAP4" s="19"/>
+      <c r="AAQ4" s="19"/>
+      <c r="AAR4" s="19"/>
+      <c r="AAS4" s="19"/>
+      <c r="AAT4" s="19"/>
+      <c r="AAU4" s="19"/>
+      <c r="AAV4" s="19"/>
+      <c r="AAW4" s="19"/>
+      <c r="AAX4" s="19"/>
+      <c r="AAY4" s="19"/>
+      <c r="AAZ4" s="19"/>
+      <c r="ABA4" s="19"/>
+      <c r="ABB4" s="19"/>
+      <c r="ABC4" s="19"/>
+      <c r="ABD4" s="19"/>
+      <c r="ABE4" s="19"/>
+      <c r="ABF4" s="19"/>
+      <c r="ABG4" s="19"/>
+      <c r="ABH4" s="19"/>
+      <c r="ABI4" s="19"/>
+      <c r="ABJ4" s="19"/>
+      <c r="ABK4" s="19"/>
+      <c r="ABL4" s="19"/>
+      <c r="ABM4" s="19"/>
+      <c r="ABN4" s="19"/>
+      <c r="ABO4" s="19"/>
+      <c r="ABP4" s="19"/>
+      <c r="ABQ4" s="19"/>
+      <c r="ABR4" s="19"/>
+      <c r="ABS4" s="19"/>
+      <c r="ABT4" s="19"/>
+      <c r="ABU4" s="19"/>
+      <c r="ABV4" s="19"/>
+      <c r="ABW4" s="19"/>
+      <c r="ABX4" s="19"/>
+      <c r="ABY4" s="19"/>
+      <c r="ABZ4" s="19"/>
+      <c r="ACA4" s="19"/>
+      <c r="ACB4" s="19"/>
+      <c r="ACC4" s="19"/>
+      <c r="ACD4" s="19"/>
+      <c r="ACE4" s="19"/>
+      <c r="ACF4" s="19"/>
+      <c r="ACG4" s="19"/>
+      <c r="ACH4" s="19"/>
+      <c r="ACI4" s="19"/>
+      <c r="ACJ4" s="19"/>
+      <c r="ACK4" s="19"/>
+      <c r="ACL4" s="19"/>
+      <c r="ACM4" s="19"/>
+      <c r="ACN4" s="19"/>
+      <c r="ACO4" s="19"/>
+      <c r="ACP4" s="19"/>
+      <c r="ACQ4" s="19"/>
+      <c r="ACR4" s="19"/>
+      <c r="ACS4" s="19"/>
+      <c r="ACT4" s="19"/>
+      <c r="ACU4" s="19"/>
+      <c r="ACV4" s="19"/>
+      <c r="ACW4" s="19"/>
+      <c r="ACX4" s="19"/>
+      <c r="ACY4" s="19"/>
+      <c r="ACZ4" s="19"/>
+      <c r="ADA4" s="19"/>
+      <c r="ADB4" s="19"/>
+      <c r="ADC4" s="19"/>
+      <c r="ADD4" s="19"/>
+      <c r="ADE4" s="19"/>
+      <c r="ADF4" s="19"/>
+      <c r="ADG4" s="19"/>
+      <c r="ADH4" s="19"/>
+      <c r="ADI4" s="19"/>
+      <c r="ADJ4" s="19"/>
+      <c r="ADK4" s="19"/>
+      <c r="ADL4" s="19"/>
+      <c r="ADM4" s="19"/>
+      <c r="ADN4" s="19"/>
+      <c r="ADO4" s="19"/>
+      <c r="ADP4" s="19"/>
+      <c r="ADQ4" s="19"/>
+      <c r="ADR4" s="19"/>
+      <c r="ADS4" s="19"/>
+      <c r="ADT4" s="19"/>
+      <c r="ADU4" s="19"/>
+      <c r="ADV4" s="19"/>
+      <c r="ADW4" s="19"/>
+      <c r="ADX4" s="19"/>
+      <c r="ADY4" s="19"/>
+      <c r="ADZ4" s="19"/>
+      <c r="AEA4" s="19"/>
+      <c r="AEB4" s="19"/>
+      <c r="AEC4" s="19"/>
+      <c r="AED4" s="19"/>
+      <c r="AEE4" s="19"/>
+      <c r="AEF4" s="19"/>
+      <c r="AEG4" s="19"/>
+      <c r="AEH4" s="19"/>
+      <c r="AEI4" s="19"/>
+      <c r="AEJ4" s="19"/>
+      <c r="AEK4" s="19"/>
+      <c r="AEL4" s="19"/>
+      <c r="AEM4" s="19"/>
+      <c r="AEN4" s="19"/>
+      <c r="AEO4" s="19"/>
+      <c r="AEP4" s="19"/>
+      <c r="AEQ4" s="19"/>
+      <c r="AER4" s="19"/>
+      <c r="AES4" s="19"/>
+      <c r="AET4" s="19"/>
+      <c r="AEU4" s="19"/>
+      <c r="AEV4" s="19"/>
+      <c r="AEW4" s="19"/>
+      <c r="AEX4" s="19"/>
+      <c r="AEY4" s="19"/>
+      <c r="AEZ4" s="19"/>
+      <c r="AFA4" s="19"/>
+      <c r="AFB4" s="19"/>
+      <c r="AFC4" s="19"/>
+      <c r="AFD4" s="19"/>
+      <c r="AFE4" s="19"/>
+      <c r="AFF4" s="19"/>
+      <c r="AFG4" s="19"/>
+      <c r="AFH4" s="19"/>
+      <c r="AFI4" s="19"/>
+      <c r="AFJ4" s="19"/>
+      <c r="AFK4" s="19"/>
+      <c r="AFL4" s="19"/>
+      <c r="AFM4" s="19"/>
+      <c r="AFN4" s="19"/>
+      <c r="AFO4" s="19"/>
+      <c r="AFP4" s="19"/>
+      <c r="AFQ4" s="19"/>
+      <c r="AFR4" s="19"/>
+      <c r="AFS4" s="19"/>
+      <c r="AFT4" s="19"/>
+      <c r="AFU4" s="19"/>
+      <c r="AFV4" s="19"/>
+      <c r="AFW4" s="19"/>
+      <c r="AFX4" s="19"/>
+      <c r="AFY4" s="19"/>
+      <c r="AFZ4" s="19"/>
+      <c r="AGA4" s="19"/>
+      <c r="AGB4" s="19"/>
+      <c r="AGC4" s="19"/>
+      <c r="AGD4" s="19"/>
+      <c r="AGE4" s="19"/>
+      <c r="AGF4" s="19"/>
+      <c r="AGG4" s="19"/>
+      <c r="AGH4" s="19"/>
+      <c r="AGI4" s="19"/>
+      <c r="AGJ4" s="19"/>
+      <c r="AGK4" s="19"/>
+      <c r="AGL4" s="19"/>
+      <c r="AGM4" s="19"/>
+      <c r="AGN4" s="19"/>
+      <c r="AGO4" s="19"/>
+      <c r="AGP4" s="19"/>
+      <c r="AGQ4" s="19"/>
+      <c r="AGR4" s="19"/>
+      <c r="AGS4" s="19"/>
+      <c r="AGT4" s="19"/>
+      <c r="AGU4" s="19"/>
+      <c r="AGV4" s="19"/>
+      <c r="AGW4" s="19"/>
+      <c r="AGX4" s="19"/>
+      <c r="AGY4" s="19"/>
+      <c r="AGZ4" s="19"/>
+      <c r="AHA4" s="19"/>
+      <c r="AHB4" s="19"/>
+      <c r="AHC4" s="19"/>
+      <c r="AHD4" s="19"/>
+      <c r="AHE4" s="19"/>
+      <c r="AHF4" s="19"/>
+      <c r="AHG4" s="19"/>
+      <c r="AHH4" s="19"/>
+      <c r="AHI4" s="19"/>
+      <c r="AHJ4" s="19"/>
+      <c r="AHK4" s="19"/>
+      <c r="AHL4" s="19"/>
+      <c r="AHM4" s="19"/>
+      <c r="AHN4" s="19"/>
+      <c r="AHO4" s="19"/>
+      <c r="AHP4" s="19"/>
+      <c r="AHQ4" s="19"/>
+      <c r="AHR4" s="19"/>
+      <c r="AHS4" s="19"/>
+      <c r="AHT4" s="19"/>
+      <c r="AHU4" s="19"/>
+      <c r="AHV4" s="19"/>
+      <c r="AHW4" s="19"/>
+      <c r="AHX4" s="19"/>
+      <c r="AHY4" s="19"/>
+      <c r="AHZ4" s="19"/>
+      <c r="AIA4" s="19"/>
+      <c r="AIB4" s="19"/>
+      <c r="AIC4" s="19"/>
+      <c r="AID4" s="19"/>
+      <c r="AIE4" s="19"/>
+      <c r="AIF4" s="19"/>
+      <c r="AIG4" s="19"/>
+      <c r="AIH4" s="19"/>
+      <c r="AII4" s="19"/>
+      <c r="AIJ4" s="19"/>
+      <c r="AIK4" s="19"/>
+      <c r="AIL4" s="19"/>
+      <c r="AIM4" s="19"/>
+      <c r="AIN4" s="19"/>
+      <c r="AIO4" s="19"/>
+      <c r="AIP4" s="19"/>
+      <c r="AIQ4" s="19"/>
+      <c r="AIR4" s="19"/>
+      <c r="AIS4" s="19"/>
+      <c r="AIT4" s="19"/>
+      <c r="AIU4" s="19"/>
+      <c r="AIV4" s="19"/>
+      <c r="AIW4" s="19"/>
+      <c r="AIX4" s="19"/>
+      <c r="AIY4" s="19"/>
+      <c r="AIZ4" s="19"/>
+      <c r="AJA4" s="19"/>
+      <c r="AJB4" s="19"/>
+      <c r="AJC4" s="19"/>
+      <c r="AJD4" s="19"/>
+      <c r="AJE4" s="19"/>
+      <c r="AJF4" s="19"/>
+      <c r="AJG4" s="19"/>
+      <c r="AJH4" s="19"/>
+      <c r="AJI4" s="19"/>
+      <c r="AJJ4" s="19"/>
+      <c r="AJK4" s="19"/>
+      <c r="AJL4" s="19"/>
+      <c r="AJM4" s="19"/>
+      <c r="AJN4" s="19"/>
+      <c r="AJO4" s="19"/>
+      <c r="AJP4" s="19"/>
+      <c r="AJQ4" s="19"/>
+      <c r="AJR4" s="19"/>
+      <c r="AJS4" s="19"/>
+      <c r="AJT4" s="19"/>
+      <c r="AJU4" s="19"/>
+      <c r="AJV4" s="19"/>
+      <c r="AJW4" s="19"/>
+      <c r="AJX4" s="19"/>
+      <c r="AJY4" s="19"/>
+      <c r="AJZ4" s="19"/>
+      <c r="AKA4" s="19"/>
+      <c r="AKB4" s="19"/>
+      <c r="AKC4" s="19"/>
+      <c r="AKD4" s="19"/>
+      <c r="AKE4" s="19"/>
+      <c r="AKF4" s="19"/>
+      <c r="AKG4" s="19"/>
+      <c r="AKH4" s="19"/>
+      <c r="AKI4" s="19"/>
+      <c r="AKJ4" s="19"/>
+      <c r="AKK4" s="19"/>
+      <c r="AKL4" s="19"/>
+      <c r="AKM4" s="19"/>
+      <c r="AKN4" s="19"/>
+      <c r="AKO4" s="19"/>
+      <c r="AKP4" s="19"/>
+      <c r="AKQ4" s="19"/>
+      <c r="AKR4" s="19"/>
+      <c r="AKS4" s="19"/>
+      <c r="AKT4" s="19"/>
+      <c r="AKU4" s="19"/>
+      <c r="AKV4" s="19"/>
+      <c r="AKW4" s="19"/>
+      <c r="AKX4" s="19"/>
+      <c r="AKY4" s="19"/>
+      <c r="AKZ4" s="19"/>
+      <c r="ALA4" s="19"/>
+      <c r="ALB4" s="19"/>
+      <c r="ALC4" s="19"/>
+      <c r="ALD4" s="19"/>
+      <c r="ALE4" s="19"/>
+      <c r="ALF4" s="19"/>
+      <c r="ALG4" s="19"/>
+      <c r="ALH4" s="19"/>
+      <c r="ALI4" s="19"/>
+      <c r="ALJ4" s="19"/>
+      <c r="ALK4" s="19"/>
+      <c r="ALL4" s="19"/>
+      <c r="ALM4" s="19"/>
+      <c r="ALN4" s="19"/>
+      <c r="ALO4" s="19"/>
+      <c r="ALP4" s="19"/>
+      <c r="ALQ4" s="19"/>
+      <c r="ALR4" s="19"/>
+      <c r="ALS4" s="19"/>
+      <c r="ALT4" s="19"/>
+      <c r="ALU4" s="19"/>
+      <c r="ALV4" s="19"/>
+      <c r="ALW4" s="19"/>
+      <c r="ALX4" s="19"/>
+      <c r="ALY4" s="19"/>
+      <c r="ALZ4" s="19"/>
+      <c r="AMA4" s="19"/>
+      <c r="AMB4" s="19"/>
+      <c r="AMC4" s="19"/>
+      <c r="AMD4" s="19"/>
+      <c r="AME4" s="19"/>
+      <c r="AMF4" s="19"/>
+      <c r="AMG4" s="19"/>
+      <c r="AMH4" s="19"/>
+      <c r="AMI4" s="19"/>
+      <c r="AMJ4" s="19"/>
     </row>
+    <row r="5" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AMJ9"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="27.58"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="18" customFormat="true" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="ZN1" s="19"/>
+      <c r="ZO1" s="19"/>
+      <c r="ZP1" s="19"/>
+      <c r="ZQ1" s="19"/>
+      <c r="ZR1" s="19"/>
+      <c r="ZS1" s="19"/>
+      <c r="ZT1" s="19"/>
+      <c r="ZU1" s="19"/>
+      <c r="ZV1" s="19"/>
+      <c r="ZW1" s="19"/>
+      <c r="ZX1" s="19"/>
+      <c r="ZY1" s="19"/>
+      <c r="ZZ1" s="19"/>
+      <c r="AAA1" s="19"/>
+      <c r="AAB1" s="19"/>
+      <c r="AAC1" s="19"/>
+      <c r="AAD1" s="19"/>
+      <c r="AAE1" s="19"/>
+      <c r="AAF1" s="19"/>
+      <c r="AAG1" s="19"/>
+      <c r="AAH1" s="19"/>
+      <c r="AAI1" s="19"/>
+      <c r="AAJ1" s="19"/>
+      <c r="AAK1" s="19"/>
+      <c r="AAL1" s="19"/>
+      <c r="AAM1" s="19"/>
+      <c r="AAN1" s="19"/>
+      <c r="AAO1" s="19"/>
+      <c r="AAP1" s="19"/>
+      <c r="AAQ1" s="19"/>
+      <c r="AAR1" s="19"/>
+      <c r="AAS1" s="19"/>
+      <c r="AAT1" s="19"/>
+      <c r="AAU1" s="19"/>
+      <c r="AAV1" s="19"/>
+      <c r="AAW1" s="19"/>
+      <c r="AAX1" s="19"/>
+      <c r="AAY1" s="19"/>
+      <c r="AAZ1" s="19"/>
+      <c r="ABA1" s="19"/>
+      <c r="ABB1" s="19"/>
+      <c r="ABC1" s="19"/>
+      <c r="ABD1" s="19"/>
+      <c r="ABE1" s="19"/>
+      <c r="ABF1" s="19"/>
+      <c r="ABG1" s="19"/>
+      <c r="ABH1" s="19"/>
+      <c r="ABI1" s="19"/>
+      <c r="ABJ1" s="19"/>
+      <c r="ABK1" s="19"/>
+      <c r="ABL1" s="19"/>
+      <c r="ABM1" s="19"/>
+      <c r="ABN1" s="19"/>
+      <c r="ABO1" s="19"/>
+      <c r="ABP1" s="19"/>
+      <c r="ABQ1" s="19"/>
+      <c r="ABR1" s="19"/>
+      <c r="ABS1" s="19"/>
+      <c r="ABT1" s="19"/>
+      <c r="ABU1" s="19"/>
+      <c r="ABV1" s="19"/>
+      <c r="ABW1" s="19"/>
+      <c r="ABX1" s="19"/>
+      <c r="ABY1" s="19"/>
+      <c r="ABZ1" s="19"/>
+      <c r="ACA1" s="19"/>
+      <c r="ACB1" s="19"/>
+      <c r="ACC1" s="19"/>
+      <c r="ACD1" s="19"/>
+      <c r="ACE1" s="19"/>
+      <c r="ACF1" s="19"/>
+      <c r="ACG1" s="19"/>
+      <c r="ACH1" s="19"/>
+      <c r="ACI1" s="19"/>
+      <c r="ACJ1" s="19"/>
+      <c r="ACK1" s="19"/>
+      <c r="ACL1" s="19"/>
+      <c r="ACM1" s="19"/>
+      <c r="ACN1" s="19"/>
+      <c r="ACO1" s="19"/>
+      <c r="ACP1" s="19"/>
+      <c r="ACQ1" s="19"/>
+      <c r="ACR1" s="19"/>
+      <c r="ACS1" s="19"/>
+      <c r="ACT1" s="19"/>
+      <c r="ACU1" s="19"/>
+      <c r="ACV1" s="19"/>
+      <c r="ACW1" s="19"/>
+      <c r="ACX1" s="19"/>
+      <c r="ACY1" s="19"/>
+      <c r="ACZ1" s="19"/>
+      <c r="ADA1" s="19"/>
+      <c r="ADB1" s="19"/>
+      <c r="ADC1" s="19"/>
+      <c r="ADD1" s="19"/>
+      <c r="ADE1" s="19"/>
+      <c r="ADF1" s="19"/>
+      <c r="ADG1" s="19"/>
+      <c r="ADH1" s="19"/>
+      <c r="ADI1" s="19"/>
+      <c r="ADJ1" s="19"/>
+      <c r="ADK1" s="19"/>
+      <c r="ADL1" s="19"/>
+      <c r="ADM1" s="19"/>
+      <c r="ADN1" s="19"/>
+      <c r="ADO1" s="19"/>
+      <c r="ADP1" s="19"/>
+      <c r="ADQ1" s="19"/>
+      <c r="ADR1" s="19"/>
+      <c r="ADS1" s="19"/>
+      <c r="ADT1" s="19"/>
+      <c r="ADU1" s="19"/>
+      <c r="ADV1" s="19"/>
+      <c r="ADW1" s="19"/>
+      <c r="ADX1" s="19"/>
+      <c r="ADY1" s="19"/>
+      <c r="ADZ1" s="19"/>
+      <c r="AEA1" s="19"/>
+      <c r="AEB1" s="19"/>
+      <c r="AEC1" s="19"/>
+      <c r="AED1" s="19"/>
+      <c r="AEE1" s="19"/>
+      <c r="AEF1" s="19"/>
+      <c r="AEG1" s="19"/>
+      <c r="AEH1" s="19"/>
+      <c r="AEI1" s="19"/>
+      <c r="AEJ1" s="19"/>
+      <c r="AEK1" s="19"/>
+      <c r="AEL1" s="19"/>
+      <c r="AEM1" s="19"/>
+      <c r="AEN1" s="19"/>
+      <c r="AEO1" s="19"/>
+      <c r="AEP1" s="19"/>
+      <c r="AEQ1" s="19"/>
+      <c r="AER1" s="19"/>
+      <c r="AES1" s="19"/>
+      <c r="AET1" s="19"/>
+      <c r="AEU1" s="19"/>
+      <c r="AEV1" s="19"/>
+      <c r="AEW1" s="19"/>
+      <c r="AEX1" s="19"/>
+      <c r="AEY1" s="19"/>
+      <c r="AEZ1" s="19"/>
+      <c r="AFA1" s="19"/>
+      <c r="AFB1" s="19"/>
+      <c r="AFC1" s="19"/>
+      <c r="AFD1" s="19"/>
+      <c r="AFE1" s="19"/>
+      <c r="AFF1" s="19"/>
+      <c r="AFG1" s="19"/>
+      <c r="AFH1" s="19"/>
+      <c r="AFI1" s="19"/>
+      <c r="AFJ1" s="19"/>
+      <c r="AFK1" s="19"/>
+      <c r="AFL1" s="19"/>
+      <c r="AFM1" s="19"/>
+      <c r="AFN1" s="19"/>
+      <c r="AFO1" s="19"/>
+      <c r="AFP1" s="19"/>
+      <c r="AFQ1" s="19"/>
+      <c r="AFR1" s="19"/>
+      <c r="AFS1" s="19"/>
+      <c r="AFT1" s="19"/>
+      <c r="AFU1" s="19"/>
+      <c r="AFV1" s="19"/>
+      <c r="AFW1" s="19"/>
+      <c r="AFX1" s="19"/>
+      <c r="AFY1" s="19"/>
+      <c r="AFZ1" s="19"/>
+      <c r="AGA1" s="19"/>
+      <c r="AGB1" s="19"/>
+      <c r="AGC1" s="19"/>
+      <c r="AGD1" s="19"/>
+      <c r="AGE1" s="19"/>
+      <c r="AGF1" s="19"/>
+      <c r="AGG1" s="19"/>
+      <c r="AGH1" s="19"/>
+      <c r="AGI1" s="19"/>
+      <c r="AGJ1" s="19"/>
+      <c r="AGK1" s="19"/>
+      <c r="AGL1" s="19"/>
+      <c r="AGM1" s="19"/>
+      <c r="AGN1" s="19"/>
+      <c r="AGO1" s="19"/>
+      <c r="AGP1" s="19"/>
+      <c r="AGQ1" s="19"/>
+      <c r="AGR1" s="19"/>
+      <c r="AGS1" s="19"/>
+      <c r="AGT1" s="19"/>
+      <c r="AGU1" s="19"/>
+      <c r="AGV1" s="19"/>
+      <c r="AGW1" s="19"/>
+      <c r="AGX1" s="19"/>
+      <c r="AGY1" s="19"/>
+      <c r="AGZ1" s="19"/>
+      <c r="AHA1" s="19"/>
+      <c r="AHB1" s="19"/>
+      <c r="AHC1" s="19"/>
+      <c r="AHD1" s="19"/>
+      <c r="AHE1" s="19"/>
+      <c r="AHF1" s="19"/>
+      <c r="AHG1" s="19"/>
+      <c r="AHH1" s="19"/>
+      <c r="AHI1" s="19"/>
+      <c r="AHJ1" s="19"/>
+      <c r="AHK1" s="19"/>
+      <c r="AHL1" s="19"/>
+      <c r="AHM1" s="19"/>
+      <c r="AHN1" s="19"/>
+      <c r="AHO1" s="19"/>
+      <c r="AHP1" s="19"/>
+      <c r="AHQ1" s="19"/>
+      <c r="AHR1" s="19"/>
+      <c r="AHS1" s="19"/>
+      <c r="AHT1" s="19"/>
+      <c r="AHU1" s="19"/>
+      <c r="AHV1" s="19"/>
+      <c r="AHW1" s="19"/>
+      <c r="AHX1" s="19"/>
+      <c r="AHY1" s="19"/>
+      <c r="AHZ1" s="19"/>
+      <c r="AIA1" s="19"/>
+      <c r="AIB1" s="19"/>
+      <c r="AIC1" s="19"/>
+      <c r="AID1" s="19"/>
+      <c r="AIE1" s="19"/>
+      <c r="AIF1" s="19"/>
+      <c r="AIG1" s="19"/>
+      <c r="AIH1" s="19"/>
+      <c r="AII1" s="19"/>
+      <c r="AIJ1" s="19"/>
+      <c r="AIK1" s="19"/>
+      <c r="AIL1" s="19"/>
+      <c r="AIM1" s="19"/>
+      <c r="AIN1" s="19"/>
+      <c r="AIO1" s="19"/>
+      <c r="AIP1" s="19"/>
+      <c r="AIQ1" s="19"/>
+      <c r="AIR1" s="19"/>
+      <c r="AIS1" s="19"/>
+      <c r="AIT1" s="19"/>
+      <c r="AIU1" s="19"/>
+      <c r="AIV1" s="19"/>
+      <c r="AIW1" s="19"/>
+      <c r="AIX1" s="19"/>
+      <c r="AIY1" s="19"/>
+      <c r="AIZ1" s="19"/>
+      <c r="AJA1" s="19"/>
+      <c r="AJB1" s="19"/>
+      <c r="AJC1" s="19"/>
+      <c r="AJD1" s="19"/>
+      <c r="AJE1" s="19"/>
+      <c r="AJF1" s="19"/>
+      <c r="AJG1" s="19"/>
+      <c r="AJH1" s="19"/>
+      <c r="AJI1" s="19"/>
+      <c r="AJJ1" s="19"/>
+      <c r="AJK1" s="19"/>
+      <c r="AJL1" s="19"/>
+      <c r="AJM1" s="19"/>
+      <c r="AJN1" s="19"/>
+      <c r="AJO1" s="19"/>
+      <c r="AJP1" s="19"/>
+      <c r="AJQ1" s="19"/>
+      <c r="AJR1" s="19"/>
+      <c r="AJS1" s="19"/>
+      <c r="AJT1" s="19"/>
+      <c r="AJU1" s="19"/>
+      <c r="AJV1" s="19"/>
+      <c r="AJW1" s="19"/>
+      <c r="AJX1" s="19"/>
+      <c r="AJY1" s="19"/>
+      <c r="AJZ1" s="19"/>
+      <c r="AKA1" s="19"/>
+      <c r="AKB1" s="19"/>
+      <c r="AKC1" s="19"/>
+      <c r="AKD1" s="19"/>
+      <c r="AKE1" s="19"/>
+      <c r="AKF1" s="19"/>
+      <c r="AKG1" s="19"/>
+      <c r="AKH1" s="19"/>
+      <c r="AKI1" s="19"/>
+      <c r="AKJ1" s="19"/>
+      <c r="AKK1" s="19"/>
+      <c r="AKL1" s="19"/>
+      <c r="AKM1" s="19"/>
+      <c r="AKN1" s="19"/>
+      <c r="AKO1" s="19"/>
+      <c r="AKP1" s="19"/>
+      <c r="AKQ1" s="19"/>
+      <c r="AKR1" s="19"/>
+      <c r="AKS1" s="19"/>
+      <c r="AKT1" s="19"/>
+      <c r="AKU1" s="19"/>
+      <c r="AKV1" s="19"/>
+      <c r="AKW1" s="19"/>
+      <c r="AKX1" s="19"/>
+      <c r="AKY1" s="19"/>
+      <c r="AKZ1" s="19"/>
+      <c r="ALA1" s="19"/>
+      <c r="ALB1" s="19"/>
+      <c r="ALC1" s="19"/>
+      <c r="ALD1" s="19"/>
+      <c r="ALE1" s="19"/>
+      <c r="ALF1" s="19"/>
+      <c r="ALG1" s="19"/>
+      <c r="ALH1" s="19"/>
+      <c r="ALI1" s="19"/>
+      <c r="ALJ1" s="19"/>
+      <c r="ALK1" s="19"/>
+      <c r="ALL1" s="19"/>
+      <c r="ALM1" s="19"/>
+      <c r="ALN1" s="19"/>
+      <c r="ALO1" s="19"/>
+      <c r="ALP1" s="19"/>
+      <c r="ALQ1" s="19"/>
+      <c r="ALR1" s="19"/>
+      <c r="ALS1" s="19"/>
+      <c r="ALT1" s="19"/>
+      <c r="ALU1" s="19"/>
+      <c r="ALV1" s="19"/>
+      <c r="ALW1" s="19"/>
+      <c r="ALX1" s="19"/>
+      <c r="ALY1" s="19"/>
+      <c r="ALZ1" s="19"/>
+      <c r="AMA1" s="19"/>
+      <c r="AMB1" s="19"/>
+      <c r="AMC1" s="19"/>
+      <c r="AMD1" s="19"/>
+      <c r="AME1" s="19"/>
+      <c r="AMF1" s="19"/>
+      <c r="AMG1" s="19"/>
+      <c r="AMH1" s="19"/>
+      <c r="AMI1" s="19"/>
+      <c r="AMJ1" s="19"/>
+    </row>
+    <row r="2" s="18" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="20"/>
+      <c r="ZN2" s="19"/>
+      <c r="ZO2" s="19"/>
+      <c r="ZP2" s="19"/>
+      <c r="ZQ2" s="19"/>
+      <c r="ZR2" s="19"/>
+      <c r="ZS2" s="19"/>
+      <c r="ZT2" s="19"/>
+      <c r="ZU2" s="19"/>
+      <c r="ZV2" s="19"/>
+      <c r="ZW2" s="19"/>
+      <c r="ZX2" s="19"/>
+      <c r="ZY2" s="19"/>
+      <c r="ZZ2" s="19"/>
+      <c r="AAA2" s="19"/>
+      <c r="AAB2" s="19"/>
+      <c r="AAC2" s="19"/>
+      <c r="AAD2" s="19"/>
+      <c r="AAE2" s="19"/>
+      <c r="AAF2" s="19"/>
+      <c r="AAG2" s="19"/>
+      <c r="AAH2" s="19"/>
+      <c r="AAI2" s="19"/>
+      <c r="AAJ2" s="19"/>
+      <c r="AAK2" s="19"/>
+      <c r="AAL2" s="19"/>
+      <c r="AAM2" s="19"/>
+      <c r="AAN2" s="19"/>
+      <c r="AAO2" s="19"/>
+      <c r="AAP2" s="19"/>
+      <c r="AAQ2" s="19"/>
+      <c r="AAR2" s="19"/>
+      <c r="AAS2" s="19"/>
+      <c r="AAT2" s="19"/>
+      <c r="AAU2" s="19"/>
+      <c r="AAV2" s="19"/>
+      <c r="AAW2" s="19"/>
+      <c r="AAX2" s="19"/>
+      <c r="AAY2" s="19"/>
+      <c r="AAZ2" s="19"/>
+      <c r="ABA2" s="19"/>
+      <c r="ABB2" s="19"/>
+      <c r="ABC2" s="19"/>
+      <c r="ABD2" s="19"/>
+      <c r="ABE2" s="19"/>
+      <c r="ABF2" s="19"/>
+      <c r="ABG2" s="19"/>
+      <c r="ABH2" s="19"/>
+      <c r="ABI2" s="19"/>
+      <c r="ABJ2" s="19"/>
+      <c r="ABK2" s="19"/>
+      <c r="ABL2" s="19"/>
+      <c r="ABM2" s="19"/>
+      <c r="ABN2" s="19"/>
+      <c r="ABO2" s="19"/>
+      <c r="ABP2" s="19"/>
+      <c r="ABQ2" s="19"/>
+      <c r="ABR2" s="19"/>
+      <c r="ABS2" s="19"/>
+      <c r="ABT2" s="19"/>
+      <c r="ABU2" s="19"/>
+      <c r="ABV2" s="19"/>
+      <c r="ABW2" s="19"/>
+      <c r="ABX2" s="19"/>
+      <c r="ABY2" s="19"/>
+      <c r="ABZ2" s="19"/>
+      <c r="ACA2" s="19"/>
+      <c r="ACB2" s="19"/>
+      <c r="ACC2" s="19"/>
+      <c r="ACD2" s="19"/>
+      <c r="ACE2" s="19"/>
+      <c r="ACF2" s="19"/>
+      <c r="ACG2" s="19"/>
+      <c r="ACH2" s="19"/>
+      <c r="ACI2" s="19"/>
+      <c r="ACJ2" s="19"/>
+      <c r="ACK2" s="19"/>
+      <c r="ACL2" s="19"/>
+      <c r="ACM2" s="19"/>
+      <c r="ACN2" s="19"/>
+      <c r="ACO2" s="19"/>
+      <c r="ACP2" s="19"/>
+      <c r="ACQ2" s="19"/>
+      <c r="ACR2" s="19"/>
+      <c r="ACS2" s="19"/>
+      <c r="ACT2" s="19"/>
+      <c r="ACU2" s="19"/>
+      <c r="ACV2" s="19"/>
+      <c r="ACW2" s="19"/>
+      <c r="ACX2" s="19"/>
+      <c r="ACY2" s="19"/>
+      <c r="ACZ2" s="19"/>
+      <c r="ADA2" s="19"/>
+      <c r="ADB2" s="19"/>
+      <c r="ADC2" s="19"/>
+      <c r="ADD2" s="19"/>
+      <c r="ADE2" s="19"/>
+      <c r="ADF2" s="19"/>
+      <c r="ADG2" s="19"/>
+      <c r="ADH2" s="19"/>
+      <c r="ADI2" s="19"/>
+      <c r="ADJ2" s="19"/>
+      <c r="ADK2" s="19"/>
+      <c r="ADL2" s="19"/>
+      <c r="ADM2" s="19"/>
+      <c r="ADN2" s="19"/>
+      <c r="ADO2" s="19"/>
+      <c r="ADP2" s="19"/>
+      <c r="ADQ2" s="19"/>
+      <c r="ADR2" s="19"/>
+      <c r="ADS2" s="19"/>
+      <c r="ADT2" s="19"/>
+      <c r="ADU2" s="19"/>
+      <c r="ADV2" s="19"/>
+      <c r="ADW2" s="19"/>
+      <c r="ADX2" s="19"/>
+      <c r="ADY2" s="19"/>
+      <c r="ADZ2" s="19"/>
+      <c r="AEA2" s="19"/>
+      <c r="AEB2" s="19"/>
+      <c r="AEC2" s="19"/>
+      <c r="AED2" s="19"/>
+      <c r="AEE2" s="19"/>
+      <c r="AEF2" s="19"/>
+      <c r="AEG2" s="19"/>
+      <c r="AEH2" s="19"/>
+      <c r="AEI2" s="19"/>
+      <c r="AEJ2" s="19"/>
+      <c r="AEK2" s="19"/>
+      <c r="AEL2" s="19"/>
+      <c r="AEM2" s="19"/>
+      <c r="AEN2" s="19"/>
+      <c r="AEO2" s="19"/>
+      <c r="AEP2" s="19"/>
+      <c r="AEQ2" s="19"/>
+      <c r="AER2" s="19"/>
+      <c r="AES2" s="19"/>
+      <c r="AET2" s="19"/>
+      <c r="AEU2" s="19"/>
+      <c r="AEV2" s="19"/>
+      <c r="AEW2" s="19"/>
+      <c r="AEX2" s="19"/>
+      <c r="AEY2" s="19"/>
+      <c r="AEZ2" s="19"/>
+      <c r="AFA2" s="19"/>
+      <c r="AFB2" s="19"/>
+      <c r="AFC2" s="19"/>
+      <c r="AFD2" s="19"/>
+      <c r="AFE2" s="19"/>
+      <c r="AFF2" s="19"/>
+      <c r="AFG2" s="19"/>
+      <c r="AFH2" s="19"/>
+      <c r="AFI2" s="19"/>
+      <c r="AFJ2" s="19"/>
+      <c r="AFK2" s="19"/>
+      <c r="AFL2" s="19"/>
+      <c r="AFM2" s="19"/>
+      <c r="AFN2" s="19"/>
+      <c r="AFO2" s="19"/>
+      <c r="AFP2" s="19"/>
+      <c r="AFQ2" s="19"/>
+      <c r="AFR2" s="19"/>
+      <c r="AFS2" s="19"/>
+      <c r="AFT2" s="19"/>
+      <c r="AFU2" s="19"/>
+      <c r="AFV2" s="19"/>
+      <c r="AFW2" s="19"/>
+      <c r="AFX2" s="19"/>
+      <c r="AFY2" s="19"/>
+      <c r="AFZ2" s="19"/>
+      <c r="AGA2" s="19"/>
+      <c r="AGB2" s="19"/>
+      <c r="AGC2" s="19"/>
+      <c r="AGD2" s="19"/>
+      <c r="AGE2" s="19"/>
+      <c r="AGF2" s="19"/>
+      <c r="AGG2" s="19"/>
+      <c r="AGH2" s="19"/>
+      <c r="AGI2" s="19"/>
+      <c r="AGJ2" s="19"/>
+      <c r="AGK2" s="19"/>
+      <c r="AGL2" s="19"/>
+      <c r="AGM2" s="19"/>
+      <c r="AGN2" s="19"/>
+      <c r="AGO2" s="19"/>
+      <c r="AGP2" s="19"/>
+      <c r="AGQ2" s="19"/>
+      <c r="AGR2" s="19"/>
+      <c r="AGS2" s="19"/>
+      <c r="AGT2" s="19"/>
+      <c r="AGU2" s="19"/>
+      <c r="AGV2" s="19"/>
+      <c r="AGW2" s="19"/>
+      <c r="AGX2" s="19"/>
+      <c r="AGY2" s="19"/>
+      <c r="AGZ2" s="19"/>
+      <c r="AHA2" s="19"/>
+      <c r="AHB2" s="19"/>
+      <c r="AHC2" s="19"/>
+      <c r="AHD2" s="19"/>
+      <c r="AHE2" s="19"/>
+      <c r="AHF2" s="19"/>
+      <c r="AHG2" s="19"/>
+      <c r="AHH2" s="19"/>
+      <c r="AHI2" s="19"/>
+      <c r="AHJ2" s="19"/>
+      <c r="AHK2" s="19"/>
+      <c r="AHL2" s="19"/>
+      <c r="AHM2" s="19"/>
+      <c r="AHN2" s="19"/>
+      <c r="AHO2" s="19"/>
+      <c r="AHP2" s="19"/>
+      <c r="AHQ2" s="19"/>
+      <c r="AHR2" s="19"/>
+      <c r="AHS2" s="19"/>
+      <c r="AHT2" s="19"/>
+      <c r="AHU2" s="19"/>
+      <c r="AHV2" s="19"/>
+      <c r="AHW2" s="19"/>
+      <c r="AHX2" s="19"/>
+      <c r="AHY2" s="19"/>
+      <c r="AHZ2" s="19"/>
+      <c r="AIA2" s="19"/>
+      <c r="AIB2" s="19"/>
+      <c r="AIC2" s="19"/>
+      <c r="AID2" s="19"/>
+      <c r="AIE2" s="19"/>
+      <c r="AIF2" s="19"/>
+      <c r="AIG2" s="19"/>
+      <c r="AIH2" s="19"/>
+      <c r="AII2" s="19"/>
+      <c r="AIJ2" s="19"/>
+      <c r="AIK2" s="19"/>
+      <c r="AIL2" s="19"/>
+      <c r="AIM2" s="19"/>
+      <c r="AIN2" s="19"/>
+      <c r="AIO2" s="19"/>
+      <c r="AIP2" s="19"/>
+      <c r="AIQ2" s="19"/>
+      <c r="AIR2" s="19"/>
+      <c r="AIS2" s="19"/>
+      <c r="AIT2" s="19"/>
+      <c r="AIU2" s="19"/>
+      <c r="AIV2" s="19"/>
+      <c r="AIW2" s="19"/>
+      <c r="AIX2" s="19"/>
+      <c r="AIY2" s="19"/>
+      <c r="AIZ2" s="19"/>
+      <c r="AJA2" s="19"/>
+      <c r="AJB2" s="19"/>
+      <c r="AJC2" s="19"/>
+      <c r="AJD2" s="19"/>
+      <c r="AJE2" s="19"/>
+      <c r="AJF2" s="19"/>
+      <c r="AJG2" s="19"/>
+      <c r="AJH2" s="19"/>
+      <c r="AJI2" s="19"/>
+      <c r="AJJ2" s="19"/>
+      <c r="AJK2" s="19"/>
+      <c r="AJL2" s="19"/>
+      <c r="AJM2" s="19"/>
+      <c r="AJN2" s="19"/>
+      <c r="AJO2" s="19"/>
+      <c r="AJP2" s="19"/>
+      <c r="AJQ2" s="19"/>
+      <c r="AJR2" s="19"/>
+      <c r="AJS2" s="19"/>
+      <c r="AJT2" s="19"/>
+      <c r="AJU2" s="19"/>
+      <c r="AJV2" s="19"/>
+      <c r="AJW2" s="19"/>
+      <c r="AJX2" s="19"/>
+      <c r="AJY2" s="19"/>
+      <c r="AJZ2" s="19"/>
+      <c r="AKA2" s="19"/>
+      <c r="AKB2" s="19"/>
+      <c r="AKC2" s="19"/>
+      <c r="AKD2" s="19"/>
+      <c r="AKE2" s="19"/>
+      <c r="AKF2" s="19"/>
+      <c r="AKG2" s="19"/>
+      <c r="AKH2" s="19"/>
+      <c r="AKI2" s="19"/>
+      <c r="AKJ2" s="19"/>
+      <c r="AKK2" s="19"/>
+      <c r="AKL2" s="19"/>
+      <c r="AKM2" s="19"/>
+      <c r="AKN2" s="19"/>
+      <c r="AKO2" s="19"/>
+      <c r="AKP2" s="19"/>
+      <c r="AKQ2" s="19"/>
+      <c r="AKR2" s="19"/>
+      <c r="AKS2" s="19"/>
+      <c r="AKT2" s="19"/>
+      <c r="AKU2" s="19"/>
+      <c r="AKV2" s="19"/>
+      <c r="AKW2" s="19"/>
+      <c r="AKX2" s="19"/>
+      <c r="AKY2" s="19"/>
+      <c r="AKZ2" s="19"/>
+      <c r="ALA2" s="19"/>
+      <c r="ALB2" s="19"/>
+      <c r="ALC2" s="19"/>
+      <c r="ALD2" s="19"/>
+      <c r="ALE2" s="19"/>
+      <c r="ALF2" s="19"/>
+      <c r="ALG2" s="19"/>
+      <c r="ALH2" s="19"/>
+      <c r="ALI2" s="19"/>
+      <c r="ALJ2" s="19"/>
+      <c r="ALK2" s="19"/>
+      <c r="ALL2" s="19"/>
+      <c r="ALM2" s="19"/>
+      <c r="ALN2" s="19"/>
+      <c r="ALO2" s="19"/>
+      <c r="ALP2" s="19"/>
+      <c r="ALQ2" s="19"/>
+      <c r="ALR2" s="19"/>
+      <c r="ALS2" s="19"/>
+      <c r="ALT2" s="19"/>
+      <c r="ALU2" s="19"/>
+      <c r="ALV2" s="19"/>
+      <c r="ALW2" s="19"/>
+      <c r="ALX2" s="19"/>
+      <c r="ALY2" s="19"/>
+      <c r="ALZ2" s="19"/>
+      <c r="AMA2" s="19"/>
+      <c r="AMB2" s="19"/>
+      <c r="AMC2" s="19"/>
+      <c r="AMD2" s="19"/>
+      <c r="AME2" s="19"/>
+      <c r="AMF2" s="19"/>
+      <c r="AMG2" s="19"/>
+      <c r="AMH2" s="19"/>
+      <c r="AMI2" s="19"/>
+      <c r="AMJ2" s="19"/>
+    </row>
+    <row r="3" s="18" customFormat="true" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="20"/>
+      <c r="C3" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="ZN3" s="19"/>
+      <c r="ZO3" s="19"/>
+      <c r="ZP3" s="19"/>
+      <c r="ZQ3" s="19"/>
+      <c r="ZR3" s="19"/>
+      <c r="ZS3" s="19"/>
+      <c r="ZT3" s="19"/>
+      <c r="ZU3" s="19"/>
+      <c r="ZV3" s="19"/>
+      <c r="ZW3" s="19"/>
+      <c r="ZX3" s="19"/>
+      <c r="ZY3" s="19"/>
+      <c r="ZZ3" s="19"/>
+      <c r="AAA3" s="19"/>
+      <c r="AAB3" s="19"/>
+      <c r="AAC3" s="19"/>
+      <c r="AAD3" s="19"/>
+      <c r="AAE3" s="19"/>
+      <c r="AAF3" s="19"/>
+      <c r="AAG3" s="19"/>
+      <c r="AAH3" s="19"/>
+      <c r="AAI3" s="19"/>
+      <c r="AAJ3" s="19"/>
+      <c r="AAK3" s="19"/>
+      <c r="AAL3" s="19"/>
+      <c r="AAM3" s="19"/>
+      <c r="AAN3" s="19"/>
+      <c r="AAO3" s="19"/>
+      <c r="AAP3" s="19"/>
+      <c r="AAQ3" s="19"/>
+      <c r="AAR3" s="19"/>
+      <c r="AAS3" s="19"/>
+      <c r="AAT3" s="19"/>
+      <c r="AAU3" s="19"/>
+      <c r="AAV3" s="19"/>
+      <c r="AAW3" s="19"/>
+      <c r="AAX3" s="19"/>
+      <c r="AAY3" s="19"/>
+      <c r="AAZ3" s="19"/>
+      <c r="ABA3" s="19"/>
+      <c r="ABB3" s="19"/>
+      <c r="ABC3" s="19"/>
+      <c r="ABD3" s="19"/>
+      <c r="ABE3" s="19"/>
+      <c r="ABF3" s="19"/>
+      <c r="ABG3" s="19"/>
+      <c r="ABH3" s="19"/>
+      <c r="ABI3" s="19"/>
+      <c r="ABJ3" s="19"/>
+      <c r="ABK3" s="19"/>
+      <c r="ABL3" s="19"/>
+      <c r="ABM3" s="19"/>
+      <c r="ABN3" s="19"/>
+      <c r="ABO3" s="19"/>
+      <c r="ABP3" s="19"/>
+      <c r="ABQ3" s="19"/>
+      <c r="ABR3" s="19"/>
+      <c r="ABS3" s="19"/>
+      <c r="ABT3" s="19"/>
+      <c r="ABU3" s="19"/>
+      <c r="ABV3" s="19"/>
+      <c r="ABW3" s="19"/>
+      <c r="ABX3" s="19"/>
+      <c r="ABY3" s="19"/>
+      <c r="ABZ3" s="19"/>
+      <c r="ACA3" s="19"/>
+      <c r="ACB3" s="19"/>
+      <c r="ACC3" s="19"/>
+      <c r="ACD3" s="19"/>
+      <c r="ACE3" s="19"/>
+      <c r="ACF3" s="19"/>
+      <c r="ACG3" s="19"/>
+      <c r="ACH3" s="19"/>
+      <c r="ACI3" s="19"/>
+      <c r="ACJ3" s="19"/>
+      <c r="ACK3" s="19"/>
+      <c r="ACL3" s="19"/>
+      <c r="ACM3" s="19"/>
+      <c r="ACN3" s="19"/>
+      <c r="ACO3" s="19"/>
+      <c r="ACP3" s="19"/>
+      <c r="ACQ3" s="19"/>
+      <c r="ACR3" s="19"/>
+      <c r="ACS3" s="19"/>
+      <c r="ACT3" s="19"/>
+      <c r="ACU3" s="19"/>
+      <c r="ACV3" s="19"/>
+      <c r="ACW3" s="19"/>
+      <c r="ACX3" s="19"/>
+      <c r="ACY3" s="19"/>
+      <c r="ACZ3" s="19"/>
+      <c r="ADA3" s="19"/>
+      <c r="ADB3" s="19"/>
+      <c r="ADC3" s="19"/>
+      <c r="ADD3" s="19"/>
+      <c r="ADE3" s="19"/>
+      <c r="ADF3" s="19"/>
+      <c r="ADG3" s="19"/>
+      <c r="ADH3" s="19"/>
+      <c r="ADI3" s="19"/>
+      <c r="ADJ3" s="19"/>
+      <c r="ADK3" s="19"/>
+      <c r="ADL3" s="19"/>
+      <c r="ADM3" s="19"/>
+      <c r="ADN3" s="19"/>
+      <c r="ADO3" s="19"/>
+      <c r="ADP3" s="19"/>
+      <c r="ADQ3" s="19"/>
+      <c r="ADR3" s="19"/>
+      <c r="ADS3" s="19"/>
+      <c r="ADT3" s="19"/>
+      <c r="ADU3" s="19"/>
+      <c r="ADV3" s="19"/>
+      <c r="ADW3" s="19"/>
+      <c r="ADX3" s="19"/>
+      <c r="ADY3" s="19"/>
+      <c r="ADZ3" s="19"/>
+      <c r="AEA3" s="19"/>
+      <c r="AEB3" s="19"/>
+      <c r="AEC3" s="19"/>
+      <c r="AED3" s="19"/>
+      <c r="AEE3" s="19"/>
+      <c r="AEF3" s="19"/>
+      <c r="AEG3" s="19"/>
+      <c r="AEH3" s="19"/>
+      <c r="AEI3" s="19"/>
+      <c r="AEJ3" s="19"/>
+      <c r="AEK3" s="19"/>
+      <c r="AEL3" s="19"/>
+      <c r="AEM3" s="19"/>
+      <c r="AEN3" s="19"/>
+      <c r="AEO3" s="19"/>
+      <c r="AEP3" s="19"/>
+      <c r="AEQ3" s="19"/>
+      <c r="AER3" s="19"/>
+      <c r="AES3" s="19"/>
+      <c r="AET3" s="19"/>
+      <c r="AEU3" s="19"/>
+      <c r="AEV3" s="19"/>
+      <c r="AEW3" s="19"/>
+      <c r="AEX3" s="19"/>
+      <c r="AEY3" s="19"/>
+      <c r="AEZ3" s="19"/>
+      <c r="AFA3" s="19"/>
+      <c r="AFB3" s="19"/>
+      <c r="AFC3" s="19"/>
+      <c r="AFD3" s="19"/>
+      <c r="AFE3" s="19"/>
+      <c r="AFF3" s="19"/>
+      <c r="AFG3" s="19"/>
+      <c r="AFH3" s="19"/>
+      <c r="AFI3" s="19"/>
+      <c r="AFJ3" s="19"/>
+      <c r="AFK3" s="19"/>
+      <c r="AFL3" s="19"/>
+      <c r="AFM3" s="19"/>
+      <c r="AFN3" s="19"/>
+      <c r="AFO3" s="19"/>
+      <c r="AFP3" s="19"/>
+      <c r="AFQ3" s="19"/>
+      <c r="AFR3" s="19"/>
+      <c r="AFS3" s="19"/>
+      <c r="AFT3" s="19"/>
+      <c r="AFU3" s="19"/>
+      <c r="AFV3" s="19"/>
+      <c r="AFW3" s="19"/>
+      <c r="AFX3" s="19"/>
+      <c r="AFY3" s="19"/>
+      <c r="AFZ3" s="19"/>
+      <c r="AGA3" s="19"/>
+      <c r="AGB3" s="19"/>
+      <c r="AGC3" s="19"/>
+      <c r="AGD3" s="19"/>
+      <c r="AGE3" s="19"/>
+      <c r="AGF3" s="19"/>
+      <c r="AGG3" s="19"/>
+      <c r="AGH3" s="19"/>
+      <c r="AGI3" s="19"/>
+      <c r="AGJ3" s="19"/>
+      <c r="AGK3" s="19"/>
+      <c r="AGL3" s="19"/>
+      <c r="AGM3" s="19"/>
+      <c r="AGN3" s="19"/>
+      <c r="AGO3" s="19"/>
+      <c r="AGP3" s="19"/>
+      <c r="AGQ3" s="19"/>
+      <c r="AGR3" s="19"/>
+      <c r="AGS3" s="19"/>
+      <c r="AGT3" s="19"/>
+      <c r="AGU3" s="19"/>
+      <c r="AGV3" s="19"/>
+      <c r="AGW3" s="19"/>
+      <c r="AGX3" s="19"/>
+      <c r="AGY3" s="19"/>
+      <c r="AGZ3" s="19"/>
+      <c r="AHA3" s="19"/>
+      <c r="AHB3" s="19"/>
+      <c r="AHC3" s="19"/>
+      <c r="AHD3" s="19"/>
+      <c r="AHE3" s="19"/>
+      <c r="AHF3" s="19"/>
+      <c r="AHG3" s="19"/>
+      <c r="AHH3" s="19"/>
+      <c r="AHI3" s="19"/>
+      <c r="AHJ3" s="19"/>
+      <c r="AHK3" s="19"/>
+      <c r="AHL3" s="19"/>
+      <c r="AHM3" s="19"/>
+      <c r="AHN3" s="19"/>
+      <c r="AHO3" s="19"/>
+      <c r="AHP3" s="19"/>
+      <c r="AHQ3" s="19"/>
+      <c r="AHR3" s="19"/>
+      <c r="AHS3" s="19"/>
+      <c r="AHT3" s="19"/>
+      <c r="AHU3" s="19"/>
+      <c r="AHV3" s="19"/>
+      <c r="AHW3" s="19"/>
+      <c r="AHX3" s="19"/>
+      <c r="AHY3" s="19"/>
+      <c r="AHZ3" s="19"/>
+      <c r="AIA3" s="19"/>
+      <c r="AIB3" s="19"/>
+      <c r="AIC3" s="19"/>
+      <c r="AID3" s="19"/>
+      <c r="AIE3" s="19"/>
+      <c r="AIF3" s="19"/>
+      <c r="AIG3" s="19"/>
+      <c r="AIH3" s="19"/>
+      <c r="AII3" s="19"/>
+      <c r="AIJ3" s="19"/>
+      <c r="AIK3" s="19"/>
+      <c r="AIL3" s="19"/>
+      <c r="AIM3" s="19"/>
+      <c r="AIN3" s="19"/>
+      <c r="AIO3" s="19"/>
+      <c r="AIP3" s="19"/>
+      <c r="AIQ3" s="19"/>
+      <c r="AIR3" s="19"/>
+      <c r="AIS3" s="19"/>
+      <c r="AIT3" s="19"/>
+      <c r="AIU3" s="19"/>
+      <c r="AIV3" s="19"/>
+      <c r="AIW3" s="19"/>
+      <c r="AIX3" s="19"/>
+      <c r="AIY3" s="19"/>
+      <c r="AIZ3" s="19"/>
+      <c r="AJA3" s="19"/>
+      <c r="AJB3" s="19"/>
+      <c r="AJC3" s="19"/>
+      <c r="AJD3" s="19"/>
+      <c r="AJE3" s="19"/>
+      <c r="AJF3" s="19"/>
+      <c r="AJG3" s="19"/>
+      <c r="AJH3" s="19"/>
+      <c r="AJI3" s="19"/>
+      <c r="AJJ3" s="19"/>
+      <c r="AJK3" s="19"/>
+      <c r="AJL3" s="19"/>
+      <c r="AJM3" s="19"/>
+      <c r="AJN3" s="19"/>
+      <c r="AJO3" s="19"/>
+      <c r="AJP3" s="19"/>
+      <c r="AJQ3" s="19"/>
+      <c r="AJR3" s="19"/>
+      <c r="AJS3" s="19"/>
+      <c r="AJT3" s="19"/>
+      <c r="AJU3" s="19"/>
+      <c r="AJV3" s="19"/>
+      <c r="AJW3" s="19"/>
+      <c r="AJX3" s="19"/>
+      <c r="AJY3" s="19"/>
+      <c r="AJZ3" s="19"/>
+      <c r="AKA3" s="19"/>
+      <c r="AKB3" s="19"/>
+      <c r="AKC3" s="19"/>
+      <c r="AKD3" s="19"/>
+      <c r="AKE3" s="19"/>
+      <c r="AKF3" s="19"/>
+      <c r="AKG3" s="19"/>
+      <c r="AKH3" s="19"/>
+      <c r="AKI3" s="19"/>
+      <c r="AKJ3" s="19"/>
+      <c r="AKK3" s="19"/>
+      <c r="AKL3" s="19"/>
+      <c r="AKM3" s="19"/>
+      <c r="AKN3" s="19"/>
+      <c r="AKO3" s="19"/>
+      <c r="AKP3" s="19"/>
+      <c r="AKQ3" s="19"/>
+      <c r="AKR3" s="19"/>
+      <c r="AKS3" s="19"/>
+      <c r="AKT3" s="19"/>
+      <c r="AKU3" s="19"/>
+      <c r="AKV3" s="19"/>
+      <c r="AKW3" s="19"/>
+      <c r="AKX3" s="19"/>
+      <c r="AKY3" s="19"/>
+      <c r="AKZ3" s="19"/>
+      <c r="ALA3" s="19"/>
+      <c r="ALB3" s="19"/>
+      <c r="ALC3" s="19"/>
+      <c r="ALD3" s="19"/>
+      <c r="ALE3" s="19"/>
+      <c r="ALF3" s="19"/>
+      <c r="ALG3" s="19"/>
+      <c r="ALH3" s="19"/>
+      <c r="ALI3" s="19"/>
+      <c r="ALJ3" s="19"/>
+      <c r="ALK3" s="19"/>
+      <c r="ALL3" s="19"/>
+      <c r="ALM3" s="19"/>
+      <c r="ALN3" s="19"/>
+      <c r="ALO3" s="19"/>
+      <c r="ALP3" s="19"/>
+      <c r="ALQ3" s="19"/>
+      <c r="ALR3" s="19"/>
+      <c r="ALS3" s="19"/>
+      <c r="ALT3" s="19"/>
+      <c r="ALU3" s="19"/>
+      <c r="ALV3" s="19"/>
+      <c r="ALW3" s="19"/>
+      <c r="ALX3" s="19"/>
+      <c r="ALY3" s="19"/>
+      <c r="ALZ3" s="19"/>
+      <c r="AMA3" s="19"/>
+      <c r="AMB3" s="19"/>
+      <c r="AMC3" s="19"/>
+      <c r="AMD3" s="19"/>
+      <c r="AME3" s="19"/>
+      <c r="AMF3" s="19"/>
+      <c r="AMG3" s="19"/>
+      <c r="AMH3" s="19"/>
+      <c r="AMI3" s="19"/>
+      <c r="AMJ3" s="19"/>
+    </row>
+    <row r="4" s="18" customFormat="true" ht="22.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="21"/>
+      <c r="B4" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="ZN4" s="19"/>
+      <c r="ZO4" s="19"/>
+      <c r="ZP4" s="19"/>
+      <c r="ZQ4" s="19"/>
+      <c r="ZR4" s="19"/>
+      <c r="ZS4" s="19"/>
+      <c r="ZT4" s="19"/>
+      <c r="ZU4" s="19"/>
+      <c r="ZV4" s="19"/>
+      <c r="ZW4" s="19"/>
+      <c r="ZX4" s="19"/>
+      <c r="ZY4" s="19"/>
+      <c r="ZZ4" s="19"/>
+      <c r="AAA4" s="19"/>
+      <c r="AAB4" s="19"/>
+      <c r="AAC4" s="19"/>
+      <c r="AAD4" s="19"/>
+      <c r="AAE4" s="19"/>
+      <c r="AAF4" s="19"/>
+      <c r="AAG4" s="19"/>
+      <c r="AAH4" s="19"/>
+      <c r="AAI4" s="19"/>
+      <c r="AAJ4" s="19"/>
+      <c r="AAK4" s="19"/>
+      <c r="AAL4" s="19"/>
+      <c r="AAM4" s="19"/>
+      <c r="AAN4" s="19"/>
+      <c r="AAO4" s="19"/>
+      <c r="AAP4" s="19"/>
+      <c r="AAQ4" s="19"/>
+      <c r="AAR4" s="19"/>
+      <c r="AAS4" s="19"/>
+      <c r="AAT4" s="19"/>
+      <c r="AAU4" s="19"/>
+      <c r="AAV4" s="19"/>
+      <c r="AAW4" s="19"/>
+      <c r="AAX4" s="19"/>
+      <c r="AAY4" s="19"/>
+      <c r="AAZ4" s="19"/>
+      <c r="ABA4" s="19"/>
+      <c r="ABB4" s="19"/>
+      <c r="ABC4" s="19"/>
+      <c r="ABD4" s="19"/>
+      <c r="ABE4" s="19"/>
+      <c r="ABF4" s="19"/>
+      <c r="ABG4" s="19"/>
+      <c r="ABH4" s="19"/>
+      <c r="ABI4" s="19"/>
+      <c r="ABJ4" s="19"/>
+      <c r="ABK4" s="19"/>
+      <c r="ABL4" s="19"/>
+      <c r="ABM4" s="19"/>
+      <c r="ABN4" s="19"/>
+      <c r="ABO4" s="19"/>
+      <c r="ABP4" s="19"/>
+      <c r="ABQ4" s="19"/>
+      <c r="ABR4" s="19"/>
+      <c r="ABS4" s="19"/>
+      <c r="ABT4" s="19"/>
+      <c r="ABU4" s="19"/>
+      <c r="ABV4" s="19"/>
+      <c r="ABW4" s="19"/>
+      <c r="ABX4" s="19"/>
+      <c r="ABY4" s="19"/>
+      <c r="ABZ4" s="19"/>
+      <c r="ACA4" s="19"/>
+      <c r="ACB4" s="19"/>
+      <c r="ACC4" s="19"/>
+      <c r="ACD4" s="19"/>
+      <c r="ACE4" s="19"/>
+      <c r="ACF4" s="19"/>
+      <c r="ACG4" s="19"/>
+      <c r="ACH4" s="19"/>
+      <c r="ACI4" s="19"/>
+      <c r="ACJ4" s="19"/>
+      <c r="ACK4" s="19"/>
+      <c r="ACL4" s="19"/>
+      <c r="ACM4" s="19"/>
+      <c r="ACN4" s="19"/>
+      <c r="ACO4" s="19"/>
+      <c r="ACP4" s="19"/>
+      <c r="ACQ4" s="19"/>
+      <c r="ACR4" s="19"/>
+      <c r="ACS4" s="19"/>
+      <c r="ACT4" s="19"/>
+      <c r="ACU4" s="19"/>
+      <c r="ACV4" s="19"/>
+      <c r="ACW4" s="19"/>
+      <c r="ACX4" s="19"/>
+      <c r="ACY4" s="19"/>
+      <c r="ACZ4" s="19"/>
+      <c r="ADA4" s="19"/>
+      <c r="ADB4" s="19"/>
+      <c r="ADC4" s="19"/>
+      <c r="ADD4" s="19"/>
+      <c r="ADE4" s="19"/>
+      <c r="ADF4" s="19"/>
+      <c r="ADG4" s="19"/>
+      <c r="ADH4" s="19"/>
+      <c r="ADI4" s="19"/>
+      <c r="ADJ4" s="19"/>
+      <c r="ADK4" s="19"/>
+      <c r="ADL4" s="19"/>
+      <c r="ADM4" s="19"/>
+      <c r="ADN4" s="19"/>
+      <c r="ADO4" s="19"/>
+      <c r="ADP4" s="19"/>
+      <c r="ADQ4" s="19"/>
+      <c r="ADR4" s="19"/>
+      <c r="ADS4" s="19"/>
+      <c r="ADT4" s="19"/>
+      <c r="ADU4" s="19"/>
+      <c r="ADV4" s="19"/>
+      <c r="ADW4" s="19"/>
+      <c r="ADX4" s="19"/>
+      <c r="ADY4" s="19"/>
+      <c r="ADZ4" s="19"/>
+      <c r="AEA4" s="19"/>
+      <c r="AEB4" s="19"/>
+      <c r="AEC4" s="19"/>
+      <c r="AED4" s="19"/>
+      <c r="AEE4" s="19"/>
+      <c r="AEF4" s="19"/>
+      <c r="AEG4" s="19"/>
+      <c r="AEH4" s="19"/>
+      <c r="AEI4" s="19"/>
+      <c r="AEJ4" s="19"/>
+      <c r="AEK4" s="19"/>
+      <c r="AEL4" s="19"/>
+      <c r="AEM4" s="19"/>
+      <c r="AEN4" s="19"/>
+      <c r="AEO4" s="19"/>
+      <c r="AEP4" s="19"/>
+      <c r="AEQ4" s="19"/>
+      <c r="AER4" s="19"/>
+      <c r="AES4" s="19"/>
+      <c r="AET4" s="19"/>
+      <c r="AEU4" s="19"/>
+      <c r="AEV4" s="19"/>
+      <c r="AEW4" s="19"/>
+      <c r="AEX4" s="19"/>
+      <c r="AEY4" s="19"/>
+      <c r="AEZ4" s="19"/>
+      <c r="AFA4" s="19"/>
+      <c r="AFB4" s="19"/>
+      <c r="AFC4" s="19"/>
+      <c r="AFD4" s="19"/>
+      <c r="AFE4" s="19"/>
+      <c r="AFF4" s="19"/>
+      <c r="AFG4" s="19"/>
+      <c r="AFH4" s="19"/>
+      <c r="AFI4" s="19"/>
+      <c r="AFJ4" s="19"/>
+      <c r="AFK4" s="19"/>
+      <c r="AFL4" s="19"/>
+      <c r="AFM4" s="19"/>
+      <c r="AFN4" s="19"/>
+      <c r="AFO4" s="19"/>
+      <c r="AFP4" s="19"/>
+      <c r="AFQ4" s="19"/>
+      <c r="AFR4" s="19"/>
+      <c r="AFS4" s="19"/>
+      <c r="AFT4" s="19"/>
+      <c r="AFU4" s="19"/>
+      <c r="AFV4" s="19"/>
+      <c r="AFW4" s="19"/>
+      <c r="AFX4" s="19"/>
+      <c r="AFY4" s="19"/>
+      <c r="AFZ4" s="19"/>
+      <c r="AGA4" s="19"/>
+      <c r="AGB4" s="19"/>
+      <c r="AGC4" s="19"/>
+      <c r="AGD4" s="19"/>
+      <c r="AGE4" s="19"/>
+      <c r="AGF4" s="19"/>
+      <c r="AGG4" s="19"/>
+      <c r="AGH4" s="19"/>
+      <c r="AGI4" s="19"/>
+      <c r="AGJ4" s="19"/>
+      <c r="AGK4" s="19"/>
+      <c r="AGL4" s="19"/>
+      <c r="AGM4" s="19"/>
+      <c r="AGN4" s="19"/>
+      <c r="AGO4" s="19"/>
+      <c r="AGP4" s="19"/>
+      <c r="AGQ4" s="19"/>
+      <c r="AGR4" s="19"/>
+      <c r="AGS4" s="19"/>
+      <c r="AGT4" s="19"/>
+      <c r="AGU4" s="19"/>
+      <c r="AGV4" s="19"/>
+      <c r="AGW4" s="19"/>
+      <c r="AGX4" s="19"/>
+      <c r="AGY4" s="19"/>
+      <c r="AGZ4" s="19"/>
+      <c r="AHA4" s="19"/>
+      <c r="AHB4" s="19"/>
+      <c r="AHC4" s="19"/>
+      <c r="AHD4" s="19"/>
+      <c r="AHE4" s="19"/>
+      <c r="AHF4" s="19"/>
+      <c r="AHG4" s="19"/>
+      <c r="AHH4" s="19"/>
+      <c r="AHI4" s="19"/>
+      <c r="AHJ4" s="19"/>
+      <c r="AHK4" s="19"/>
+      <c r="AHL4" s="19"/>
+      <c r="AHM4" s="19"/>
+      <c r="AHN4" s="19"/>
+      <c r="AHO4" s="19"/>
+      <c r="AHP4" s="19"/>
+      <c r="AHQ4" s="19"/>
+      <c r="AHR4" s="19"/>
+      <c r="AHS4" s="19"/>
+      <c r="AHT4" s="19"/>
+      <c r="AHU4" s="19"/>
+      <c r="AHV4" s="19"/>
+      <c r="AHW4" s="19"/>
+      <c r="AHX4" s="19"/>
+      <c r="AHY4" s="19"/>
+      <c r="AHZ4" s="19"/>
+      <c r="AIA4" s="19"/>
+      <c r="AIB4" s="19"/>
+      <c r="AIC4" s="19"/>
+      <c r="AID4" s="19"/>
+      <c r="AIE4" s="19"/>
+      <c r="AIF4" s="19"/>
+      <c r="AIG4" s="19"/>
+      <c r="AIH4" s="19"/>
+      <c r="AII4" s="19"/>
+      <c r="AIJ4" s="19"/>
+      <c r="AIK4" s="19"/>
+      <c r="AIL4" s="19"/>
+      <c r="AIM4" s="19"/>
+      <c r="AIN4" s="19"/>
+      <c r="AIO4" s="19"/>
+      <c r="AIP4" s="19"/>
+      <c r="AIQ4" s="19"/>
+      <c r="AIR4" s="19"/>
+      <c r="AIS4" s="19"/>
+      <c r="AIT4" s="19"/>
+      <c r="AIU4" s="19"/>
+      <c r="AIV4" s="19"/>
+      <c r="AIW4" s="19"/>
+      <c r="AIX4" s="19"/>
+      <c r="AIY4" s="19"/>
+      <c r="AIZ4" s="19"/>
+      <c r="AJA4" s="19"/>
+      <c r="AJB4" s="19"/>
+      <c r="AJC4" s="19"/>
+      <c r="AJD4" s="19"/>
+      <c r="AJE4" s="19"/>
+      <c r="AJF4" s="19"/>
+      <c r="AJG4" s="19"/>
+      <c r="AJH4" s="19"/>
+      <c r="AJI4" s="19"/>
+      <c r="AJJ4" s="19"/>
+      <c r="AJK4" s="19"/>
+      <c r="AJL4" s="19"/>
+      <c r="AJM4" s="19"/>
+      <c r="AJN4" s="19"/>
+      <c r="AJO4" s="19"/>
+      <c r="AJP4" s="19"/>
+      <c r="AJQ4" s="19"/>
+      <c r="AJR4" s="19"/>
+      <c r="AJS4" s="19"/>
+      <c r="AJT4" s="19"/>
+      <c r="AJU4" s="19"/>
+      <c r="AJV4" s="19"/>
+      <c r="AJW4" s="19"/>
+      <c r="AJX4" s="19"/>
+      <c r="AJY4" s="19"/>
+      <c r="AJZ4" s="19"/>
+      <c r="AKA4" s="19"/>
+      <c r="AKB4" s="19"/>
+      <c r="AKC4" s="19"/>
+      <c r="AKD4" s="19"/>
+      <c r="AKE4" s="19"/>
+      <c r="AKF4" s="19"/>
+      <c r="AKG4" s="19"/>
+      <c r="AKH4" s="19"/>
+      <c r="AKI4" s="19"/>
+      <c r="AKJ4" s="19"/>
+      <c r="AKK4" s="19"/>
+      <c r="AKL4" s="19"/>
+      <c r="AKM4" s="19"/>
+      <c r="AKN4" s="19"/>
+      <c r="AKO4" s="19"/>
+      <c r="AKP4" s="19"/>
+      <c r="AKQ4" s="19"/>
+      <c r="AKR4" s="19"/>
+      <c r="AKS4" s="19"/>
+      <c r="AKT4" s="19"/>
+      <c r="AKU4" s="19"/>
+      <c r="AKV4" s="19"/>
+      <c r="AKW4" s="19"/>
+      <c r="AKX4" s="19"/>
+      <c r="AKY4" s="19"/>
+      <c r="AKZ4" s="19"/>
+      <c r="ALA4" s="19"/>
+      <c r="ALB4" s="19"/>
+      <c r="ALC4" s="19"/>
+      <c r="ALD4" s="19"/>
+      <c r="ALE4" s="19"/>
+      <c r="ALF4" s="19"/>
+      <c r="ALG4" s="19"/>
+      <c r="ALH4" s="19"/>
+      <c r="ALI4" s="19"/>
+      <c r="ALJ4" s="19"/>
+      <c r="ALK4" s="19"/>
+      <c r="ALL4" s="19"/>
+      <c r="ALM4" s="19"/>
+      <c r="ALN4" s="19"/>
+      <c r="ALO4" s="19"/>
+      <c r="ALP4" s="19"/>
+      <c r="ALQ4" s="19"/>
+      <c r="ALR4" s="19"/>
+      <c r="ALS4" s="19"/>
+      <c r="ALT4" s="19"/>
+      <c r="ALU4" s="19"/>
+      <c r="ALV4" s="19"/>
+      <c r="ALW4" s="19"/>
+      <c r="ALX4" s="19"/>
+      <c r="ALY4" s="19"/>
+      <c r="ALZ4" s="19"/>
+      <c r="AMA4" s="19"/>
+      <c r="AMB4" s="19"/>
+      <c r="AMC4" s="19"/>
+      <c r="AMD4" s="19"/>
+      <c r="AME4" s="19"/>
+      <c r="AMF4" s="19"/>
+      <c r="AMG4" s="19"/>
+      <c r="AMH4" s="19"/>
+      <c r="AMI4" s="19"/>
+      <c r="AMJ4" s="19"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/database/meta/info_tags.xlsx
+++ b/database/meta/info_tags.xlsx
@@ -5,13 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="1-post" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="3-data" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="q-question" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="v-map-show" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="9-data" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="59">
   <si>
     <t xml:space="preserve">slug</t>
   </si>
@@ -167,6 +168,39 @@
   </si>
   <si>
     <t xml:space="preserve">map_show</t>
+  </si>
+  <si>
+    <t xml:space="preserve">t91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">basic_geo_db9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basic geographic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nature_geo9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nature Geographic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">t92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nature_resources9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nature resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nature_res9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eco_res9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Economic resources</t>
   </si>
 </sst>
 </file>
@@ -360,7 +394,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -450,6 +484,10 @@
       <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -833,7 +871,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="690" style="0" width="9.61"/>
   </cols>
@@ -2239,13 +2277,13 @@
   </sheetPr>
   <dimension ref="A1:AMJ9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="27.58"/>
   </cols>
   <sheetData>
@@ -3641,4 +3679,164 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="26.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="43.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="36.27"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="true" ht="61.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" s="1" customFormat="true" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5"/>
+      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" s="1" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" s="1" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5"/>
+      <c r="B6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" s="1" customFormat="true" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5"/>
+      <c r="B7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>